--- a/on_trucks/Processed_Stand_Alone/57_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/57_11R22.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>105</v>
       </c>
       <c r="E2">
-        <v>0.003056002699450456</v>
+        <v>0.003055490664580075</v>
       </c>
       <c r="F2">
         <v>0.5102796732272538</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>57</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>102</v>
       </c>
       <c r="E3">
-        <v>0.00284990419098889</v>
+        <v>0.002846270997462597</v>
       </c>
       <c r="F3">
         <v>0.5355404160992771</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>57</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>102</v>
       </c>
       <c r="E4">
-        <v>0.004720336220742693</v>
+        <v>0.004599586612760704</v>
       </c>
       <c r="F4">
         <v>0.5257888714724521</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>57</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>101</v>
       </c>
       <c r="E5">
-        <v>0.004398914866630152</v>
+        <v>0.004380600676719868</v>
       </c>
       <c r="F5">
         <v>0.5027460572100645</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <v>57</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>103</v>
       </c>
       <c r="E6">
-        <v>0.002754085971676461</v>
+        <v>0.0027174320259105</v>
       </c>
       <c r="F6">
         <v>0.5026575674551437</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>57</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>133</v>
       </c>
       <c r="E2">
-        <v>0.003056002699450456</v>
+        <v>0.003055490664580075</v>
       </c>
       <c r="F2">
         <v>0.7052834907363761</v>
       </c>
       <c r="G2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2">
         <v>57</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>127</v>
       </c>
       <c r="E3">
-        <v>0.00284990419098889</v>
+        <v>0.002846270997462597</v>
       </c>
       <c r="F3">
         <v>0.70368065016421</v>
       </c>
       <c r="G3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>57</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>124</v>
       </c>
       <c r="E4">
-        <v>0.004720336220742693</v>
+        <v>0.004599586612760704</v>
       </c>
       <c r="F4">
         <v>0.7002503422087875</v>
       </c>
       <c r="G4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>57</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>120</v>
       </c>
       <c r="E5">
-        <v>0.004398914866630152</v>
+        <v>0.004380600676719868</v>
       </c>
       <c r="F5">
         <v>0.7006564204450364</v>
       </c>
       <c r="G5">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H5">
         <v>57</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>133</v>
       </c>
       <c r="E6">
-        <v>0.002754085971676461</v>
+        <v>0.0027174320259105</v>
       </c>
       <c r="F6">
         <v>0.7045428953846035</v>
       </c>
       <c r="G6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6">
         <v>57</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>151</v>
       </c>
       <c r="E2">
-        <v>0.003056002699450456</v>
+        <v>0.003055490664580075</v>
       </c>
       <c r="F2">
         <v>0.8028227299691528</v>
       </c>
       <c r="G2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H2">
         <v>57</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>149</v>
       </c>
       <c r="E3">
-        <v>0.00284990419098889</v>
+        <v>0.002846270997462597</v>
       </c>
       <c r="F3">
         <v>0.8016721615362528</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H3">
         <v>57</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>146</v>
       </c>
       <c r="E4">
-        <v>0.004720336220742693</v>
+        <v>0.004599586612760704</v>
       </c>
       <c r="F4">
         <v>0.8033233853931927</v>
       </c>
       <c r="G4">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H4">
         <v>57</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>148</v>
       </c>
       <c r="E5">
-        <v>0.004398914866630152</v>
+        <v>0.004380600676719868</v>
       </c>
       <c r="F5">
         <v>0.8006690390492592</v>
       </c>
       <c r="G5">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H5">
         <v>57</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>152</v>
       </c>
       <c r="E6">
-        <v>0.002754085971676461</v>
+        <v>0.0027174320259105</v>
       </c>
       <c r="F6">
         <v>0.8080234253401596</v>
       </c>
       <c r="G6">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H6">
         <v>57</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>162</v>
       </c>
       <c r="E2">
-        <v>0.003056002699450456</v>
+        <v>0.003055490664580075</v>
       </c>
       <c r="F2">
         <v>0.9068648029807689</v>
       </c>
       <c r="G2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H2">
         <v>57</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>161</v>
       </c>
       <c r="E3">
-        <v>0.00284990419098889</v>
+        <v>0.002846270997462597</v>
       </c>
       <c r="F3">
         <v>0.9167359974619484</v>
       </c>
       <c r="G3">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H3">
         <v>57</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>159</v>
       </c>
       <c r="E4">
-        <v>0.004720336220742693</v>
+        <v>0.004599586612760704</v>
       </c>
       <c r="F4">
         <v>0.9043754439943733</v>
       </c>
       <c r="G4">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H4">
         <v>57</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>161</v>
       </c>
       <c r="E5">
-        <v>0.004398914866630152</v>
+        <v>0.004380600676719868</v>
       </c>
       <c r="F5">
         <v>0.9002699486782628</v>
       </c>
       <c r="G5">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H5">
         <v>57</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>163</v>
       </c>
       <c r="E6">
-        <v>0.002754085971676461</v>
+        <v>0.0027174320259105</v>
       </c>
       <c r="F6">
         <v>0.911316407604803</v>
       </c>
       <c r="G6">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H6">
         <v>57</v>

--- a/on_trucks/Processed_Stand_Alone/57_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/57_11R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>4.643087531417459E-07</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.131165534566964E-05</v>
+        <v>9.668441013105163E-06</v>
       </c>
       <c r="D2">
-        <v>1.764251697945666E-05</v>
+        <v>1.600123775087426E-05</v>
       </c>
       <c r="E2">
-        <v>2.730294042064293E-05</v>
+        <v>2.566461401664443E-05</v>
       </c>
       <c r="F2">
-        <v>1.764251697945666E-05</v>
+        <v>1.600123775087426E-05</v>
       </c>
       <c r="G2">
-        <v>2.384936362041742E-05</v>
+        <v>2.220998158914335E-05</v>
       </c>
       <c r="H2">
-        <v>1.880918591196991E-05</v>
+        <v>1.716826328977502E-05</v>
       </c>
       <c r="I2">
-        <v>9.337937459840686E-06</v>
+        <v>7.694119836671976E-06</v>
       </c>
       <c r="J2">
-        <v>4.999099210823722E-06</v>
+        <v>3.35395536957303E-06</v>
       </c>
       <c r="K2">
-        <v>2.357770763613154E-06</v>
+        <v>7.118195685626442E-07</v>
       </c>
       <c r="L2">
-        <v>7.619398559250732E-09</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.065614738358794E-07</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.646168704776257E-06</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>8.947479482426993E-06</v>
+        <v>7.303542511082531E-06</v>
       </c>
       <c r="P2">
-        <v>2.214189871918688E-06</v>
+        <v>5.681947896421831E-07</v>
       </c>
       <c r="Q2">
-        <v>1.88417969100835E-05</v>
+        <v>1.72008842558323E-05</v>
       </c>
       <c r="R2">
-        <v>1.88417969100835E-05</v>
+        <v>1.72008842558323E-05</v>
       </c>
       <c r="S2">
-        <v>1.682284102687137E-05</v>
+        <v>1.518131125447809E-05</v>
       </c>
       <c r="T2">
-        <v>2.734222141837069E-05</v>
+        <v>2.570390702108147E-05</v>
       </c>
       <c r="U2">
-        <v>4.601510733822497E-05</v>
+        <v>4.438250053304415E-05</v>
       </c>
       <c r="V2">
-        <v>2.915783431334533E-05</v>
+        <v>2.75200748799688E-05</v>
       </c>
       <c r="W2">
-        <v>2.388607861829361E-05</v>
+        <v>2.224670780940011E-05</v>
       </c>
       <c r="X2">
-        <v>2.422118859890895E-05</v>
+        <v>2.258192022041046E-05</v>
       </c>
       <c r="Y2">
-        <v>1.426578317478611E-05</v>
+        <v>1.26234718069137E-05</v>
       </c>
       <c r="Z2">
-        <v>1.227587628989363E-05</v>
+        <v>1.063295668305476E-05</v>
       </c>
       <c r="AA2">
-        <v>5.326645991876557E-06</v>
+        <v>3.68160226923799E-06</v>
       </c>
       <c r="AB2">
-        <v>3.53779229535401E-06</v>
+        <v>1.892201788073522E-06</v>
       </c>
       <c r="AC2">
-        <v>5.015153509895051E-08</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>1.955883186860613E-07</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>3.14938901782146E-06</v>
+        <v>1.503679790408945E-06</v>
       </c>
       <c r="AF2">
-        <v>4.406683745092396E-06</v>
+        <v>2.761358824931266E-06</v>
       </c>
       <c r="AG2">
-        <v>3.351366806137919E-07</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>4.643087531417459E-07</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>4.406683745092396E-06</v>
+        <v>2.761358824931266E-06</v>
       </c>
       <c r="AJ2">
-        <v>4.124482761416503E-06</v>
+        <v>2.479071583131464E-06</v>
       </c>
       <c r="AK2">
-        <v>5.620953174852158E-07</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>1.065614738358794E-07</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>1.154378783224178E-07</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>7.367609573815637E-08</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>1.019531841024491E-06</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.31703036596981E-06</v>
+        <v>6.710667181268891E-07</v>
       </c>
       <c r="AQ2">
-        <v>9.360919458511278E-06</v>
+        <v>7.717108860066802E-06</v>
       </c>
       <c r="AR2">
-        <v>1.738801299417862E-05</v>
+        <v>1.57466559733929E-05</v>
       </c>
       <c r="AS2">
-        <v>3.975487770035219E-05</v>
+        <v>3.812035738070814E-05</v>
       </c>
       <c r="AT2">
-        <v>6.177349642667029E-05</v>
+        <v>6.014570636259677E-05</v>
       </c>
       <c r="AU2">
-        <v>7.239845581206231E-05</v>
+        <v>7.077391339458183E-05</v>
       </c>
       <c r="AV2">
-        <v>9.056506476120253E-05</v>
+        <v>8.894607518618676E-05</v>
       </c>
       <c r="AW2">
-        <v>8.138185529241149E-05</v>
+        <v>7.97600587590006E-05</v>
       </c>
       <c r="AX2">
-        <v>9.450857953308725E-05</v>
+        <v>9.289079534077921E-05</v>
       </c>
       <c r="AY2">
-        <v>7.533456564222106E-05</v>
+        <v>7.371092068201462E-05</v>
       </c>
       <c r="AZ2">
-        <v>5.028114709145301E-05</v>
+        <v>4.864984425261857E-05</v>
       </c>
       <c r="BA2">
-        <v>6.448782626965804E-05</v>
+        <v>6.286086587313874E-05</v>
       </c>
       <c r="BB2">
-        <v>4.601510733822497E-05</v>
+        <v>4.438250053304415E-05</v>
       </c>
       <c r="BC2">
-        <v>2.952795829193526E-05</v>
+        <v>2.789031199140324E-05</v>
       </c>
       <c r="BD2">
-        <v>1.021581040905953E-05</v>
+        <v>8.572261118313492E-06</v>
       </c>
       <c r="BE2">
-        <v>5.810244663902464E-06</v>
+        <v>4.165348759012901E-06</v>
       </c>
       <c r="BF2">
-        <v>5.015153509895051E-08</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>2.606937649199927E-07</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>8.323130518542881E-06</v>
+        <v>6.679002707430295E-06</v>
       </c>
       <c r="BI2">
-        <v>1.851401692904416E-05</v>
+        <v>1.687300408490045E-05</v>
       </c>
       <c r="BJ2">
-        <v>3.551860394540231E-05</v>
+        <v>3.388278875774714E-05</v>
       </c>
       <c r="BK2">
-        <v>7.002868594914326E-05</v>
+        <v>6.840341918300954E-05</v>
       </c>
       <c r="BL2">
-        <v>7.645962157714144E-05</v>
+        <v>7.483632050380943E-05</v>
       </c>
       <c r="BM2">
-        <v>8.008645536734478E-05</v>
+        <v>7.846426287937061E-05</v>
       </c>
       <c r="BN2">
-        <v>7.8868175437817E-05</v>
+        <v>7.72456105679335E-05</v>
       </c>
       <c r="BO2">
-        <v>9.31122046138615E-05</v>
+        <v>9.149399360276907E-05</v>
       </c>
       <c r="BP2">
-        <v>5.905974158364927E-05</v>
+        <v>5.743112202777718E-05</v>
       </c>
       <c r="BQ2">
-        <v>2.874973133695233E-05</v>
+        <v>2.711184716199394E-05</v>
       </c>
       <c r="BR2">
-        <v>2.221011171524105E-05</v>
+        <v>2.057022862691143E-05</v>
       </c>
       <c r="BS2">
-        <v>1.488925013872125E-05</v>
+        <v>1.324712934102307E-05</v>
       </c>
       <c r="BT2">
-        <v>1.344901422203267E-06</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>1.475088614672501E-08</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>3.473824999054241E-06</v>
+        <v>1.828214939400482E-06</v>
       </c>
       <c r="BW2">
-        <v>1.599258907489786E-05</v>
+        <v>1.435080552601232E-05</v>
       </c>
       <c r="BX2">
-        <v>3.103180120494445E-05</v>
+        <v>2.939461457208134E-05</v>
       </c>
       <c r="BY2">
-        <v>6.123762645766804E-05</v>
+        <v>5.960967259849507E-05</v>
       </c>
       <c r="BZ2">
-        <v>6.726053610926876E-05</v>
+        <v>6.563442322485162E-05</v>
       </c>
       <c r="CA2">
-        <v>0.000106138233860362</v>
+        <v>0.0001045240044117367</v>
       </c>
       <c r="CB2">
-        <v>0.0001816995694894654</v>
+        <v>0.0001801084362716416</v>
       </c>
       <c r="CC2">
-        <v>0.0001598348107542472</v>
+        <v>0.0001582369943100092</v>
       </c>
       <c r="CD2">
-        <v>0.000162436840603731</v>
+        <v>0.0001608398195012039</v>
       </c>
       <c r="CE2">
-        <v>0.0001606998207042101</v>
+        <v>0.0001591022686606644</v>
       </c>
       <c r="CF2">
-        <v>0.000142208811773835</v>
+        <v>0.0001406056077310697</v>
       </c>
       <c r="CG2">
-        <v>0.0001089726636964025</v>
+        <v>0.0001073593006253384</v>
       </c>
       <c r="CH2">
-        <v>5.729304068584528E-05</v>
+        <v>5.566388111660057E-05</v>
       </c>
       <c r="CI2">
-        <v>3.721198084744778E-05</v>
+        <v>3.557668326080428E-05</v>
       </c>
       <c r="CJ2">
-        <v>1.133694734420661E-05</v>
+        <v>9.693740742445596E-06</v>
       </c>
       <c r="CK2">
-        <v>3.866383776346414E-06</v>
+        <v>2.220893707003149E-06</v>
       </c>
       <c r="CL2">
-        <v>5.120348703809964E-07</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>8.344828017287775E-06</v>
+        <v>6.700706838276575E-06</v>
       </c>
       <c r="CN2">
-        <v>0.06022043151650838</v>
+        <v>0.0602371919436294</v>
       </c>
       <c r="CO2">
-        <v>0.03461031399794296</v>
+        <v>0.03461924638470262</v>
       </c>
       <c r="CP2">
-        <v>0.1355623121583063</v>
+        <v>0.1356021017371732</v>
       </c>
       <c r="CQ2">
-        <v>0.08158474528067518</v>
+        <v>0.08160803596718753</v>
       </c>
       <c r="CR2">
-        <v>0.0001380755820129245</v>
+        <v>0.0001364711145987839</v>
       </c>
       <c r="CS2">
-        <v>0.009985601422376126</v>
+        <v>0.00998700696964396</v>
       </c>
       <c r="CT2">
-        <v>0.00965719444137305</v>
+        <v>0.009658499607098301</v>
       </c>
       <c r="CU2">
-        <v>0.0002305551766633797</v>
+        <v>0.0002289789767493395</v>
       </c>
       <c r="CV2">
-        <v>0.001903522689889442</v>
+        <v>0.001902457852611957</v>
       </c>
       <c r="CW2">
-        <v>0.01897543390235318</v>
+        <v>0.01897958730001429</v>
       </c>
       <c r="CX2">
-        <v>0.0003832934778281293</v>
+        <v>0.0003817639642123998</v>
       </c>
       <c r="CY2">
-        <v>0.1176643131936282</v>
+        <v>0.117698632033902</v>
       </c>
       <c r="CZ2">
-        <v>0.009068834475407132</v>
+        <v>0.009069959801834213</v>
       </c>
       <c r="DA2">
-        <v>0.0006912229200157423</v>
+        <v>0.0006897875287366304</v>
       </c>
       <c r="DB2">
-        <v>0.02653947546480608</v>
+        <v>0.02654594090272249</v>
       </c>
       <c r="DC2">
-        <v>0.0007964467539289984</v>
+        <v>0.0007950435255799571</v>
       </c>
       <c r="DD2">
-        <v>0.05929526357002534</v>
+        <v>0.05931174120843909</v>
       </c>
       <c r="DE2">
-        <v>0.000339789730344633</v>
+        <v>0.0003382469192853863</v>
       </c>
       <c r="DF2">
-        <v>0.001829402494176974</v>
+        <v>0.001828315001170433</v>
       </c>
       <c r="DG2">
-        <v>0.0010096156415981</v>
+        <v>0.001008277570882765</v>
       </c>
       <c r="DH2">
-        <v>0.001774613297346293</v>
+        <v>0.001773509057362942</v>
       </c>
       <c r="DI2">
-        <v>0.000878481949183617</v>
+        <v>0.000877103795878415</v>
       </c>
       <c r="DJ2">
-        <v>0.005135296102945321</v>
+        <v>0.005135219096071108</v>
       </c>
       <c r="DK2">
-        <v>0.002670307045534281</v>
+        <v>0.002669476585115088</v>
       </c>
       <c r="DL2">
-        <v>0.0003434395001335097</v>
+        <v>0.0003418978046702846</v>
       </c>
       <c r="DM2">
-        <v>0.001656863604157603</v>
+        <v>0.00165572337256468</v>
       </c>
       <c r="DN2">
-        <v>0.02358353363579453</v>
+        <v>0.023589095554548</v>
       </c>
       <c r="DO2">
-        <v>0.01926833488541013</v>
+        <v>0.01927257781177862</v>
       </c>
       <c r="DP2">
-        <v>0.002105015178233972</v>
+        <v>0.002104011929558341</v>
       </c>
       <c r="DQ2">
-        <v>0.0277211293964525</v>
+        <v>0.0277279560211016</v>
       </c>
       <c r="DR2">
-        <v>0.003309745408545537</v>
+        <v>0.003309110400150748</v>
       </c>
       <c r="DS2">
-        <v>0.004334380749274811</v>
+        <v>0.004334058932992363</v>
       </c>
       <c r="DT2">
-        <v>2.824092336638467E-07</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.0009749424036037968</v>
+        <v>0.0009735937345963506</v>
       </c>
       <c r="DV2">
-        <v>0.0003285485809948849</v>
+        <v>0.0003270023339431734</v>
       </c>
       <c r="DW2">
-        <v>0.0008683851997676703</v>
+        <v>0.0008670039602696038</v>
       </c>
       <c r="DX2">
-        <v>0.001115124835494849</v>
+        <v>0.001113819014933296</v>
       </c>
       <c r="DY2">
-        <v>0.006733873610474523</v>
+        <v>0.006734285228037143</v>
       </c>
       <c r="DZ2">
-        <v>0.005708094369811417</v>
+        <v>0.005708192445614928</v>
       </c>
       <c r="EA2">
-        <v>0.002608490249110116</v>
+        <v>0.002607640893643796</v>
       </c>
       <c r="EB2">
-        <v>0.003687492386694507</v>
+        <v>0.003686972841205704</v>
       </c>
       <c r="EC2">
-        <v>0.009268381463864201</v>
+        <v>0.009269567784227703</v>
       </c>
       <c r="ED2">
-        <v>0.007658543056986392</v>
+        <v>0.007659237310883773</v>
       </c>
       <c r="EE2">
-        <v>0.01117725635344404</v>
+        <v>0.01117902614437028</v>
       </c>
       <c r="EF2">
-        <v>0.0002964183628534791</v>
+        <v>0.0002948622948142517</v>
       </c>
       <c r="EG2">
-        <v>0.0001154059583242642</v>
+        <v>0.0001137945616670585</v>
       </c>
       <c r="EH2">
-        <v>0.004657322730594013</v>
+        <v>0.004657099625411283</v>
       </c>
       <c r="EI2">
-        <v>0.003282717210109001</v>
+        <v>0.003282073940220367</v>
       </c>
       <c r="EJ2">
-        <v>3.2768274104497E-05</v>
+        <v>3.113161824545538E-05</v>
       </c>
       <c r="EK2">
-        <v>0.002636482847490865</v>
+        <v>0.002635642048298829</v>
       </c>
       <c r="EL2">
-        <v>0.000492459671513337</v>
+        <v>0.0004909635258573462</v>
       </c>
       <c r="EM2">
-        <v>0.01324814323365219</v>
+        <v>0.01325054601605418</v>
       </c>
       <c r="EN2">
-        <v>0.01559715709777189</v>
+        <v>0.01560027788450652</v>
       </c>
       <c r="EO2">
-        <v>0.002449113058329397</v>
+        <v>0.002448214987308328</v>
       </c>
       <c r="EP2">
-        <v>0.001858744192479684</v>
+        <v>0.00185766566811604</v>
       </c>
       <c r="EQ2">
-        <v>0.005042151708333322</v>
+        <v>0.005042046230754907</v>
       </c>
       <c r="ER2">
-        <v>0.0002415775660257822</v>
+        <v>0.0002400047352375862</v>
       </c>
       <c r="ES2">
-        <v>0.008181421526740134</v>
+        <v>0.008182275604729002</v>
       </c>
       <c r="ET2">
-        <v>6.945806998215093E-05</v>
+        <v>6.783262880038569E-05</v>
       </c>
       <c r="EU2">
-        <v>0.01535397311183903</v>
+        <v>0.01535701956646426</v>
       </c>
       <c r="EV2">
-        <v>0.01280666825918961</v>
+        <v>0.01280893609945726</v>
       </c>
       <c r="EW2">
-        <v>0.0004494686140001838</v>
+        <v>0.00044795932761053</v>
       </c>
       <c r="EX2">
-        <v>0.000538206218867097</v>
+        <v>0.0005367240561933718</v>
       </c>
       <c r="EY2">
-        <v>0.007768903550602516</v>
+        <v>0.007769631537511769</v>
       </c>
       <c r="EZ2">
-        <v>0.01478779414459004</v>
+        <v>0.01479066753980606</v>
       </c>
       <c r="FA2">
-        <v>0.000748762696687315</v>
+        <v>0.000747344893132814</v>
       </c>
       <c r="FB2">
-        <v>0.03614096090940165</v>
+        <v>0.03615036115679463</v>
       </c>
       <c r="FC2">
-        <v>0.006025269251464222</v>
+        <v>0.006025464275584092</v>
       </c>
       <c r="FD2">
-        <v>0.008261281522120578</v>
+        <v>0.008262160010277289</v>
       </c>
       <c r="FE2">
-        <v>0.001398062719128116</v>
+        <v>0.001396843381932804</v>
       </c>
       <c r="FF2">
-        <v>0.01346926722086112</v>
+        <v>0.01347173759246864</v>
       </c>
       <c r="FG2">
-        <v>0.01445409616389302</v>
+        <v>0.01445686756030879</v>
       </c>
       <c r="FH2">
-        <v>0.002684449144716222</v>
+        <v>0.002683623006999691</v>
       </c>
       <c r="FI2">
-        <v>0.002292402667394416</v>
+        <v>0.002291456695958036</v>
       </c>
       <c r="FJ2">
-        <v>0.001826481194345959</v>
+        <v>0.001825392808408997</v>
       </c>
       <c r="FK2">
-        <v>0.0004105147162534984</v>
+        <v>0.0004089935231366079</v>
       </c>
       <c r="FL2">
-        <v>0.0004422547744174732</v>
+        <v>0.0004407432830310101</v>
       </c>
       <c r="FM2">
-        <v>0.0005507858281394209</v>
+        <v>0.0005493075105745298</v>
       </c>
       <c r="FN2">
-        <v>0.00232853026530459</v>
+        <v>0.002327595336702919</v>
       </c>
       <c r="FO2">
-        <v>0.003002740026304471</v>
+        <v>0.003002011178023098</v>
       </c>
       <c r="FP2">
-        <v>0.005275248194849698</v>
+        <v>0.005275213966015191</v>
       </c>
       <c r="FQ2">
-        <v>0.003848966777353911</v>
+        <v>0.003848496588454218</v>
       </c>
       <c r="FR2">
-        <v>3.653098488684045E-06</v>
+        <v>2.007543226128016E-06</v>
       </c>
       <c r="FS2">
-        <v>0.002744969541215379</v>
+        <v>0.002744161902285748</v>
       </c>
       <c r="FT2">
-        <v>0.001549120810390058</v>
+        <v>0.001547947645916697</v>
       </c>
       <c r="FU2">
-        <v>0.0002970068428194381</v>
+        <v>0.0002954509546561882</v>
       </c>
       <c r="FV2">
-        <v>0.002464353157447823</v>
+        <v>0.0024634597447463</v>
       </c>
       <c r="FW2">
-        <v>0.000977311943466729</v>
+        <v>0.0009759639987376338</v>
       </c>
       <c r="FX2">
-        <v>3.218419613828339E-05</v>
+        <v>3.05473617487883E-05</v>
       </c>
       <c r="FY2">
-        <v>0.0004727816326516264</v>
+        <v>0.0004712794721664445</v>
       </c>
       <c r="FZ2">
-        <v>7.947614540264858E-05</v>
+        <v>7.785376636609521E-05</v>
       </c>
       <c r="GA2">
-        <v>0.001953028687025733</v>
+        <v>0.001951978981851545</v>
       </c>
       <c r="GB2">
-        <v>0.01249625727714554</v>
+        <v>0.01249843023656408</v>
       </c>
       <c r="GC2">
-        <v>0.006946404098180553</v>
+        <v>0.006946880678242255</v>
       </c>
       <c r="GD2">
-        <v>0.0003162802417045553</v>
+        <v>0.0003147302446874224</v>
       </c>
       <c r="GE2">
-        <v>0.0007002342194944776</v>
+        <v>0.0006988015826274053</v>
       </c>
       <c r="GF2">
-        <v>0.0003162802417045553</v>
+        <v>0.0003147302446874224</v>
       </c>
       <c r="GG2">
-        <v>0.0001807796995426759</v>
+        <v>0.0001791882851555422</v>
       </c>
       <c r="GH2">
-        <v>8.317301518880064E-05</v>
+        <v>8.15517661449494E-05</v>
       </c>
       <c r="GI2">
-        <v>0.002025833482814291</v>
+        <v>0.002024806031301357</v>
       </c>
       <c r="GJ2">
-        <v>5.723617668913462E-05</v>
+        <v>5.560699973872556E-05</v>
       </c>
       <c r="GK2">
-        <v>0.0001633088605532884</v>
+        <v>0.0001617121059941443</v>
       </c>
       <c r="GL2">
-        <v>0.003194798315194729</v>
+        <v>0.003194128171838708</v>
       </c>
       <c r="GM2">
-        <v>0.005898073858821925</v>
+        <v>0.005898230004140609</v>
       </c>
       <c r="GN2">
-        <v>0.001755637798443943</v>
+        <v>0.001754527758371187</v>
       </c>
       <c r="GO2">
-        <v>0.0003725213584512499</v>
+        <v>0.0003709885522077064</v>
       </c>
       <c r="GP2">
-        <v>0.002136481076413806</v>
+        <v>0.002135487445668307</v>
       </c>
       <c r="GQ2">
-        <v>0.008546272505635081</v>
+        <v>0.008547238104712699</v>
       </c>
       <c r="GR2">
-        <v>0.009183062468799536</v>
+        <v>0.009184222710386301</v>
       </c>
       <c r="GS2">
-        <v>0.00552630268032728</v>
+        <v>0.005526345189314996</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.954623060346491E-08</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>7.176949354400968E-07</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.351748072577038E-05</v>
+        <v>3.792020644665745E-06</v>
       </c>
       <c r="E3">
-        <v>2.290769753527071E-05</v>
+        <v>1.31982287182343E-05</v>
       </c>
       <c r="F3">
-        <v>8.147735434706597E-07</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.62812936697008E-05</v>
+        <v>6.560540281052608E-06</v>
       </c>
       <c r="H3">
-        <v>2.766167243882665E-07</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2.820243942785609E-06</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>3.147883936138764E-06</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>5.021663198125336E-05</v>
+        <v>4.0553669479354E-05</v>
       </c>
       <c r="L3">
-        <v>2.604045347171638E-05</v>
+        <v>1.633631964624166E-05</v>
       </c>
       <c r="M3">
-        <v>3.984594419164388E-06</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>3.588792927194028E-05</v>
+        <v>2.620056540919609E-05</v>
       </c>
       <c r="O3">
-        <v>3.295904333135869E-05</v>
+        <v>2.326669166168184E-05</v>
       </c>
       <c r="P3">
-        <v>2.519804948880625E-05</v>
+        <v>1.549248107403331E-05</v>
       </c>
       <c r="Q3">
-        <v>1.250113974638893E-05</v>
+        <v>2.773948866377902E-06</v>
       </c>
       <c r="R3">
-        <v>1.108802477505684E-06</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>9.731906802568453E-06</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>1.411964971355415E-05</v>
+        <v>4.395215108590562E-06</v>
       </c>
       <c r="U3">
-        <v>7.003233857925141E-08</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>3.570205727571107E-07</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>4.633945905990971E-07</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>1.739082564719169E-06</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>1.210032275452031E-07</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>1.743836164622733E-05</v>
+        <v>7.719578710437984E-06</v>
       </c>
       <c r="AA3">
-        <v>2.606311447125665E-05</v>
+        <v>1.635901923680012E-05</v>
       </c>
       <c r="AB3">
-        <v>6.661026864867506E-06</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>4.686367304927497E-06</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>3.20355713500932E-05</v>
+        <v>2.234164703469245E-05</v>
       </c>
       <c r="AE3">
-        <v>3.079182937532504E-05</v>
+        <v>2.10957870037862E-05</v>
       </c>
       <c r="AF3">
-        <v>1.193492075787583E-05</v>
+        <v>2.206765623519093E-06</v>
       </c>
       <c r="AG3">
-        <v>1.983208459766578E-05</v>
+        <v>1.011737810192028E-05</v>
       </c>
       <c r="AH3">
-        <v>1.413633371321568E-05</v>
+        <v>4.411927520614632E-06</v>
       </c>
       <c r="AI3">
-        <v>1.264646974344061E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>3.72752132437964E-08</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>1.813014763219304E-06</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>5.696427884436361E-06</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>6.793409562181854E-06</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>4.37555191123302E-05</v>
+        <v>3.408155352454287E-05</v>
       </c>
       <c r="AO3">
-        <v>2.436949550561516E-05</v>
+        <v>1.466251608768768E-05</v>
       </c>
       <c r="AP3">
-        <v>1.650592266514375E-05</v>
+        <v>6.785551813092566E-06</v>
       </c>
       <c r="AQ3">
-        <v>2.954857840054692E-05</v>
+        <v>1.985041880902859E-05</v>
       </c>
       <c r="AR3">
-        <v>3.588792927194028E-05</v>
+        <v>2.620056540919609E-05</v>
       </c>
       <c r="AS3">
-        <v>8.867046420113908E-05</v>
+        <v>7.907298744871053E-05</v>
       </c>
       <c r="AT3">
-        <v>8.919365819052503E-05</v>
+        <v>7.959707242212944E-05</v>
       </c>
       <c r="AU3">
-        <v>6.336428371452648E-05</v>
+        <v>5.372371127826769E-05</v>
       </c>
       <c r="AV3">
-        <v>8.659309824328267E-05</v>
+        <v>7.699208379750024E-05</v>
       </c>
       <c r="AW3">
-        <v>4.904411500504025E-05</v>
+        <v>3.937915574108827E-05</v>
       </c>
       <c r="AX3">
-        <v>3.739911924128271E-05</v>
+        <v>2.771432889077442E-05</v>
       </c>
       <c r="AY3">
-        <v>2.222773354906517E-05</v>
+        <v>1.251710677328501E-05</v>
       </c>
       <c r="AZ3">
-        <v>5.818899281951779E-06</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>3.247086134126246E-06</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>1.625405767025334E-06</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>1.271388874207288E-05</v>
+        <v>2.987060167367392E-06</v>
       </c>
       <c r="BD3">
-        <v>4.80723890247537E-06</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>6.804982861947066E-06</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>3.017919438775359E-05</v>
+        <v>2.048210871678275E-05</v>
       </c>
       <c r="BG3">
-        <v>1.311260773398405E-05</v>
+        <v>3.386458166038264E-06</v>
       </c>
       <c r="BH3">
-        <v>2.720835544802311E-05</v>
+        <v>1.75062105253914E-05</v>
       </c>
       <c r="BI3">
-        <v>4.677099705115509E-05</v>
+        <v>3.710216673393604E-05</v>
       </c>
       <c r="BJ3">
-        <v>6.29586387227558E-05</v>
+        <v>5.33173754849625E-05</v>
       </c>
       <c r="BK3">
-        <v>1.790479463676478E-05</v>
+        <v>8.186806022690597E-06</v>
       </c>
       <c r="BL3">
-        <v>1.983208459766578E-05</v>
+        <v>1.011737810192028E-05</v>
       </c>
       <c r="BM3">
-        <v>2.38464945162253E-05</v>
+        <v>1.413862444293821E-05</v>
       </c>
       <c r="BN3">
-        <v>3.459691929813105E-05</v>
+        <v>2.490735688323148E-05</v>
       </c>
       <c r="BO3">
-        <v>1.675025466018698E-05</v>
+        <v>7.030299898363775E-06</v>
       </c>
       <c r="BP3">
-        <v>1.585432367836276E-05</v>
+        <v>6.132843172330676E-06</v>
       </c>
       <c r="BQ3">
-        <v>7.855764840629814E-06</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>7.859868840546556E-07</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>1.228719475072923E-06</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>9.2196118129614E-06</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>6.336428371452648E-05</v>
+        <v>5.372371127826769E-05</v>
       </c>
       <c r="BV3">
-        <v>7.536668847103326E-05</v>
+        <v>6.574655577837238E-05</v>
       </c>
       <c r="BW3">
-        <v>8.403100829525989E-05</v>
+        <v>7.442563068537204E-05</v>
       </c>
       <c r="BX3">
-        <v>0.000103336777903603</v>
+        <v>9.376427745364776E-05</v>
       </c>
       <c r="BY3">
-        <v>0.0001140336376865955</v>
+        <v>0.0001044793536754041</v>
       </c>
       <c r="BZ3">
-        <v>0.0001645697966613666</v>
+        <v>0.0001551015742480653</v>
       </c>
       <c r="CA3">
-        <v>0.0002001124059403124</v>
+        <v>0.0001907047115491201</v>
       </c>
       <c r="CB3">
-        <v>0.0001617352467188712</v>
+        <v>0.0001522621971500777</v>
       </c>
       <c r="CC3">
-        <v>0.000140273667154263</v>
+        <v>0.0001307640691443524</v>
       </c>
       <c r="CD3">
-        <v>0.0001350662572599059</v>
+        <v>0.0001255477911835362</v>
       </c>
       <c r="CE3">
-        <v>7.730554843169954E-05</v>
+        <v>6.768871756073793E-05</v>
       </c>
       <c r="CF3">
-        <v>4.636211405945011E-05</v>
+        <v>3.669258742647755E-05</v>
       </c>
       <c r="CG3">
-        <v>3.046023938205202E-05</v>
+        <v>2.076363232247111E-05</v>
       </c>
       <c r="CH3">
-        <v>3.522629328536291E-05</v>
+        <v>2.553780267592127E-05</v>
       </c>
       <c r="CI3">
-        <v>1.061651078462246E-05</v>
+        <v>8.861104367141936E-07</v>
       </c>
       <c r="CJ3">
-        <v>5.420054590043156E-07</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>6.714640863779837E-07</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>2.961729439915287E-06</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.001220592075237804</v>
+        <v>0.001212922227820655</v>
       </c>
       <c r="CN3">
-        <v>0.1962027260196282</v>
+        <v>0.1965271050328228</v>
       </c>
       <c r="CO3">
-        <v>0.02055531358299361</v>
+        <v>0.02058057019974536</v>
       </c>
       <c r="CP3">
-        <v>0.178659856375521</v>
+        <v>0.1789543603957645</v>
       </c>
       <c r="CQ3">
-        <v>0.003354641731944261</v>
+        <v>0.003350606108559148</v>
       </c>
       <c r="CR3">
-        <v>0.01070316778286445</v>
+        <v>0.01071164648401268</v>
       </c>
       <c r="CS3">
-        <v>0.008407881829428997</v>
+        <v>0.008412451725856515</v>
       </c>
       <c r="CT3">
-        <v>0.003163301935825979</v>
+        <v>0.003158940466374841</v>
       </c>
       <c r="CU3">
-        <v>3.015481438824819E-05</v>
+        <v>2.045768719885259E-05</v>
       </c>
       <c r="CV3">
-        <v>0.01320439273212201</v>
+        <v>0.01321713094606627</v>
       </c>
       <c r="CW3">
-        <v>0.009079148815810978</v>
+        <v>0.009084861860246395</v>
       </c>
       <c r="CX3">
-        <v>0.04021268218420386</v>
+        <v>0.04027141472367025</v>
       </c>
       <c r="CY3">
-        <v>0.04789665202831888</v>
+        <v>0.04796847014326903</v>
       </c>
       <c r="CZ3">
-        <v>0.0001935588160732653</v>
+        <v>0.000184139961110567</v>
       </c>
       <c r="DA3">
-        <v>0.004619001906294141</v>
+        <v>0.004617119451236826</v>
       </c>
       <c r="DB3">
-        <v>0.006934812659313204</v>
+        <v>0.006936873962108862</v>
       </c>
       <c r="DC3">
-        <v>0.01848264362504194</v>
+        <v>0.01850437054559004</v>
       </c>
       <c r="DD3">
-        <v>0.03177443435539089</v>
+        <v>0.03181879680606794</v>
       </c>
       <c r="DE3">
-        <v>0.004753826603558947</v>
+        <v>0.004752173751010351</v>
       </c>
       <c r="DF3">
-        <v>5.50781388826278E-05</v>
+        <v>4.542345538452638E-05</v>
       </c>
       <c r="DG3">
-        <v>0.006129956175641357</v>
+        <v>0.006130646831429758</v>
       </c>
       <c r="DH3">
-        <v>2.134218956703023E-05</v>
+        <v>1.163005473579746E-05</v>
       </c>
       <c r="DI3">
-        <v>0.005469013889049917</v>
+        <v>0.005468578979491621</v>
       </c>
       <c r="DJ3">
-        <v>0.006099588076257435</v>
+        <v>0.006100227016062451</v>
       </c>
       <c r="DK3">
-        <v>0.0002193912455492018</v>
+        <v>0.0002100163824569422</v>
       </c>
       <c r="DL3">
-        <v>0.005473446488959993</v>
+        <v>0.005473019127989458</v>
       </c>
       <c r="DM3">
-        <v>0.00631154487195746</v>
+        <v>0.006312544767974656</v>
       </c>
       <c r="DN3">
-        <v>0.02311190953112785</v>
+        <v>0.02314151995586421</v>
       </c>
       <c r="DO3">
-        <v>0.00432381441228262</v>
+        <v>0.004321429261572783</v>
       </c>
       <c r="DP3">
-        <v>0.01776625163957541</v>
+        <v>0.01778675856556446</v>
       </c>
       <c r="DQ3">
-        <v>0.01574557968056885</v>
+        <v>0.01576264546142278</v>
       </c>
       <c r="DR3">
-        <v>0.001636781966794545</v>
+        <v>0.001629820878567245</v>
       </c>
       <c r="DS3">
-        <v>0.001871329362036273</v>
+        <v>0.001864767701150207</v>
       </c>
       <c r="DT3">
-        <v>0.000899260181756676</v>
+        <v>0.0008910431155408081</v>
       </c>
       <c r="DU3">
-        <v>0.0002328039252770983</v>
+        <v>0.0002234519035853881</v>
       </c>
       <c r="DV3">
-        <v>0.00160439796745152</v>
+        <v>0.001597381730222277</v>
       </c>
       <c r="DW3">
-        <v>2.044045958532365E-06</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.004408422310566176</v>
+        <v>0.00440618124462788</v>
       </c>
       <c r="DY3">
-        <v>0.004463849509441723</v>
+        <v>0.004461702834398947</v>
       </c>
       <c r="DZ3">
-        <v>0.004660571405450819</v>
+        <v>0.004658759742032471</v>
       </c>
       <c r="EA3">
-        <v>0.001730286164897622</v>
+        <v>0.00172348431157977</v>
       </c>
       <c r="EB3">
-        <v>0.008594588825641264</v>
+        <v>0.008599476678612319</v>
       </c>
       <c r="EC3">
-        <v>3.110045936906386E-05</v>
+        <v>2.140494258536068E-05</v>
       </c>
       <c r="ED3">
-        <v>0.01855058762366356</v>
+        <v>0.01857243025085037</v>
       </c>
       <c r="EE3">
-        <v>0.0008218434833272315</v>
+        <v>0.0008134945787424536</v>
       </c>
       <c r="EF3">
-        <v>0.001841640762638567</v>
+        <v>0.001835028542937681</v>
       </c>
       <c r="EG3">
-        <v>0.001763723764219272</v>
+        <v>0.001756978854153254</v>
       </c>
       <c r="EH3">
-        <v>0.002021838158982896</v>
+        <v>0.002015532810167721</v>
       </c>
       <c r="EI3">
-        <v>0.001634538166840065</v>
+        <v>0.001627573257487192</v>
       </c>
       <c r="EJ3">
-        <v>0.0008061417436457732</v>
+        <v>0.0007977660994584205</v>
       </c>
       <c r="EK3">
-        <v>0.001529905768962746</v>
+        <v>0.001522762673702296</v>
       </c>
       <c r="EL3">
-        <v>0.006285127172493398</v>
+        <v>0.006286082079942515</v>
       </c>
       <c r="EM3">
-        <v>0.01546089568634425</v>
+        <v>0.01547747665869801</v>
       </c>
       <c r="EN3">
-        <v>0.005987452178532341</v>
+        <v>0.005987900154189412</v>
       </c>
       <c r="EO3">
-        <v>0.0001416437371264684</v>
+        <v>0.0001321364723055738</v>
       </c>
       <c r="EP3">
-        <v>0.004313168912498586</v>
+        <v>0.004310765632814559</v>
       </c>
       <c r="EQ3">
-        <v>0.003837026922158095</v>
+        <v>0.003833812786616746</v>
       </c>
       <c r="ER3">
-        <v>0.001995729459512564</v>
+        <v>0.001989379648347246</v>
       </c>
       <c r="ES3">
-        <v>0.004487677908958316</v>
+        <v>0.004485571812981681</v>
       </c>
       <c r="ET3">
-        <v>0.00703217355733804</v>
+        <v>0.007034400662890099</v>
       </c>
       <c r="EU3">
-        <v>0.01959698460243526</v>
+        <v>0.01962060921301471</v>
       </c>
       <c r="EV3">
-        <v>0.000783463084105856</v>
+        <v>0.000775048818825852</v>
       </c>
       <c r="EW3">
-        <v>0.001661564866291773</v>
+        <v>0.001654645982616112</v>
       </c>
       <c r="EX3">
-        <v>0.0003434050530333292</v>
+        <v>0.0003342413818212804</v>
       </c>
       <c r="EY3">
-        <v>0.01596563467610459</v>
+        <v>0.01598307520416772</v>
       </c>
       <c r="EZ3">
-        <v>0.008830202820861355</v>
+        <v>0.008835491917562152</v>
       </c>
       <c r="FA3">
-        <v>0.01284665373937947</v>
+        <v>0.0128587827343018</v>
       </c>
       <c r="FB3">
-        <v>0.02606852347114692</v>
+        <v>0.02610316892278647</v>
       </c>
       <c r="FC3">
-        <v>0.001314557473331525</v>
+        <v>0.001307047646233893</v>
       </c>
       <c r="FD3">
-        <v>0.00663549956538538</v>
+        <v>0.006637051146752749</v>
       </c>
       <c r="FE3">
-        <v>0.004081074917207085</v>
+        <v>0.004078276388250048</v>
       </c>
       <c r="FF3">
-        <v>0.01693627165641324</v>
+        <v>0.01695536515081159</v>
       </c>
       <c r="FG3">
-        <v>0.006987673858240807</v>
+        <v>0.006989825182109264</v>
       </c>
       <c r="FH3">
-        <v>0.0001927877260889084</v>
+        <v>0.0001833675579825618</v>
       </c>
       <c r="FI3">
-        <v>0.003625245226454519</v>
+        <v>0.003621670432891153</v>
       </c>
       <c r="FJ3">
-        <v>5.673740384896623E-05</v>
+        <v>4.708554603048161E-05</v>
       </c>
       <c r="FK3">
-        <v>0.0007465157848554071</v>
+        <v>0.0007380385994074337</v>
       </c>
       <c r="FL3">
-        <v>4.10509591671977E-06</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.002161576356148022</v>
+        <v>0.002155508977387918</v>
       </c>
       <c r="FN3">
-        <v>0.001611249867312516</v>
+        <v>0.001604245298667956</v>
       </c>
       <c r="FO3">
-        <v>0.004276809913236202</v>
+        <v>0.004274344715241846</v>
       </c>
       <c r="FP3">
-        <v>0.005514568488125749</v>
+        <v>0.005514211156714809</v>
       </c>
       <c r="FQ3">
-        <v>0.001611249867312516</v>
+        <v>0.001604245298667956</v>
       </c>
       <c r="FR3">
-        <v>0.0007194801854038793</v>
+        <v>0.000710956959122255</v>
       </c>
       <c r="FS3">
-        <v>0.002267091954007424</v>
+        <v>0.002261204265218587</v>
       </c>
       <c r="FT3">
-        <v>9.45533580817926E-05</v>
+        <v>8.496589972525836E-05</v>
       </c>
       <c r="FU3">
-        <v>0.0003458976229827623</v>
+        <v>0.0003367381965442985</v>
       </c>
       <c r="FV3">
-        <v>0.001510265269361194</v>
+        <v>0.001503088726905441</v>
       </c>
       <c r="FW3">
-        <v>0.0003668418425578662</v>
+        <v>0.0003577180835116174</v>
       </c>
       <c r="FX3">
-        <v>0.0001682051765876155</v>
+        <v>0.0001587431451198023</v>
       </c>
       <c r="FY3">
-        <v>0.0005573162886937042</v>
+        <v>0.0005485169020478163</v>
       </c>
       <c r="FZ3">
-        <v>2.776681443669363E-05</v>
+        <v>1.806562055335529E-05</v>
       </c>
       <c r="GA3">
-        <v>0.007622935145353238</v>
+        <v>0.007626168300578801</v>
       </c>
       <c r="GB3">
-        <v>0.008658586824342935</v>
+        <v>0.008663583664030467</v>
       </c>
       <c r="GC3">
-        <v>0.00208721815765653</v>
+        <v>0.002081024149063289</v>
       </c>
       <c r="GD3">
-        <v>0.0002001124059403124</v>
+        <v>0.0001907047115491201</v>
       </c>
       <c r="GE3">
-        <v>0.001151811176633165</v>
+        <v>0.001144024197361155</v>
       </c>
       <c r="GF3">
-        <v>0.0001908054261291234</v>
+        <v>0.0001813818822240319</v>
       </c>
       <c r="GG3">
-        <v>0.0004663096505399592</v>
+        <v>0.0004573552822560323</v>
       </c>
       <c r="GH3">
-        <v>0.0005838186381560501</v>
+        <v>0.0005750643842347072</v>
       </c>
       <c r="GI3">
-        <v>0.0004882215500954317</v>
+        <v>0.0004793044971343707</v>
       </c>
       <c r="GJ3">
-        <v>0.0004055339317729184</v>
+        <v>0.0003964760642208216</v>
       </c>
       <c r="GK3">
-        <v>1.231236975021851E-12</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.004480544909103022</v>
+        <v>0.004478426665836649</v>
       </c>
       <c r="GM3">
-        <v>0.003102748137054436</v>
+        <v>0.003098283546258377</v>
       </c>
       <c r="GN3">
-        <v>0.0002073019657944575</v>
+        <v>0.0001979065150130236</v>
       </c>
       <c r="GO3">
-        <v>2.867453941827858E-05</v>
+        <v>1.897489136398512E-05</v>
       </c>
       <c r="GP3">
-        <v>0.003687306425195481</v>
+        <v>0.003683837320035013</v>
       </c>
       <c r="GQ3">
-        <v>0.009116615815050884</v>
+        <v>0.009122392664688124</v>
       </c>
       <c r="GR3">
-        <v>0.006052364877215454</v>
+        <v>0.006052923397296268</v>
       </c>
       <c r="GS3">
-        <v>0.001887154861715221</v>
+        <v>0.001880620151191379</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>1.24965817911525E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.571874573730249E-06</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.323013727889304E-05</v>
+        <v>3.933016463608139E-07</v>
       </c>
       <c r="E4">
-        <v>1.828316569444496E-05</v>
+        <v>5.458089294719819E-06</v>
       </c>
       <c r="F4">
-        <v>1.114509381373906E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1.264376878869265E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1.283774878545078E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>3.700118938162241E-05</v>
+        <v>2.421967291865691E-05</v>
       </c>
       <c r="J4">
-        <v>7.203995879604151E-05</v>
+        <v>5.933998334431393E-05</v>
       </c>
       <c r="K4">
-        <v>4.947576917314261E-05</v>
+        <v>3.672328312043319E-05</v>
       </c>
       <c r="L4">
-        <v>4.758293620477634E-05</v>
+        <v>3.482604521670748E-05</v>
       </c>
       <c r="M4">
-        <v>5.160052713763287E-05</v>
+        <v>3.885298574810529E-05</v>
       </c>
       <c r="N4">
-        <v>3.083574948466153E-05</v>
+        <v>1.803988502339795E-05</v>
       </c>
       <c r="O4">
-        <v>1.264376878869265E-05</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>9.761362836864487E-07</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>4.029103232664134E-07</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.589639173433361E-08</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1.110521481440553E-05</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1.686636571812304E-05</v>
+        <v>4.037992190538624E-06</v>
       </c>
       <c r="U4">
-        <v>8.396590859673062E-06</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>2.855002052286148E-05</v>
+        <v>1.574883679228349E-05</v>
       </c>
       <c r="W4">
-        <v>2.711658754681754E-05</v>
+        <v>1.431206798063911E-05</v>
       </c>
       <c r="X4">
-        <v>2.038032665939643E-05</v>
+        <v>7.560130700071128E-06</v>
       </c>
       <c r="Y4">
-        <v>4.768795920302115E-05</v>
+        <v>3.49313126208382E-05</v>
       </c>
       <c r="Z4">
-        <v>7.03342948245472E-05</v>
+        <v>5.763035001067044E-05</v>
       </c>
       <c r="AA4">
-        <v>4.958286717135275E-05</v>
+        <v>3.683063035339733E-05</v>
       </c>
       <c r="AB4">
-        <v>2.290755161716051E-05</v>
+        <v>1.009323692827152E-05</v>
       </c>
       <c r="AC4">
-        <v>2.826037952770207E-05</v>
+        <v>1.54585217546267E-05</v>
       </c>
       <c r="AD4">
-        <v>5.229775612598052E-05</v>
+        <v>3.955183730361852E-05</v>
       </c>
       <c r="AE4">
-        <v>4.731340920928077E-05</v>
+        <v>3.455589098731825E-05</v>
       </c>
       <c r="AF4">
-        <v>2.395978959957512E-05</v>
+        <v>1.11479236424933E-05</v>
       </c>
       <c r="AG4">
-        <v>1.348436677464427E-05</v>
+        <v>6.481227761938427E-07</v>
       </c>
       <c r="AH4">
-        <v>1.782924570203104E-06</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>1.403575576542925E-08</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>3.060682348848742E-07</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>2.647519755753669E-05</v>
+        <v>1.366918537077831E-05</v>
       </c>
       <c r="AL4">
-        <v>6.054626198812843E-05</v>
+        <v>4.781953880306882E-05</v>
       </c>
       <c r="AM4">
-        <v>5.84503790231556E-05</v>
+        <v>4.571877837181346E-05</v>
       </c>
       <c r="AN4">
-        <v>6.397646893080155E-05</v>
+        <v>5.125772840459485E-05</v>
       </c>
       <c r="AO4">
-        <v>8.730235854097062E-05</v>
+        <v>7.463790121758824E-05</v>
       </c>
       <c r="AP4">
-        <v>0.0001171693680418221</v>
+        <v>0.0001045744161890385</v>
       </c>
       <c r="AQ4">
-        <v>0.0001102165821580196</v>
+        <v>9.760545002261309E-05</v>
       </c>
       <c r="AR4">
-        <v>0.0001062589982241602</v>
+        <v>9.36386561364232E-05</v>
       </c>
       <c r="AS4">
-        <v>8.832086852394891E-05</v>
+        <v>7.565878144174097E-05</v>
       </c>
       <c r="AT4">
-        <v>0.0001056995442335101</v>
+        <v>9.30779002038127E-05</v>
       </c>
       <c r="AU4">
-        <v>7.577731873358136E-05</v>
+        <v>6.308604073652357E-05</v>
       </c>
       <c r="AV4">
-        <v>3.9351389342345E-05</v>
+        <v>2.65753421833708E-05</v>
       </c>
       <c r="AW4">
-        <v>4.795855319849889E-05</v>
+        <v>3.520253633329501E-05</v>
       </c>
       <c r="AX4">
-        <v>5.477082508464967E-05</v>
+        <v>4.203066150275762E-05</v>
       </c>
       <c r="AY4">
-        <v>3.700118938162241E-05</v>
+        <v>2.421967291865691E-05</v>
       </c>
       <c r="AZ4">
-        <v>3.865981935390277E-06</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>2.994894949948206E-07</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>1.365654677176673E-09</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>6.474190591800928E-06</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>2.112298864698479E-05</v>
+        <v>8.304520984928142E-06</v>
       </c>
       <c r="BE4">
-        <v>4.222475329432427E-05</v>
+        <v>2.945539292847137E-05</v>
       </c>
       <c r="BF4">
-        <v>5.508499907939908E-05</v>
+        <v>4.234556663235179E-05</v>
       </c>
       <c r="BG4">
-        <v>6.301512494686788E-05</v>
+        <v>5.029414721422078E-05</v>
       </c>
       <c r="BH4">
-        <v>9.470401841727134E-05</v>
+        <v>8.205678598052849E-05</v>
       </c>
       <c r="BI4">
-        <v>0.0001576920573645919</v>
+        <v>0.0001451914085116191</v>
       </c>
       <c r="BJ4">
-        <v>0.0001017040483002843</v>
+        <v>8.907310609076389E-05</v>
       </c>
       <c r="BK4">
-        <v>3.961774933789349E-05</v>
+        <v>2.684232204268031E-05</v>
       </c>
       <c r="BL4">
-        <v>9.052033848719055E-05</v>
+        <v>7.786336993534162E-05</v>
       </c>
       <c r="BM4">
-        <v>7.97450186672717E-05</v>
+        <v>6.706297416414902E-05</v>
       </c>
       <c r="BN4">
-        <v>1.128705681136652E-05</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>4.748552220640436E-07</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>1.179659780285089E-07</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>9.782847836505421E-09</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>1.875086668662857E-05</v>
+        <v>5.926878704461949E-06</v>
       </c>
       <c r="BS4">
-        <v>6.224954895966247E-05</v>
+        <v>4.952678960508003E-05</v>
       </c>
       <c r="BT4">
-        <v>7.020672882667913E-05</v>
+        <v>5.75024871456281E-05</v>
       </c>
       <c r="BU4">
-        <v>5.517375707791573E-05</v>
+        <v>4.243453118541004E-05</v>
       </c>
       <c r="BV4">
-        <v>7.888350868166958E-05</v>
+        <v>6.619945930233145E-05</v>
       </c>
       <c r="BW4">
-        <v>0.0001148281480809494</v>
+        <v>0.0001022277478221193</v>
       </c>
       <c r="BX4">
-        <v>0.0001541093374244676</v>
+        <v>0.0001416003509896738</v>
       </c>
       <c r="BY4">
-        <v>0.0002859867952204827</v>
+        <v>0.0002737847094402464</v>
       </c>
       <c r="BZ4">
-        <v>0.0001797175769964932</v>
+        <v>0.0001672681851703465</v>
       </c>
       <c r="CA4">
-        <v>0.0001636990972642</v>
+        <v>0.0001512124277865348</v>
       </c>
       <c r="CB4">
-        <v>0.0002647971255746123</v>
+        <v>0.0002525457279287027</v>
       </c>
       <c r="CC4">
-        <v>0.0001568197273791706</v>
+        <v>0.0001443170484700534</v>
       </c>
       <c r="CD4">
-        <v>0.0001159958080614351</v>
+        <v>0.0001033981251404905</v>
       </c>
       <c r="CE4">
-        <v>0.0001045850482521359</v>
+        <v>9.196081060597141E-05</v>
       </c>
       <c r="CF4">
-        <v>5.317386111133872E-05</v>
+        <v>4.042998113017037E-05</v>
       </c>
       <c r="CG4">
-        <v>3.058403248886831E-06</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>5.130426914258404E-07</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>1.018465782979023E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>2.489987958386399E-05</v>
+        <v>1.209020137165034E-05</v>
       </c>
       <c r="CK4">
-        <v>4.293398428247134E-05</v>
+        <v>3.016627441442248E-05</v>
       </c>
       <c r="CL4">
-        <v>7.781562369951646E-05</v>
+        <v>6.512908917521503E-05</v>
       </c>
       <c r="CM4">
-        <v>0.0003831438335967583</v>
+        <v>0.0003711678483129287</v>
       </c>
       <c r="CN4">
-        <v>0.1779531770259805</v>
+        <v>0.1783544358749686</v>
       </c>
       <c r="CO4">
-        <v>0.0005478126608447518</v>
+        <v>0.0005362198871553237</v>
       </c>
       <c r="CP4">
-        <v>0.1991771766712772</v>
+        <v>0.1996278272775248</v>
       </c>
       <c r="CQ4">
-        <v>0.03227824946055394</v>
+        <v>0.03234049866096661</v>
       </c>
       <c r="CR4">
-        <v>0.004886756618330712</v>
+        <v>0.00488526128481715</v>
       </c>
       <c r="CS4">
-        <v>0.01448443375793078</v>
+        <v>0.01450527380641199</v>
       </c>
       <c r="CT4">
-        <v>0.001615404473002762</v>
+        <v>0.001606296162021572</v>
       </c>
       <c r="CU4">
-        <v>0.000496636541700026</v>
+        <v>0.0004849246727176972</v>
       </c>
       <c r="CV4">
-        <v>0.01131027781097845</v>
+        <v>0.01132373107362024</v>
       </c>
       <c r="CW4">
-        <v>0.007265290578579771</v>
+        <v>0.007269330486960366</v>
       </c>
       <c r="CX4">
-        <v>0.01332792677725875</v>
+        <v>0.01334607544272956</v>
       </c>
       <c r="CY4">
-        <v>0.05734224904167508</v>
+        <v>0.057462826314268</v>
       </c>
       <c r="CZ4">
-        <v>0.001246162279173674</v>
+        <v>0.001236194680541128</v>
       </c>
       <c r="DA4">
-        <v>0.001679368471933772</v>
+        <v>0.001670409015756641</v>
       </c>
       <c r="DB4">
-        <v>0.01914535468003574</v>
+        <v>0.01917704146233895</v>
       </c>
       <c r="DC4">
-        <v>0.01101458681592014</v>
+        <v>0.01102735195671422</v>
       </c>
       <c r="DD4">
-        <v>0.05403034709702481</v>
+        <v>0.05414321702606085</v>
       </c>
       <c r="DE4">
-        <v>0.002678480455236242</v>
+        <v>0.002671846097880216</v>
       </c>
       <c r="DF4">
-        <v>0.0005975857400129257</v>
+        <v>0.0005861087965103343</v>
       </c>
       <c r="DG4">
-        <v>0.005577119906793105</v>
+        <v>0.005577231162826024</v>
       </c>
       <c r="DH4">
-        <v>8.911316851070771E-06</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.001917113567960488</v>
+        <v>0.001908707383940766</v>
       </c>
       <c r="DJ4">
-        <v>0.006045158898971064</v>
+        <v>0.00604635935914439</v>
       </c>
       <c r="DK4">
-        <v>0.0013714032770806</v>
+        <v>0.001361727134962893</v>
       </c>
       <c r="DL4">
-        <v>0.005297748911462057</v>
+        <v>0.005297210024985676</v>
       </c>
       <c r="DM4">
-        <v>0.0002933863950968178</v>
+        <v>0.0002812015294092604</v>
       </c>
       <c r="DN4">
-        <v>0.02201431763208857</v>
+        <v>0.0220526809656584</v>
       </c>
       <c r="DO4">
-        <v>0.007557687873693119</v>
+        <v>0.007562408238936933</v>
       </c>
       <c r="DP4">
-        <v>0.01272629828731339</v>
+        <v>0.01274304686378907</v>
       </c>
       <c r="DQ4">
-        <v>0.0191077736806638</v>
+        <v>0.01913937300576623</v>
       </c>
       <c r="DR4">
-        <v>1.491747475069363E-05</v>
+        <v>2.084565831514919E-06</v>
       </c>
       <c r="DS4">
-        <v>0.00123509827935858</v>
+        <v>0.001225104932968668</v>
       </c>
       <c r="DT4">
-        <v>0.0003839740435828835</v>
+        <v>0.0003719999903349941</v>
       </c>
       <c r="DU4">
-        <v>0.0005186756513317003</v>
+        <v>0.0005070150710023744</v>
       </c>
       <c r="DV4">
-        <v>0.0007381439876638641</v>
+        <v>0.000726994146449476</v>
       </c>
       <c r="DW4">
-        <v>2.375274960303525E-05</v>
+        <v>1.094040182964062E-05</v>
       </c>
       <c r="DX4">
-        <v>0.00379506603657545</v>
+        <v>0.003791030158531275</v>
       </c>
       <c r="DY4">
-        <v>0.00577065590355866</v>
+        <v>0.005771217549863581</v>
       </c>
       <c r="DZ4">
-        <v>0.005622992706026462</v>
+        <v>0.005623210715649769</v>
       </c>
       <c r="EA4">
-        <v>0.003748340237356349</v>
+        <v>0.003744195620649746</v>
       </c>
       <c r="EB4">
-        <v>0.008656965855321578</v>
+        <v>0.008664244422230337</v>
       </c>
       <c r="EC4">
-        <v>0.001630730472746628</v>
+        <v>0.001621657827901499</v>
       </c>
       <c r="ED4">
-        <v>0.01867246968793877</v>
+        <v>0.01870305598865831</v>
       </c>
       <c r="EE4">
-        <v>0.003777410336870519</v>
+        <v>0.00377333337109318</v>
       </c>
       <c r="EF4">
-        <v>0.0003116077547922957</v>
+        <v>0.0002994652932222496</v>
       </c>
       <c r="EG4">
-        <v>0.001227470479486059</v>
+        <v>0.001217459381944337</v>
       </c>
       <c r="EH4">
-        <v>0.003460368742169035</v>
+        <v>0.003455553968167593</v>
       </c>
       <c r="EI4">
-        <v>0.00245340535899778</v>
+        <v>0.002446247214669252</v>
       </c>
       <c r="EJ4">
-        <v>0.0001566700673816718</v>
+        <v>0.0001441670401889892</v>
       </c>
       <c r="EK4">
-        <v>0.0008670272555099192</v>
+        <v>0.0008561773469748875</v>
       </c>
       <c r="EL4">
-        <v>0.006299183094725718</v>
+        <v>0.006300974711213803</v>
       </c>
       <c r="EM4">
-        <v>0.01629531772766661</v>
+        <v>0.0163203720026345</v>
       </c>
       <c r="EN4">
-        <v>0.007690552471472637</v>
+        <v>0.007695582034609006</v>
       </c>
       <c r="EO4">
-        <v>1.060745682272425E-05</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.005745911903972191</v>
+        <v>0.005746415966897842</v>
       </c>
       <c r="EQ4">
-        <v>0.00611839289774715</v>
+        <v>0.006119763785547273</v>
       </c>
       <c r="ER4">
-        <v>0.0001768151970449989</v>
+        <v>0.0001643590509007012</v>
       </c>
       <c r="ES4">
-        <v>0.00537404791018692</v>
+        <v>0.005373686584099115</v>
       </c>
       <c r="ET4">
-        <v>0.00345806654220751</v>
+        <v>0.003453246410606013</v>
       </c>
       <c r="EU4">
-        <v>0.01833449269358716</v>
+        <v>0.01836429246594527</v>
       </c>
       <c r="EV4">
-        <v>0.004358595127157543</v>
+        <v>0.004355870674505183</v>
       </c>
       <c r="EW4">
-        <v>0.001062091182249939</v>
+        <v>0.001051695219732654</v>
       </c>
       <c r="EX4">
-        <v>9.952361833672441E-05</v>
+        <v>8.688760190607317E-05</v>
       </c>
       <c r="EY4">
-        <v>0.0136402967720383</v>
+        <v>0.01365917237414759</v>
       </c>
       <c r="EZ4">
-        <v>0.01010059083119518</v>
+        <v>0.01011122895217357</v>
       </c>
       <c r="FA4">
-        <v>0.003992483433276138</v>
+        <v>0.003988906978163531</v>
       </c>
       <c r="FB4">
-        <v>0.03281256545162425</v>
+        <v>0.03287605809371483</v>
       </c>
       <c r="FC4">
-        <v>6.929896884184995E-05</v>
+        <v>5.659261465318632E-05</v>
       </c>
       <c r="FD4">
-        <v>0.007573190873434028</v>
+        <v>0.007577947316722169</v>
       </c>
       <c r="FE4">
-        <v>0.0005376840910140242</v>
+        <v>0.0005260677464675085</v>
       </c>
       <c r="FF4">
-        <v>0.02026064866139653</v>
+        <v>0.02029493091724483</v>
       </c>
       <c r="FG4">
-        <v>0.01075096782032584</v>
+        <v>0.01076311947611912</v>
       </c>
       <c r="FH4">
-        <v>0.000454827872398748</v>
+        <v>0.0004430187077285193</v>
       </c>
       <c r="FI4">
-        <v>0.001992266866704498</v>
+        <v>0.001984035576840018</v>
       </c>
       <c r="FJ4">
-        <v>4.694033421551574E-05</v>
+        <v>3.418194778634253E-05</v>
       </c>
       <c r="FK4">
-        <v>0.001199076679960586</v>
+        <v>0.001188999505351522</v>
       </c>
       <c r="FL4">
-        <v>0.0005177106313478281</v>
+        <v>0.000506047805257402</v>
       </c>
       <c r="FM4">
-        <v>0.0006849226885533182</v>
+        <v>0.0006736489925740113</v>
       </c>
       <c r="FN4">
-        <v>0.0007452185275456318</v>
+        <v>0.000734085149955556</v>
       </c>
       <c r="FO4">
-        <v>0.003248811945704651</v>
+        <v>0.003243504844049976</v>
       </c>
       <c r="FP4">
-        <v>0.00594325260067416</v>
+        <v>0.005944215908037798</v>
       </c>
       <c r="FQ4">
-        <v>0.003061103348841706</v>
+        <v>0.003055359418238354</v>
       </c>
       <c r="FR4">
-        <v>0.0001396244876665438</v>
+        <v>0.000127081792590818</v>
       </c>
       <c r="FS4">
-        <v>0.001675406671999983</v>
+        <v>0.001666437996059192</v>
       </c>
       <c r="FT4">
-        <v>7.511049174472563E-06</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>3.619244339513847E-07</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.001452050475732794</v>
+        <v>0.001442562012984012</v>
       </c>
       <c r="FW4">
-        <v>0.0003585533340077238</v>
+        <v>0.0003465201225645044</v>
       </c>
       <c r="FX4">
-        <v>0.0001944171067508293</v>
+        <v>0.0001820019231614706</v>
       </c>
       <c r="FY4">
-        <v>0.001543060774211796</v>
+        <v>0.001533784107479115</v>
       </c>
       <c r="FZ4">
-        <v>0.000181016746974781</v>
+        <v>0.0001685703785320341</v>
       </c>
       <c r="GA4">
-        <v>0.00313131874766824</v>
+        <v>0.003125738219910378</v>
       </c>
       <c r="GB4">
-        <v>0.007671500871791034</v>
+        <v>0.007676486098704137</v>
       </c>
       <c r="GC4">
-        <v>0.002076138465302804</v>
+        <v>0.002068102358519185</v>
       </c>
       <c r="GD4">
-        <v>9.740926837206021E-06</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.0005041981215736541</v>
+        <v>0.0004925038496382466</v>
       </c>
       <c r="GF4">
-        <v>0.0001045850482521359</v>
+        <v>9.196081060597141E-05</v>
       </c>
       <c r="GG4">
-        <v>0.0003895529634896465</v>
+        <v>0.0003775918933110377</v>
       </c>
       <c r="GH4">
-        <v>0.0003640073339165745</v>
+        <v>0.0003519868148331409</v>
       </c>
       <c r="GI4">
-        <v>0.0007013764582783367</v>
+        <v>0.0006901410529423507</v>
       </c>
       <c r="GJ4">
-        <v>0.0005618936906094244</v>
+        <v>0.0005503336858050192</v>
       </c>
       <c r="GK4">
-        <v>0.0002943179950812486</v>
+        <v>0.0002821352973809256</v>
       </c>
       <c r="GL4">
-        <v>0.00330480764476883</v>
+        <v>0.003299630854366604</v>
       </c>
       <c r="GM4">
-        <v>0.002753532653981942</v>
+        <v>0.002747072955504741</v>
       </c>
       <c r="GN4">
-        <v>0.0001205941979845851</v>
+        <v>0.0001080072162774863</v>
       </c>
       <c r="GO4">
-        <v>5.680025705073305E-05</v>
+        <v>4.406481629265926E-05</v>
       </c>
       <c r="GP4">
-        <v>0.002105410664813597</v>
+        <v>0.002097442679279358</v>
       </c>
       <c r="GQ4">
-        <v>0.007835538869049571</v>
+        <v>0.007840905839511364</v>
       </c>
       <c r="GR4">
-        <v>0.00577065590355866</v>
+        <v>0.005771217549863581</v>
       </c>
       <c r="GS4">
-        <v>0.002873150551982843</v>
+        <v>0.002866969224137036</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.000233656307786135</v>
+        <v>0.0002295880209986128</v>
       </c>
       <c r="C5">
-        <v>0.0002551499385023678</v>
+        <v>0.0002510987175724153</v>
       </c>
       <c r="D5">
-        <v>5.743197191380704E-05</v>
+        <v>5.322376370230429E-05</v>
       </c>
       <c r="E5">
-        <v>2.300197676649545E-05</v>
+        <v>1.876643127535531E-05</v>
       </c>
       <c r="F5">
-        <v>8.808418293523144E-05</v>
+        <v>8.390031245774844E-05</v>
       </c>
       <c r="G5">
-        <v>8.218342273860025E-05</v>
+        <v>7.799486708091674E-05</v>
       </c>
       <c r="H5">
-        <v>1.135153037826733E-07</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.702944056747247E-05</v>
+        <v>1.278915290627049E-05</v>
       </c>
       <c r="J5">
-        <v>1.22798154092006E-08</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>4.250434141637323E-06</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1.510734350342238E-05</v>
+        <v>1.086552970477236E-05</v>
       </c>
       <c r="M5">
-        <v>9.423297314012773E-05</v>
+        <v>9.005398477768843E-05</v>
       </c>
       <c r="N5">
-        <v>7.076401235807096E-05</v>
+        <v>6.65663897338215E-05</v>
       </c>
       <c r="O5">
-        <v>4.734238857759159E-06</v>
+        <v>4.841888551482267E-07</v>
       </c>
       <c r="P5">
-        <v>2.302345676721123E-05</v>
+        <v>1.878792833110649E-05</v>
       </c>
       <c r="Q5">
-        <v>0.0001508436350265662</v>
+        <v>0.0001467095953052123</v>
       </c>
       <c r="R5">
-        <v>5.295192976451848E-05</v>
+        <v>4.874016441731187E-05</v>
       </c>
       <c r="S5">
-        <v>3.564547918781519E-06</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>1.227131740891742E-05</v>
+        <v>8.027251816792759E-06</v>
       </c>
       <c r="U5">
-        <v>4.490539149638348E-05</v>
+        <v>4.068723722969524E-05</v>
       </c>
       <c r="V5">
-        <v>7.836982261151956E-06</v>
+        <v>3.589395824501422E-06</v>
       </c>
       <c r="W5">
-        <v>3.990789632985182E-06</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>1.674728555807022E-06</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>2.312023277043609E-07</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>9.298796309864021E-08</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>7.761008858620293E-05</v>
+        <v>7.341790171933497E-05</v>
       </c>
       <c r="AB5">
-        <v>0.0001017859233918149</v>
+        <v>9.761293204192914E-05</v>
       </c>
       <c r="AC5">
-        <v>3.442641114719216E-05</v>
+        <v>3.019993661165419E-05</v>
       </c>
       <c r="AD5">
-        <v>3.330974610998151E-05</v>
+        <v>2.90823849468314E-05</v>
       </c>
       <c r="AE5">
-        <v>0.0001422726847409562</v>
+        <v>0.000138131839719058</v>
       </c>
       <c r="AF5">
-        <v>0.0001799603359968228</v>
+        <v>0.000175849414820596</v>
       </c>
       <c r="AG5">
-        <v>6.912180230334756E-05</v>
+        <v>6.492287577082575E-05</v>
       </c>
       <c r="AH5">
-        <v>5.315225177119381E-05</v>
+        <v>4.894064547886625E-05</v>
       </c>
       <c r="AI5">
-        <v>6.806234226804313E-05</v>
+        <v>6.386257452845388E-05</v>
       </c>
       <c r="AJ5">
-        <v>3.907719430217032E-05</v>
+        <v>3.485441247001777E-05</v>
       </c>
       <c r="AK5">
-        <v>2.732970091070831E-05</v>
+        <v>2.309759161537993E-05</v>
       </c>
       <c r="AL5">
-        <v>1.589168552955904E-07</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>8.038711867874197E-07</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>7.125151837431613E-06</v>
+        <v>2.877000210246942E-06</v>
       </c>
       <c r="AO5">
-        <v>2.304264476785063E-06</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.624679554139238E-05</v>
+        <v>1.200588646314275E-05</v>
       </c>
       <c r="AQ5">
-        <v>6.633682721054375E-06</v>
+        <v>2.3851408693399E-06</v>
       </c>
       <c r="AR5">
-        <v>1.810161060320042E-05</v>
+        <v>1.386217424075582E-05</v>
       </c>
       <c r="AS5">
-        <v>1.920650564001887E-05</v>
+        <v>1.496794655985276E-05</v>
       </c>
       <c r="AT5">
-        <v>3.482914816061257E-05</v>
+        <v>3.060299339666647E-05</v>
       </c>
       <c r="AU5">
-        <v>0.0001031260834364731</v>
+        <v>9.895415616834925E-05</v>
       </c>
       <c r="AV5">
-        <v>9.799522326549728E-05</v>
+        <v>9.381922211474079E-05</v>
       </c>
       <c r="AW5">
-        <v>2.522192784047093E-05</v>
+        <v>2.098814498168177E-05</v>
       </c>
       <c r="AX5">
-        <v>5.202513973363503E-05</v>
+        <v>4.781263851881848E-05</v>
       </c>
       <c r="AY5">
-        <v>0.0001077230035896563</v>
+        <v>0.0001035547262579081</v>
       </c>
       <c r="AZ5">
-        <v>7.568938252219919E-05</v>
+        <v>7.149567062233172E-05</v>
       </c>
       <c r="BA5">
-        <v>2.991956999701058E-05</v>
+        <v>2.568951704746829E-05</v>
       </c>
       <c r="BB5">
-        <v>2.957072798538611E-05</v>
+        <v>2.53403980566697E-05</v>
       </c>
       <c r="BC5">
-        <v>9.334914811067601E-06</v>
+        <v>5.08851772692263E-06</v>
       </c>
       <c r="BD5">
-        <v>3.739327324605698E-06</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>5.370836178972508E-06</v>
+        <v>1.12129163211061E-06</v>
       </c>
       <c r="BF5">
-        <v>5.908450196887434E-07</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>2.815300093814315E-06</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>5.743197191380704E-05</v>
+        <v>5.322376370230429E-05</v>
       </c>
       <c r="BI5">
-        <v>7.180626839280208E-05</v>
+        <v>6.76094733157118E-05</v>
       </c>
       <c r="BJ5">
-        <v>8.451918281643484E-05</v>
+        <v>8.033248174299219E-05</v>
       </c>
       <c r="BK5">
-        <v>9.41895131386795E-05</v>
+        <v>9.001049026917137E-05</v>
       </c>
       <c r="BL5">
-        <v>7.316767243816819E-05</v>
+        <v>6.897195831049217E-05</v>
       </c>
       <c r="BM5">
-        <v>8.928888897537589E-05</v>
+        <v>8.51059750297123E-05</v>
       </c>
       <c r="BN5">
-        <v>0.0001392373246398089</v>
+        <v>0.000135094069554025</v>
       </c>
       <c r="BO5">
-        <v>9.111127303610322E-05</v>
+        <v>8.692980605615839E-05</v>
       </c>
       <c r="BP5">
-        <v>9.172283305648226E-05</v>
+        <v>8.754185165276886E-05</v>
       </c>
       <c r="BQ5">
-        <v>6.912180230334756E-05</v>
+        <v>6.492287577082575E-05</v>
       </c>
       <c r="BR5">
-        <v>2.633576787758745E-05</v>
+        <v>2.210286940337156E-05</v>
       </c>
       <c r="BS5">
-        <v>9.517542317153301E-06</v>
+        <v>5.271290238524073E-06</v>
       </c>
       <c r="BT5">
-        <v>4.274865142451438E-08</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>2.014698967135864E-07</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>1.11765783724374E-05</v>
+        <v>6.931643561858248E-06</v>
       </c>
       <c r="BW5">
-        <v>4.113066637059822E-05</v>
+        <v>3.690951498712631E-05</v>
       </c>
       <c r="BX5">
-        <v>7.963477265367153E-05</v>
+        <v>7.544419337792559E-05</v>
       </c>
       <c r="BY5">
-        <v>5.530469784291983E-05</v>
+        <v>5.109480058423911E-05</v>
       </c>
       <c r="BZ5">
-        <v>0.0001063993635455486</v>
+        <v>0.0001022300352488534</v>
       </c>
       <c r="CA5">
-        <v>9.485490316085231E-05</v>
+        <v>9.067640860838362E-05</v>
       </c>
       <c r="CB5">
-        <v>4.795584559803384E-05</v>
+        <v>4.374011337980774E-05</v>
       </c>
       <c r="CC5">
-        <v>8.933120297678591E-05</v>
+        <v>8.514832262827168E-05</v>
       </c>
       <c r="CD5">
-        <v>0.0001110678737011175</v>
+        <v>0.0001069022521829759</v>
       </c>
       <c r="CE5">
-        <v>7.736798257813521E-05</v>
+        <v>7.317560348005676E-05</v>
       </c>
       <c r="CF5">
-        <v>1.318393143932848E-05</v>
+        <v>8.940590459125593E-06</v>
       </c>
       <c r="CG5">
-        <v>2.00566576683485E-05</v>
+        <v>1.581877360552217E-05</v>
       </c>
       <c r="CH5">
-        <v>8.38336527935909E-06</v>
+        <v>4.136212668658689E-06</v>
       </c>
       <c r="CI5">
-        <v>4.063954435423255E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>1.214903840484271E-06</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>7.715153257092244E-07</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>1.754267458457498E-05</v>
+        <v>1.330279442914769E-05</v>
       </c>
       <c r="CM5">
-        <v>0.0009494175616374651</v>
+        <v>0.0009459175864476187</v>
       </c>
       <c r="CN5">
-        <v>0.1668943055614231</v>
+        <v>0.1670225651693594</v>
       </c>
       <c r="CO5">
-        <v>0.0002221377774023027</v>
+        <v>0.0002180603449473249</v>
       </c>
       <c r="CP5">
-        <v>0.1974411865793376</v>
+        <v>0.1975937002896885</v>
       </c>
       <c r="CQ5">
-        <v>0.08025151767422332</v>
+        <v>0.08031098325210237</v>
       </c>
       <c r="CR5">
-        <v>0.0004104219936765024</v>
+        <v>0.0004064940581427287</v>
       </c>
       <c r="CS5">
-        <v>0.007690088256257004</v>
+        <v>0.007691940346872974</v>
       </c>
       <c r="CT5">
-        <v>3.988095832895417E-05</v>
+        <v>3.56588146822521E-05</v>
       </c>
       <c r="CU5">
-        <v>0.007136709737816757</v>
+        <v>0.007138122448083145</v>
       </c>
       <c r="CV5">
-        <v>0.01174679839143886</v>
+        <v>0.01175187149381794</v>
       </c>
       <c r="CW5">
-        <v>0.01765712558838884</v>
+        <v>0.01766689146712877</v>
       </c>
       <c r="CX5">
-        <v>0.007907552263503561</v>
+        <v>0.007909577019679075</v>
       </c>
       <c r="CY5">
-        <v>0.05106659770169351</v>
+        <v>0.05110289056882805</v>
       </c>
       <c r="CZ5">
-        <v>0.005345041178112941</v>
+        <v>0.005345031310646612</v>
       </c>
       <c r="DA5">
-        <v>0.008004540266735494</v>
+        <v>0.008006642031001031</v>
       </c>
       <c r="DB5">
-        <v>0.02051433068359956</v>
+        <v>0.02052636517185671</v>
       </c>
       <c r="DC5">
-        <v>0.002198024473244825</v>
+        <v>0.002195515886992262</v>
       </c>
       <c r="DD5">
-        <v>0.0371520382380183</v>
+        <v>0.03717728300010774</v>
       </c>
       <c r="DE5">
-        <v>0.0001591484053033063</v>
+        <v>0.000155020959536625</v>
       </c>
       <c r="DF5">
-        <v>0.002037833267906769</v>
+        <v>0.002035197490472301</v>
       </c>
       <c r="DG5">
-        <v>0.001476412049198516</v>
+        <v>0.001473330505542342</v>
       </c>
       <c r="DH5">
-        <v>0.0003369428112279537</v>
+        <v>0.0003329565335146494</v>
       </c>
       <c r="DI5">
-        <v>1.485975749517207E-05</v>
+        <v>1.061774711421314E-05</v>
       </c>
       <c r="DJ5">
-        <v>0.004422711147378114</v>
+        <v>0.004421968953524277</v>
       </c>
       <c r="DK5">
-        <v>0.004970405465628946</v>
+        <v>0.004970098138892277</v>
       </c>
       <c r="DL5">
-        <v>0.007953119265021992</v>
+        <v>0.007955180201216045</v>
       </c>
       <c r="DM5">
-        <v>1.674818355810014E-05</v>
+        <v>1.250767257994786E-05</v>
       </c>
       <c r="DN5">
-        <v>0.0178617005952059</v>
+        <v>0.01787162890569013</v>
       </c>
       <c r="DO5">
-        <v>0.01108734836946399</v>
+        <v>0.01109189787114024</v>
       </c>
       <c r="DP5">
-        <v>0.004521387750666317</v>
+        <v>0.004520723905644253</v>
       </c>
       <c r="DQ5">
-        <v>0.01877117362551229</v>
+        <v>0.01878182405397667</v>
       </c>
       <c r="DR5">
-        <v>0.0006025341800782615</v>
+        <v>0.0005987587808587957</v>
       </c>
       <c r="DS5">
-        <v>0.0003657100721865659</v>
+        <v>0.000361746635564405</v>
       </c>
       <c r="DT5">
-        <v>2.06133176868981E-05</v>
+        <v>1.637587560991943E-05</v>
       </c>
       <c r="DU5">
-        <v>0.0001083878836118122</v>
+        <v>0.0001042201341921654</v>
       </c>
       <c r="DV5">
-        <v>0.002786107892841543</v>
+        <v>0.002784066242492481</v>
       </c>
       <c r="DW5">
-        <v>0.0003116079103837182</v>
+        <v>0.0003076015168595925</v>
       </c>
       <c r="DX5">
-        <v>0.001317661543908469</v>
+        <v>0.001314453952980516</v>
       </c>
       <c r="DY5">
-        <v>0.002959455898618023</v>
+        <v>0.00295755188589825</v>
       </c>
       <c r="DZ5">
-        <v>0.007063949735392173</v>
+        <v>0.007065304674505119</v>
       </c>
       <c r="EA5">
-        <v>0.002945553798154763</v>
+        <v>0.002943638747222341</v>
       </c>
       <c r="EB5">
-        <v>0.009813361327010885</v>
+        <v>0.009816899288026587</v>
       </c>
       <c r="EC5">
-        <v>0.001623867454112176</v>
+        <v>0.001620902989462865</v>
       </c>
       <c r="ED5">
-        <v>0.01332880844415622</v>
+        <v>0.01333513765624473</v>
       </c>
       <c r="EE5">
-        <v>0.006031829600998809</v>
+        <v>0.006032365040817242</v>
       </c>
       <c r="EF5">
-        <v>0.000941550561375313</v>
+        <v>0.0009380443398184498</v>
       </c>
       <c r="EG5">
-        <v>0.0005714353190419535</v>
+        <v>0.000567635227450127</v>
       </c>
       <c r="EH5">
-        <v>0.003566894518859715</v>
+        <v>0.003565472809996013</v>
       </c>
       <c r="EI5">
-        <v>0.002631328587683828</v>
+        <v>0.002629164043180147</v>
       </c>
       <c r="EJ5">
-        <v>1.16083368868249E-05</v>
+        <v>7.363744890794316E-06</v>
       </c>
       <c r="EK5">
-        <v>0.0004448985748253663</v>
+        <v>0.0004409980135603305</v>
       </c>
       <c r="EL5">
-        <v>0.002879725895961178</v>
+        <v>0.002877758577935412</v>
       </c>
       <c r="EM5">
-        <v>0.0115810103859143</v>
+        <v>0.01158595185327432</v>
       </c>
       <c r="EN5">
-        <v>0.01076974385888044</v>
+        <v>0.01077404118383454</v>
       </c>
       <c r="EO5">
-        <v>4.63875895457748E-05</v>
+        <v>4.21706121384611E-05</v>
       </c>
       <c r="EP5">
-        <v>0.005345041178112941</v>
+        <v>0.005345031310646612</v>
       </c>
       <c r="EQ5">
-        <v>0.008214776273741195</v>
+        <v>0.008217044964562742</v>
       </c>
       <c r="ER5">
-        <v>0.0002999427499949998</v>
+        <v>0.000295927094379776</v>
       </c>
       <c r="ES5">
-        <v>0.003428825714258845</v>
+        <v>0.003427294379311712</v>
       </c>
       <c r="ET5">
-        <v>0.003376851112526894</v>
+        <v>0.003375278509952057</v>
       </c>
       <c r="EU5">
-        <v>0.01631991054382879</v>
+        <v>0.01632861467912519</v>
       </c>
       <c r="EV5">
-        <v>0.007147521438177035</v>
+        <v>0.007148942732890642</v>
       </c>
       <c r="EW5">
-        <v>0.0006382650712689229</v>
+        <v>0.0006345180422353951</v>
       </c>
       <c r="EX5">
-        <v>0.0007046576234813237</v>
+        <v>0.0007009633098710164</v>
       </c>
       <c r="EY5">
-        <v>0.00953966931789064</v>
+        <v>0.009542989968536246</v>
       </c>
       <c r="EZ5">
-        <v>0.01115189537161489</v>
+        <v>0.01115649612335493</v>
       </c>
       <c r="FA5">
-        <v>0.002296563776528452</v>
+        <v>0.002294133430092004</v>
       </c>
       <c r="FB5">
-        <v>0.02709491290288446</v>
+        <v>0.02711217234733274</v>
       </c>
       <c r="FC5">
-        <v>0.002119276070620689</v>
+        <v>0.002116704958448668</v>
       </c>
       <c r="FD5">
-        <v>0.002273846075771429</v>
+        <v>0.002271397691570652</v>
       </c>
       <c r="FE5">
-        <v>0.0004954047765083858</v>
+        <v>0.000491544316967237</v>
       </c>
       <c r="FF5">
-        <v>0.01644213554790169</v>
+        <v>0.01645093672936672</v>
       </c>
       <c r="FG5">
-        <v>0.01179537589305761</v>
+        <v>0.01180048756578037</v>
       </c>
       <c r="FH5">
-        <v>0.0038096421269488</v>
+        <v>0.003808413158723465</v>
       </c>
       <c r="FI5">
-        <v>0.0007183062239361363</v>
+        <v>0.0007146227472604755</v>
       </c>
       <c r="FJ5">
-        <v>4.278786342582104E-05</v>
+        <v>3.856802785024045E-05</v>
       </c>
       <c r="FK5">
-        <v>1.513271450426782E-06</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.000703690223449087</v>
+        <v>0.0006999951417269898</v>
       </c>
       <c r="FM5">
-        <v>0.0002955281098478906</v>
+        <v>0.0002915089490258934</v>
       </c>
       <c r="FN5">
-        <v>0.002095990369844739</v>
+        <v>0.002093400768918626</v>
       </c>
       <c r="FO5">
-        <v>0.006789806526256893</v>
+        <v>0.00679094379674872</v>
       </c>
       <c r="FP5">
-        <v>0.009171578305624734</v>
+        <v>0.009174606693466024</v>
       </c>
       <c r="FQ5">
-        <v>0.005420122980614893</v>
+        <v>0.005420172727802063</v>
       </c>
       <c r="FR5">
-        <v>0.0007029607234247777</v>
+        <v>0.0006992650624825535</v>
       </c>
       <c r="FS5">
-        <v>0.0002154489971794123</v>
+        <v>0.0002113662538594575</v>
       </c>
       <c r="FT5">
-        <v>0.0001289221842960772</v>
+        <v>0.0001247707390297584</v>
       </c>
       <c r="FU5">
-        <v>0.0001030806234349582</v>
+        <v>9.890866007177344E-05</v>
       </c>
       <c r="FV5">
-        <v>0.001276040442521527</v>
+        <v>0.001272799804604094</v>
       </c>
       <c r="FW5">
-        <v>0.0003596197419836177</v>
+        <v>0.0003556514696634228</v>
       </c>
       <c r="FX5">
-        <v>0.0001579966252649255</v>
+        <v>0.0001538682649894603</v>
       </c>
       <c r="FY5">
-        <v>0.001581617252704271</v>
+        <v>0.001578619241562559</v>
       </c>
       <c r="FZ5">
-        <v>5.156481471829561E-05</v>
+        <v>4.7351948007242E-05</v>
       </c>
       <c r="GA5">
-        <v>0.002662590788725579</v>
+        <v>0.002660451066285575</v>
       </c>
       <c r="GB5">
-        <v>0.007984124266055173</v>
+        <v>0.007986209820097116</v>
       </c>
       <c r="GC5">
-        <v>0.005182304172690052</v>
+        <v>0.005182165092686644</v>
       </c>
       <c r="GD5">
-        <v>0.001350202544992833</v>
+        <v>0.001347020791490721</v>
       </c>
       <c r="GE5">
-        <v>0.001296686843209528</v>
+        <v>0.001293462598452381</v>
       </c>
       <c r="GF5">
-        <v>0.0002791899693034543</v>
+        <v>0.000275157836062643</v>
       </c>
       <c r="GG5">
-        <v>0.001310543043671259</v>
+        <v>0.001307329800682341</v>
       </c>
       <c r="GH5">
-        <v>3.990924332989672E-05</v>
+        <v>3.568712214137324E-05</v>
       </c>
       <c r="GI5">
-        <v>0.0002066866168874233</v>
+        <v>0.0002025969162722582</v>
       </c>
       <c r="GJ5">
-        <v>0.0006859872628591707</v>
+        <v>0.0006822781250565546</v>
       </c>
       <c r="GK5">
-        <v>0.0006222080207338534</v>
+        <v>0.0006184482424658645</v>
       </c>
       <c r="GL5">
-        <v>0.001218598740607396</v>
+        <v>0.001215312494206391</v>
       </c>
       <c r="GM5">
-        <v>0.003913259130401632</v>
+        <v>0.003912112433666213</v>
       </c>
       <c r="GN5">
-        <v>0.0004328392544235133</v>
+        <v>0.0004289291181058917</v>
       </c>
       <c r="GO5">
-        <v>3.875200429133401E-07</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.003590120119633662</v>
+        <v>0.00358871685180489</v>
       </c>
       <c r="GQ5">
-        <v>0.009471073315604813</v>
+        <v>0.009474339501296577</v>
       </c>
       <c r="GR5">
-        <v>0.007684480256070127</v>
+        <v>0.007686327893956184</v>
       </c>
       <c r="GS5">
-        <v>0.006377266912509825</v>
+        <v>0.006378076628183993</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0001463199510415232</v>
+        <v>0.0001456178432978102</v>
       </c>
       <c r="C6">
-        <v>4.543898042889368E-05</v>
+        <v>4.472290092549725E-05</v>
       </c>
       <c r="D6">
-        <v>3.340392052071E-05</v>
+        <v>3.268617419190742E-05</v>
       </c>
       <c r="E6">
-        <v>2.750026107521098E-05</v>
+        <v>2.678169710448323E-05</v>
       </c>
       <c r="F6">
-        <v>7.222726545037788E-07</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>4.192506716372851E-06</v>
+        <v>3.470714680523546E-06</v>
       </c>
       <c r="H6">
-        <v>2.458754585541312E-07</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.007891576057012E-06</v>
+        <v>2.856584790526179E-07</v>
       </c>
       <c r="J6">
-        <v>6.588432997173045E-07</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>4.167342314473908E-05</v>
+        <v>4.095682212116764E-05</v>
       </c>
       <c r="L6">
-        <v>7.111357036633678E-05</v>
+        <v>7.040104672881276E-05</v>
       </c>
       <c r="M6">
-        <v>3.586346670631104E-05</v>
+        <v>3.514606101844428E-05</v>
       </c>
       <c r="N6">
-        <v>1.872339141289523E-05</v>
+        <v>1.800361186788275E-05</v>
       </c>
       <c r="O6">
-        <v>7.871783594016607E-05</v>
+        <v>7.80063654742216E-05</v>
       </c>
       <c r="P6">
-        <v>9.508487717524759E-05</v>
+        <v>9.437567350318384E-05</v>
       </c>
       <c r="Q6">
-        <v>1.993061950399447E-05</v>
+        <v>1.921100715702409E-05</v>
       </c>
       <c r="R6">
-        <v>1.396204905359718E-05</v>
+        <v>1.324161007469136E-05</v>
       </c>
       <c r="S6">
-        <v>3.423762458362255E-05</v>
+        <v>3.351999372072741E-05</v>
       </c>
       <c r="T6">
-        <v>3.553528268154578E-05</v>
+        <v>3.481783154102033E-05</v>
       </c>
       <c r="U6">
-        <v>1.396204905359718E-05</v>
+        <v>1.324161007469136E-05</v>
       </c>
       <c r="V6">
-        <v>3.970967299655154E-07</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>2.738660206663411E-07</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>6.391679182325707E-06</v>
+        <v>5.670191726309548E-06</v>
       </c>
       <c r="Y6">
-        <v>8.691041655839051E-07</v>
+        <v>1.468518468736293E-07</v>
       </c>
       <c r="Z6">
-        <v>1.83426963841674E-05</v>
+        <v>1.762286411385478E-05</v>
       </c>
       <c r="AA6">
-        <v>4.288413723610137E-05</v>
+        <v>4.216770389337428E-05</v>
       </c>
       <c r="AB6">
-        <v>1.695837427970438E-05</v>
+        <v>1.623835028427601E-05</v>
       </c>
       <c r="AC6">
-        <v>7.106263936249345E-05</v>
+        <v>7.035010867115401E-05</v>
       </c>
       <c r="AD6">
-        <v>0.0001279966796588216</v>
+        <v>0.0001272920341882923</v>
       </c>
       <c r="AE6">
-        <v>0.0001111880783904193</v>
+        <v>0.0001104811049710598</v>
       </c>
       <c r="AF6">
-        <v>9.52938871910198E-05</v>
+        <v>9.458471246631544E-05</v>
       </c>
       <c r="AG6">
-        <v>0.0001049082879165369</v>
+        <v>0.0001042004447620546</v>
       </c>
       <c r="AH6">
-        <v>0.00010774010413023</v>
+        <v>0.0001070326531751423</v>
       </c>
       <c r="AI6">
-        <v>0.0001170553888331754</v>
+        <v>0.0001163492280214959</v>
       </c>
       <c r="AJ6">
-        <v>6.124100462133815E-05</v>
+        <v>6.052711365838882E-05</v>
       </c>
       <c r="AK6">
-        <v>2.910731819648193E-05</v>
+        <v>2.83889767991073E-05</v>
       </c>
       <c r="AL6">
-        <v>6.695645505263463E-05</v>
+        <v>6.624335566513728E-05</v>
       </c>
       <c r="AM6">
-        <v>3.060787530971622E-05</v>
+        <v>2.988974173571255E-05</v>
       </c>
       <c r="AN6">
-        <v>1.225083692446655E-05</v>
+        <v>1.153016094700202E-05</v>
       </c>
       <c r="AO6">
-        <v>1.662259725436614E-06</v>
+        <v>9.401172567684878E-07</v>
       </c>
       <c r="AP6">
-        <v>1.844389839180426E-08</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>1.489985112436514E-07</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>1.256231894797145E-05</v>
+        <v>1.184168610998062E-05</v>
       </c>
       <c r="AS6">
-        <v>1.458456110057288E-05</v>
+        <v>1.386420833801359E-05</v>
       </c>
       <c r="AT6">
-        <v>4.810963963042563E-05</v>
+        <v>4.739393000658462E-05</v>
       </c>
       <c r="AU6">
-        <v>7.25099554717101E-05</v>
+        <v>7.1797625229997E-05</v>
       </c>
       <c r="AV6">
-        <v>4.419247133483023E-05</v>
+        <v>4.347621919307198E-05</v>
       </c>
       <c r="AW6">
-        <v>8.980423677676253E-05</v>
+        <v>8.909430174933836E-05</v>
       </c>
       <c r="AX6">
-        <v>8.722049058178916E-05</v>
+        <v>8.651019771204151E-05</v>
       </c>
       <c r="AY6">
-        <v>3.991935501237446E-05</v>
+        <v>3.920251105479609E-05</v>
       </c>
       <c r="AZ6">
-        <v>2.431729083501927E-05</v>
+        <v>2.359828603095094E-05</v>
       </c>
       <c r="BA6">
-        <v>2.653245600217897E-05</v>
+        <v>2.581375799289251E-05</v>
       </c>
       <c r="BB6">
-        <v>9.535019219526865E-07</v>
+        <v>2.312612921185451E-07</v>
       </c>
       <c r="BC6">
-        <v>9.535019219526865E-07</v>
+        <v>2.312612921185451E-07</v>
       </c>
       <c r="BD6">
-        <v>1.076198681211568E-07</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>2.894227918402784E-06</v>
+        <v>2.172256074218396E-06</v>
       </c>
       <c r="BF6">
-        <v>1.076198681211568E-07</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>5.378585605876144E-06</v>
+        <v>4.656957838957928E-06</v>
       </c>
       <c r="BH6">
-        <v>3.214615242579692E-05</v>
+        <v>3.142823189928934E-05</v>
       </c>
       <c r="BI6">
-        <v>4.902450369946264E-05</v>
+        <v>4.830892078198496E-05</v>
       </c>
       <c r="BJ6">
-        <v>1.323096099842818E-05</v>
+        <v>1.251042076567288E-05</v>
       </c>
       <c r="BK6">
-        <v>1.519709014679524E-05</v>
+        <v>1.447682221796208E-05</v>
       </c>
       <c r="BL6">
-        <v>2.579915194684274E-05</v>
+        <v>2.508035237679638E-05</v>
       </c>
       <c r="BM6">
-        <v>4.075309607528981E-05</v>
+        <v>4.003636758874329E-05</v>
       </c>
       <c r="BN6">
-        <v>2.127425560538727E-05</v>
+        <v>2.055482934862396E-05</v>
       </c>
       <c r="BO6">
-        <v>4.040320604888658E-05</v>
+        <v>3.968642910345494E-05</v>
       </c>
       <c r="BP6">
-        <v>2.80793671189112E-05</v>
+        <v>2.736088335290813E-05</v>
       </c>
       <c r="BQ6">
-        <v>9.03466468176936E-06</v>
+        <v>8.313543272570759E-06</v>
       </c>
       <c r="BR6">
-        <v>1.844389839180426E-08</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>1.391058504971363E-06</v>
+        <v>6.688784756190444E-07</v>
       </c>
       <c r="BT6">
-        <v>5.476165813239694E-07</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>1.240534993612633E-06</v>
+        <v>5.183341171340955E-07</v>
       </c>
       <c r="BV6">
-        <v>9.135656689390367E-06</v>
+        <v>8.414549267329796E-06</v>
       </c>
       <c r="BW6">
-        <v>1.642207423923437E-05</v>
+        <v>1.570197596760467E-05</v>
       </c>
       <c r="BX6">
-        <v>1.576109518935591E-05</v>
+        <v>1.504090537379691E-05</v>
       </c>
       <c r="BY6">
-        <v>2.168409763631456E-05</v>
+        <v>2.09647281416376E-05</v>
       </c>
       <c r="BZ6">
-        <v>2.219866867514487E-05</v>
+        <v>2.147937044725738E-05</v>
       </c>
       <c r="CA6">
-        <v>2.168409763631456E-05</v>
+        <v>2.09647281416376E-05</v>
       </c>
       <c r="CB6">
-        <v>2.854992215441999E-05</v>
+        <v>2.783150355910108E-05</v>
       </c>
       <c r="CC6">
-        <v>1.576109518935591E-05</v>
+        <v>1.504090537379691E-05</v>
       </c>
       <c r="CD6">
-        <v>8.64438565231832E-06</v>
+        <v>7.923210190459679E-06</v>
       </c>
       <c r="CE6">
-        <v>1.597991220586816E-05</v>
+        <v>1.525975269591339E-05</v>
       </c>
       <c r="CF6">
-        <v>1.069092880675354E-05</v>
+        <v>9.970036785953819E-06</v>
       </c>
       <c r="CG6">
-        <v>7.625781075452888E-08</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>6.253566471903515E-06</v>
+        <v>5.532059887625726E-06</v>
       </c>
       <c r="CI6">
-        <v>3.970588599626577E-06</v>
+        <v>3.248765828678494E-06</v>
       </c>
       <c r="CJ6">
-        <v>4.94197137292858E-06</v>
+        <v>4.220283136041646E-06</v>
       </c>
       <c r="CK6">
-        <v>4.465612336981811E-06</v>
+        <v>3.743858125571309E-06</v>
       </c>
       <c r="CL6">
-        <v>2.127425560538727E-05</v>
+        <v>2.055482934862396E-05</v>
       </c>
       <c r="CM6">
-        <v>3.665394576596178E-05</v>
+        <v>3.593664955744865E-05</v>
       </c>
       <c r="CN6">
-        <v>0.0001946048146851715</v>
+        <v>0.0001939093942731434</v>
       </c>
       <c r="CO6">
-        <v>0.05364652004824694</v>
+        <v>0.05365322758311705</v>
       </c>
       <c r="CP6">
-        <v>0.05703805830417751</v>
+        <v>0.05704523555853169</v>
       </c>
       <c r="CQ6">
-        <v>0.1087570942069736</v>
+        <v>0.1087714344171985</v>
       </c>
       <c r="CR6">
-        <v>0.1757331932610906</v>
+        <v>0.1757568094919053</v>
       </c>
       <c r="CS6">
-        <v>0.006406663983456482</v>
+        <v>0.006406828917552529</v>
       </c>
       <c r="CT6">
-        <v>0.009166185691694133</v>
+        <v>0.00916673281257838</v>
       </c>
       <c r="CU6">
-        <v>0.003316956850302543</v>
+        <v>0.003316693867762831</v>
       </c>
       <c r="CV6">
-        <v>0.001490101712445312</v>
+        <v>0.001489585715082212</v>
       </c>
       <c r="CW6">
-        <v>0.001094193382569475</v>
+        <v>0.001093622552902442</v>
       </c>
       <c r="CX6">
-        <v>0.01399782105629659</v>
+        <v>0.01399903734647791</v>
       </c>
       <c r="CY6">
-        <v>0.0003502529864306162</v>
+        <v>0.0003495791228973293</v>
       </c>
       <c r="CZ6">
-        <v>0.06871183518509824</v>
+        <v>0.06872062922807161</v>
       </c>
       <c r="DA6">
-        <v>0.01712959929262528</v>
+        <v>0.0171312493261839</v>
       </c>
       <c r="DB6">
-        <v>0.001391089004973665</v>
+        <v>0.001390559294600609</v>
       </c>
       <c r="DC6">
-        <v>0.02039165953878524</v>
+        <v>0.02039376135945055</v>
       </c>
       <c r="DD6">
-        <v>0.003390115055823172</v>
+        <v>0.003389862205510183</v>
       </c>
       <c r="DE6">
-        <v>0.03475336262254092</v>
+        <v>0.0347574535028169</v>
       </c>
       <c r="DF6">
-        <v>0.01014489176554876</v>
+        <v>0.01014557443475279</v>
       </c>
       <c r="DG6">
-        <v>0.006957056024989892</v>
+        <v>0.006957297186993831</v>
       </c>
       <c r="DH6">
-        <v>0.0001315065999236855</v>
+        <v>0.0001308024405682496</v>
       </c>
       <c r="DI6">
-        <v>0.002369549178809738</v>
+        <v>0.002369154982699934</v>
       </c>
       <c r="DJ6">
-        <v>3.079352232372542E-05</v>
+        <v>3.007541446136439E-05</v>
       </c>
       <c r="DK6">
-        <v>0.001474009711230986</v>
+        <v>0.001473491485166354</v>
       </c>
       <c r="DL6">
-        <v>0.004085818608322006</v>
+        <v>0.004085662111194236</v>
       </c>
       <c r="DM6">
-        <v>0.0003157930538302179</v>
+        <v>0.0003151144176832848</v>
       </c>
       <c r="DN6">
-        <v>0.004415614333208887</v>
+        <v>0.004415503511956208</v>
       </c>
       <c r="DO6">
-        <v>0.01273446796096207</v>
+        <v>0.01273550927992992</v>
       </c>
       <c r="DP6">
-        <v>0.02312387374496223</v>
+        <v>0.02312635397039565</v>
       </c>
       <c r="DQ6">
-        <v>9.035489681831616E-08</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.02150857762306956</v>
+        <v>0.02151083413406907</v>
       </c>
       <c r="DS6">
-        <v>0.003477014662380747</v>
+        <v>0.003476773847443826</v>
       </c>
       <c r="DT6">
-        <v>0.001841321638948895</v>
+        <v>0.00184085428465871</v>
       </c>
       <c r="DU6">
-        <v>0.0008362410631040061</v>
+        <v>0.000835634507692113</v>
       </c>
       <c r="DV6">
-        <v>0.0005948396448874926</v>
+        <v>0.0005941996559887675</v>
       </c>
       <c r="DW6">
-        <v>0.001014833876580888</v>
+        <v>0.001014252055822675</v>
       </c>
       <c r="DX6">
-        <v>0.001315106099239881</v>
+        <v>0.001314565865426254</v>
       </c>
       <c r="DY6">
-        <v>0.0005456636411765975</v>
+        <v>0.0005450168415255387</v>
       </c>
       <c r="DZ6">
-        <v>0.003700745279263794</v>
+        <v>0.003700535450452343</v>
       </c>
       <c r="EA6">
-        <v>0.006610989498875193</v>
+        <v>0.006611182731539159</v>
       </c>
       <c r="EB6">
-        <v>0.002887382617886227</v>
+        <v>0.002887060140400093</v>
       </c>
       <c r="EC6">
-        <v>0.004970390675073142</v>
+        <v>0.004970356688942881</v>
       </c>
       <c r="ED6">
-        <v>0.009742931235216218</v>
+        <v>0.009743558233901835</v>
       </c>
       <c r="EE6">
-        <v>0.004227464919010849</v>
+        <v>0.004227328039539422</v>
       </c>
       <c r="EF6">
-        <v>0.01333646700638982</v>
+        <v>0.01333759170070529</v>
       </c>
       <c r="EG6">
-        <v>0.0008683105655240188</v>
+        <v>0.0008677084516572285</v>
       </c>
       <c r="EH6">
-        <v>0.0002684238602556675</v>
+        <v>0.0002677386635950418</v>
       </c>
       <c r="EI6">
-        <v>0.004231036919280398</v>
+        <v>0.004230900534521988</v>
       </c>
       <c r="EJ6">
-        <v>0.00206954165617072</v>
+        <v>0.002069105909776615</v>
       </c>
       <c r="EK6">
-        <v>0.0001117680234341828</v>
+        <v>0.0001110611303357474</v>
       </c>
       <c r="EL6">
-        <v>0.001800562035873115</v>
+        <v>0.00180008903648083</v>
       </c>
       <c r="EM6">
-        <v>0.0002318660574969608</v>
+        <v>0.0002311757976729694</v>
       </c>
       <c r="EN6">
-        <v>0.01234391193149013</v>
+        <v>0.01234489915943414</v>
       </c>
       <c r="EO6">
-        <v>0.01662220525433656</v>
+        <v>0.01662378501510216</v>
       </c>
       <c r="EP6">
-        <v>0.002117290759773939</v>
+        <v>0.002116861626510106</v>
       </c>
       <c r="EQ6">
-        <v>0.003409330757273217</v>
+        <v>0.003409080568286356</v>
       </c>
       <c r="ER6">
-        <v>0.009391045708662409</v>
+        <v>0.009391623972091185</v>
       </c>
       <c r="ES6">
-        <v>0.002685896802681805</v>
+        <v>0.00268554641991906</v>
       </c>
       <c r="ET6">
-        <v>0.003847151090311797</v>
+        <v>0.003846961538335469</v>
       </c>
       <c r="EU6">
-        <v>8.186518217766955E-07</v>
+        <v>9.639251554420558E-08</v>
       </c>
       <c r="EV6">
-        <v>0.0110009963301517</v>
+        <v>0.01100179756767608</v>
       </c>
       <c r="EW6">
-        <v>0.01491644162561708</v>
+        <v>0.01491778514242753</v>
       </c>
       <c r="EX6">
-        <v>0.0001781125134406377</v>
+        <v>0.0001774148088865338</v>
       </c>
       <c r="EY6">
-        <v>0.0003200926541546722</v>
+        <v>0.0003194146134915266</v>
       </c>
       <c r="EZ6">
-        <v>0.003493227763604211</v>
+        <v>0.003492989194140868</v>
       </c>
       <c r="FA6">
-        <v>0.01570477118510561</v>
+        <v>0.01570622388356934</v>
       </c>
       <c r="FB6">
-        <v>0.0008049467007424865</v>
+        <v>0.0008043358111404314</v>
       </c>
       <c r="FC6">
-        <v>0.02931204521193094</v>
+        <v>0.02931538248348606</v>
       </c>
       <c r="FD6">
-        <v>0.01689596827499513</v>
+        <v>0.01689758595124778</v>
       </c>
       <c r="FE6">
-        <v>0.002387255880145912</v>
+        <v>0.00238686413636953</v>
       </c>
       <c r="FF6">
-        <v>0.001769234633509101</v>
+        <v>0.001768757295350698</v>
       </c>
       <c r="FG6">
-        <v>0.01339361601070237</v>
+        <v>0.01339474862001062</v>
       </c>
       <c r="FH6">
-        <v>0.01903371143631244</v>
+        <v>0.01903562518459467</v>
       </c>
       <c r="FI6">
-        <v>0.005588289821700739</v>
+        <v>0.005588341413041956</v>
       </c>
       <c r="FJ6">
-        <v>0.0005854990841826399</v>
+        <v>0.0005848578016398442</v>
       </c>
       <c r="FK6">
-        <v>0.0004949361673486262</v>
+        <v>0.00049428234207054</v>
       </c>
       <c r="FL6">
-        <v>1.83426963841674E-05</v>
+        <v>1.762286411385478E-05</v>
       </c>
       <c r="FM6">
-        <v>0.000684945251686997</v>
+        <v>0.0006843177421872775</v>
       </c>
       <c r="FN6">
-        <v>4.274396322552364E-05</v>
+        <v>4.202751046905004E-05</v>
       </c>
       <c r="FO6">
-        <v>0.001176747688799147</v>
+        <v>0.001176188292695059</v>
       </c>
       <c r="FP6">
-        <v>0.004386463031009085</v>
+        <v>0.004386348172374665</v>
       </c>
       <c r="FQ6">
-        <v>0.008530767643744533</v>
+        <v>0.008531226760833708</v>
       </c>
       <c r="FR6">
-        <v>0.006975393826373691</v>
+        <v>0.006975637528116815</v>
       </c>
       <c r="FS6">
-        <v>0.001687038627306467</v>
+        <v>0.001686549905208767</v>
       </c>
       <c r="FT6">
-        <v>0.0002170554063793268</v>
+        <v>0.0002163630953175557</v>
       </c>
       <c r="FU6">
-        <v>0.0001737413231107811</v>
+        <v>0.0001730430131578548</v>
       </c>
       <c r="FV6">
-        <v>0.000357080796945853</v>
+        <v>0.0003564078790470808</v>
       </c>
       <c r="FW6">
-        <v>0.0006749195109304395</v>
+        <v>0.0006742906128909423</v>
       </c>
       <c r="FX6">
-        <v>0.001059050179917516</v>
+        <v>0.00105847448300566</v>
       </c>
       <c r="FY6">
-        <v>1.718532129683015E-05</v>
+        <v>1.646532873299055E-05</v>
       </c>
       <c r="FZ6">
-        <v>0.001781964434469711</v>
+        <v>0.001781488859356595</v>
       </c>
       <c r="GA6">
-        <v>0.001150516386819694</v>
+        <v>0.001149953357746522</v>
       </c>
       <c r="GB6">
-        <v>0.0002705790004182976</v>
+        <v>0.0002698941022391422</v>
       </c>
       <c r="GC6">
-        <v>0.009361208706410861</v>
+        <v>0.00936178283749017</v>
       </c>
       <c r="GD6">
-        <v>0.008228541620938105</v>
+        <v>0.008228958880486307</v>
       </c>
       <c r="GE6">
-        <v>0.0005195397892052524</v>
+        <v>0.0005188893714666639</v>
       </c>
       <c r="GF6">
-        <v>0.0006564963195401979</v>
+        <v>0.0006558648699352158</v>
       </c>
       <c r="GG6">
-        <v>0.0005900133845232957</v>
+        <v>0.0005893727271996976</v>
       </c>
       <c r="GH6">
-        <v>0.001175598288712412</v>
+        <v>0.001175038733419315</v>
       </c>
       <c r="GI6">
-        <v>0.0002162469163183169</v>
+        <v>0.000215554493282714</v>
       </c>
       <c r="GJ6">
-        <v>0.0008277018224596221</v>
+        <v>0.0008270940843844632</v>
       </c>
       <c r="GK6">
-        <v>5.660398227142148E-05</v>
+        <v>5.588944909258618E-05</v>
       </c>
       <c r="GL6">
-        <v>0.001986679349917806</v>
+        <v>0.00198623212730353</v>
       </c>
       <c r="GM6">
-        <v>0.0002895208818476804</v>
+        <v>0.0002888386070712706</v>
       </c>
       <c r="GN6">
-        <v>0.006457807987315886</v>
+        <v>0.006457980004727317</v>
       </c>
       <c r="GO6">
-        <v>0.002154377962572595</v>
+        <v>0.002153953965792696</v>
       </c>
       <c r="GP6">
-        <v>9.690925731291803E-05</v>
+        <v>9.62003063128964E-05</v>
       </c>
       <c r="GQ6">
-        <v>0.0004937149772564734</v>
+        <v>0.0004930609828466432</v>
       </c>
       <c r="GR6">
-        <v>0.008681084655087681</v>
+        <v>0.008681564590703343</v>
       </c>
       <c r="GS6">
-        <v>0.01101828633145643</v>
+        <v>0.01101908996360233</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>4.643087531417459E-07</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.177596409881139E-05</v>
+        <v>9.668441013105163E-06</v>
       </c>
       <c r="D2">
-        <v>2.941848107826805E-05</v>
+        <v>2.566967876397942E-05</v>
       </c>
       <c r="E2">
-        <v>5.672142149891098E-05</v>
+        <v>5.133429278062385E-05</v>
       </c>
       <c r="F2">
-        <v>7.436393847836764E-05</v>
+        <v>6.733553053149811E-05</v>
       </c>
       <c r="G2">
-        <v>9.821330209878506E-05</v>
+        <v>8.954551212064145E-05</v>
       </c>
       <c r="H2">
-        <v>0.000117022488010755</v>
+        <v>0.0001067137754104165</v>
       </c>
       <c r="I2">
-        <v>0.0001263604254705957</v>
+        <v>0.0001144078952470884</v>
       </c>
       <c r="J2">
-        <v>0.0001313595246814194</v>
+        <v>0.0001177618506166615</v>
       </c>
       <c r="K2">
-        <v>0.0001337172954450325</v>
+        <v>0.0001184736701852241</v>
       </c>
       <c r="L2">
-        <v>0.0001337249148435918</v>
+        <v>0.0001184736701852241</v>
       </c>
       <c r="M2">
-        <v>0.0001338314763174277</v>
+        <v>0.0001184736701852241</v>
       </c>
       <c r="N2">
-        <v>0.0001354776450222039</v>
+        <v>0.0001184736701852241</v>
       </c>
       <c r="O2">
-        <v>0.0001444251245046309</v>
+        <v>0.0001257772126963067</v>
       </c>
       <c r="P2">
-        <v>0.0001466393143765496</v>
+        <v>0.0001263454074859488</v>
       </c>
       <c r="Q2">
-        <v>0.0001654811112866331</v>
+        <v>0.0001435462917417811</v>
       </c>
       <c r="R2">
-        <v>0.0001843229081967166</v>
+        <v>0.0001607471759976134</v>
       </c>
       <c r="S2">
-        <v>0.000201145749223588</v>
+        <v>0.0001759284872520915</v>
       </c>
       <c r="T2">
-        <v>0.0002284879706419587</v>
+        <v>0.000201632394273173</v>
       </c>
       <c r="U2">
-        <v>0.0002745030779801837</v>
+        <v>0.0002460148948062172</v>
       </c>
       <c r="V2">
-        <v>0.000303660912293529</v>
+        <v>0.000273534969686186</v>
       </c>
       <c r="W2">
-        <v>0.0003275469909118226</v>
+        <v>0.0002957816774955861</v>
       </c>
       <c r="X2">
-        <v>0.0003517681795107316</v>
+        <v>0.0003183635977159965</v>
       </c>
       <c r="Y2">
-        <v>0.0003660339626855177</v>
+        <v>0.0003309870695229102</v>
       </c>
       <c r="Z2">
-        <v>0.0003783098389754113</v>
+        <v>0.000341620026205965</v>
       </c>
       <c r="AA2">
-        <v>0.0003836364849672879</v>
+        <v>0.000345301628475203</v>
       </c>
       <c r="AB2">
-        <v>0.0003871742772626419</v>
+        <v>0.0003471938302632766</v>
       </c>
       <c r="AC2">
-        <v>0.0003872244287977408</v>
+        <v>0.0003471938302632766</v>
       </c>
       <c r="AD2">
-        <v>0.0003874200171164269</v>
+        <v>0.0003471938302632766</v>
       </c>
       <c r="AE2">
-        <v>0.0003905694061342484</v>
+        <v>0.0003486975100536855</v>
       </c>
       <c r="AF2">
-        <v>0.0003949760898793407</v>
+        <v>0.0003514588688786168</v>
       </c>
       <c r="AG2">
-        <v>0.0003953112265599545</v>
+        <v>0.0003514588688786168</v>
       </c>
       <c r="AH2">
-        <v>0.0003957755353130963</v>
+        <v>0.0003514588688786168</v>
       </c>
       <c r="AI2">
-        <v>0.0004001822190581886</v>
+        <v>0.000354220227703548</v>
       </c>
       <c r="AJ2">
-        <v>0.0004043067018196051</v>
+        <v>0.0003566992992866795</v>
       </c>
       <c r="AK2">
-        <v>0.0004048687971370903</v>
+        <v>0.0003566992992866795</v>
       </c>
       <c r="AL2">
-        <v>0.0004049753586109262</v>
+        <v>0.0003566992992866795</v>
       </c>
       <c r="AM2">
-        <v>0.0004050907964892487</v>
+        <v>0.0003566992992866795</v>
       </c>
       <c r="AN2">
-        <v>0.0004051644725849868</v>
+        <v>0.0003566992992866795</v>
       </c>
       <c r="AO2">
-        <v>0.0004061840044260113</v>
+        <v>0.0003566992992866795</v>
       </c>
       <c r="AP2">
-        <v>0.0004085010347919812</v>
+        <v>0.0003573703660048064</v>
       </c>
       <c r="AQ2">
-        <v>0.0004178619542504924</v>
+        <v>0.0003650874748648732</v>
       </c>
       <c r="AR2">
-        <v>0.000435249967244671</v>
+        <v>0.000380834130838266</v>
       </c>
       <c r="AS2">
-        <v>0.0004750048449450232</v>
+        <v>0.0004189544882189742</v>
       </c>
       <c r="AT2">
-        <v>0.0005367783413716935</v>
+        <v>0.000479100194581571</v>
       </c>
       <c r="AU2">
-        <v>0.0006091767971837559</v>
+        <v>0.0005498741079761528</v>
       </c>
       <c r="AV2">
-        <v>0.0006997418619449584</v>
+        <v>0.0006388201831623395</v>
       </c>
       <c r="AW2">
-        <v>0.0007811237172373699</v>
+        <v>0.0007185802419213401</v>
       </c>
       <c r="AX2">
-        <v>0.0008756322967704571</v>
+        <v>0.0008114710372621193</v>
       </c>
       <c r="AY2">
-        <v>0.0009509668624126781</v>
+        <v>0.0008851819579441339</v>
       </c>
       <c r="AZ2">
-        <v>0.001001248009504131</v>
+        <v>0.0009338318021967525</v>
       </c>
       <c r="BA2">
-        <v>0.001065735835773789</v>
+        <v>0.0009966926680698913</v>
       </c>
       <c r="BB2">
-        <v>0.001111750943112014</v>
+        <v>0.001041075168602935</v>
       </c>
       <c r="BC2">
-        <v>0.001141278901403949</v>
+        <v>0.001068965480594339</v>
       </c>
       <c r="BD2">
-        <v>0.001151494711813009</v>
+        <v>0.001077537741712652</v>
       </c>
       <c r="BE2">
-        <v>0.001157304956476911</v>
+        <v>0.001081703090471665</v>
       </c>
       <c r="BF2">
-        <v>0.00115735510801201</v>
+        <v>0.001081703090471665</v>
       </c>
       <c r="BG2">
-        <v>0.001157615801776931</v>
+        <v>0.001081703090471665</v>
       </c>
       <c r="BH2">
-        <v>0.001165938932295474</v>
+        <v>0.001088382093179095</v>
       </c>
       <c r="BI2">
-        <v>0.001184452949224518</v>
+        <v>0.001105255097263996</v>
       </c>
       <c r="BJ2">
-        <v>0.00121997155316992</v>
+        <v>0.001139137886021743</v>
       </c>
       <c r="BK2">
-        <v>0.001290000239119063</v>
+        <v>0.001207541305204753</v>
       </c>
       <c r="BL2">
-        <v>0.001366459860696205</v>
+        <v>0.001282377625708562</v>
       </c>
       <c r="BM2">
-        <v>0.001446546316063549</v>
+        <v>0.001360841888587933</v>
       </c>
       <c r="BN2">
-        <v>0.001525414491501366</v>
+        <v>0.001438087499155866</v>
       </c>
       <c r="BO2">
-        <v>0.001618526696115228</v>
+        <v>0.001529581492758635</v>
       </c>
       <c r="BP2">
-        <v>0.001677586437698877</v>
+        <v>0.001587012614786413</v>
       </c>
       <c r="BQ2">
-        <v>0.00170633616903583</v>
+        <v>0.001614124461948407</v>
       </c>
       <c r="BR2">
-        <v>0.00172854628075107</v>
+        <v>0.001634694690575318</v>
       </c>
       <c r="BS2">
-        <v>0.001743435530889792</v>
+        <v>0.001647941819916341</v>
       </c>
       <c r="BT2">
-        <v>0.001744780432311995</v>
+        <v>0.001647941819916341</v>
       </c>
       <c r="BU2">
-        <v>0.001744795183198142</v>
+        <v>0.001647941819916341</v>
       </c>
       <c r="BV2">
-        <v>0.001748269008197196</v>
+        <v>0.001649770034855741</v>
       </c>
       <c r="BW2">
-        <v>0.001764261597272094</v>
+        <v>0.001664120840381754</v>
       </c>
       <c r="BX2">
-        <v>0.001795293398477038</v>
+        <v>0.001693515454953835</v>
       </c>
       <c r="BY2">
-        <v>0.001856531024934706</v>
+        <v>0.00175312512755233</v>
       </c>
       <c r="BZ2">
-        <v>0.001923791561043975</v>
+        <v>0.001818759550777182</v>
       </c>
       <c r="CA2">
-        <v>0.002029929794904337</v>
+        <v>0.001923283555188919</v>
       </c>
       <c r="CB2">
-        <v>0.002211629364393803</v>
+        <v>0.00210339199146056</v>
       </c>
       <c r="CC2">
-        <v>0.00237146417514805</v>
+        <v>0.002261628985770569</v>
       </c>
       <c r="CD2">
-        <v>0.002533901015751781</v>
+        <v>0.002422468805271773</v>
       </c>
       <c r="CE2">
-        <v>0.002694600836455991</v>
+        <v>0.002581571073932437</v>
       </c>
       <c r="CF2">
-        <v>0.002836809648229826</v>
+        <v>0.002722176681663507</v>
       </c>
       <c r="CG2">
-        <v>0.002945782311926229</v>
+        <v>0.002829535982288846</v>
       </c>
       <c r="CH2">
-        <v>0.003003075352612074</v>
+        <v>0.002885199863405446</v>
       </c>
       <c r="CI2">
-        <v>0.003040287333459522</v>
+        <v>0.00292077654666625</v>
       </c>
       <c r="CJ2">
-        <v>0.003051624280803729</v>
+        <v>0.002930470287408696</v>
       </c>
       <c r="CK2">
-        <v>0.003055490664580075</v>
+        <v>0.002932691181115699</v>
       </c>
       <c r="CL2">
-        <v>0.003056002699450456</v>
+        <v>0.002932691181115699</v>
       </c>
       <c r="CM2">
-        <v>0.003064347527467744</v>
+        <v>0.002939391887953976</v>
       </c>
       <c r="CN2">
-        <v>0.06328477904397611</v>
+        <v>0.06317658383158338</v>
       </c>
       <c r="CO2">
-        <v>0.09789509304191907</v>
+        <v>0.09779583021628599</v>
       </c>
       <c r="CP2">
-        <v>0.2334574052002253</v>
+        <v>0.2333979319534592</v>
       </c>
       <c r="CQ2">
-        <v>0.3150421504809005</v>
+        <v>0.3150059679206467</v>
       </c>
       <c r="CR2">
-        <v>0.3151802260629134</v>
+        <v>0.3151424390352455</v>
       </c>
       <c r="CS2">
-        <v>0.3251658274852895</v>
+        <v>0.3251294460048895</v>
       </c>
       <c r="CT2">
-        <v>0.3348230219266626</v>
+        <v>0.3347879456119878</v>
       </c>
       <c r="CU2">
-        <v>0.335053577103326</v>
+        <v>0.3350169245887371</v>
       </c>
       <c r="CV2">
-        <v>0.3369570997932154</v>
+        <v>0.3369193824413491</v>
       </c>
       <c r="CW2">
-        <v>0.3559325336955685</v>
+        <v>0.3558989697413634</v>
       </c>
       <c r="CX2">
-        <v>0.3563158271733967</v>
+        <v>0.3562807337055758</v>
       </c>
       <c r="CY2">
-        <v>0.4739801403670248</v>
+        <v>0.4739793657394777</v>
       </c>
       <c r="CZ2">
-        <v>0.483048974842432</v>
+        <v>0.483049325541312</v>
       </c>
       <c r="DA2">
-        <v>0.4837401977624477</v>
+        <v>0.4837391130700486</v>
       </c>
       <c r="DB2">
-        <v>0.5102796732272538</v>
+        <v>0.510285053972771</v>
       </c>
       <c r="DC2">
-        <v>0.5110761199811827</v>
+        <v>0.5110800974983509</v>
       </c>
       <c r="DD2">
-        <v>0.5703713835512081</v>
+        <v>0.57039183870679</v>
       </c>
       <c r="DE2">
-        <v>0.5707111732815527</v>
+        <v>0.5707300856260754</v>
       </c>
       <c r="DF2">
-        <v>0.5725405757757297</v>
+        <v>0.5725584006272458</v>
       </c>
       <c r="DG2">
-        <v>0.5735501914173278</v>
+        <v>0.5735666781981286</v>
       </c>
       <c r="DH2">
-        <v>0.5753248047146741</v>
+        <v>0.5753401872554915</v>
       </c>
       <c r="DI2">
-        <v>0.5762032866638577</v>
+        <v>0.57621729105137</v>
       </c>
       <c r="DJ2">
-        <v>0.5813385827668029</v>
+        <v>0.581352510147441</v>
       </c>
       <c r="DK2">
-        <v>0.5840088898123372</v>
+        <v>0.5840219867325561</v>
       </c>
       <c r="DL2">
-        <v>0.5843523293124707</v>
+        <v>0.5843638845372264</v>
       </c>
       <c r="DM2">
-        <v>0.5860091929166283</v>
+        <v>0.5860196079097911</v>
       </c>
       <c r="DN2">
-        <v>0.6095927265524229</v>
+        <v>0.6096087034643392</v>
       </c>
       <c r="DO2">
-        <v>0.628861061437833</v>
+        <v>0.6288812812761178</v>
       </c>
       <c r="DP2">
-        <v>0.6309660766160671</v>
+        <v>0.6309852932056761</v>
       </c>
       <c r="DQ2">
-        <v>0.6586872060125196</v>
+        <v>0.6587132492267777</v>
       </c>
       <c r="DR2">
-        <v>0.6619969514210652</v>
+        <v>0.6620223596269283</v>
       </c>
       <c r="DS2">
-        <v>0.66633133217034</v>
+        <v>0.6663564185599207</v>
       </c>
       <c r="DT2">
-        <v>0.6663316145795737</v>
+        <v>0.6663564185599207</v>
       </c>
       <c r="DU2">
-        <v>0.6673065569831775</v>
+        <v>0.667330012294517</v>
       </c>
       <c r="DV2">
-        <v>0.6676351055641724</v>
+        <v>0.6676570146284603</v>
       </c>
       <c r="DW2">
-        <v>0.66850349076394</v>
+        <v>0.6685240185887299</v>
       </c>
       <c r="DX2">
-        <v>0.6696186155994348</v>
+        <v>0.6696378376036632</v>
       </c>
       <c r="DY2">
-        <v>0.6763524892099093</v>
+        <v>0.6763721228317003</v>
       </c>
       <c r="DZ2">
-        <v>0.6820605835797208</v>
+        <v>0.6820803152773153</v>
       </c>
       <c r="EA2">
-        <v>0.6846690738288309</v>
+        <v>0.6846879561709591</v>
       </c>
       <c r="EB2">
-        <v>0.6883565662155254</v>
+        <v>0.6883749290121648</v>
       </c>
       <c r="EC2">
-        <v>0.6976249476793897</v>
+        <v>0.6976444967963925</v>
       </c>
       <c r="ED2">
-        <v>0.7052834907363761</v>
+        <v>0.7053037341072763</v>
       </c>
       <c r="EE2">
-        <v>0.7164607470898201</v>
+        <v>0.7164827602516466</v>
       </c>
       <c r="EF2">
-        <v>0.7167571654526735</v>
+        <v>0.7167776225464608</v>
       </c>
       <c r="EG2">
-        <v>0.7168725714109978</v>
+        <v>0.7168914171081279</v>
       </c>
       <c r="EH2">
-        <v>0.7215298941415919</v>
+        <v>0.7215485167335391</v>
       </c>
       <c r="EI2">
-        <v>0.7248126113517008</v>
+        <v>0.7248305906737595</v>
       </c>
       <c r="EJ2">
-        <v>0.7248453796258053</v>
+        <v>0.724861722292005</v>
       </c>
       <c r="EK2">
-        <v>0.7274818624732962</v>
+        <v>0.7274973643403038</v>
       </c>
       <c r="EL2">
-        <v>0.7279743221448095</v>
+        <v>0.7279883278661611</v>
       </c>
       <c r="EM2">
-        <v>0.7412224653784617</v>
+        <v>0.7412388738822152</v>
       </c>
       <c r="EN2">
-        <v>0.7568196224762336</v>
+        <v>0.7568391517667217</v>
       </c>
       <c r="EO2">
-        <v>0.759268735534563</v>
+        <v>0.75928736675403</v>
       </c>
       <c r="EP2">
-        <v>0.7611274797270426</v>
+        <v>0.761145032422146</v>
       </c>
       <c r="EQ2">
-        <v>0.766169631435376</v>
+        <v>0.7661870786529009</v>
       </c>
       <c r="ER2">
-        <v>0.7664112090014018</v>
+        <v>0.7664270833881385</v>
       </c>
       <c r="ES2">
-        <v>0.774592630528142</v>
+        <v>0.7746093589928674</v>
       </c>
       <c r="ET2">
-        <v>0.7746620885981241</v>
+        <v>0.7746771916216678</v>
       </c>
       <c r="EU2">
-        <v>0.7900160617099632</v>
+        <v>0.7900342111881321</v>
       </c>
       <c r="EV2">
-        <v>0.8028227299691528</v>
+        <v>0.8028431472875893</v>
       </c>
       <c r="EW2">
-        <v>0.803272198583153</v>
+        <v>0.8032911066151999</v>
       </c>
       <c r="EX2">
-        <v>0.8038104048020202</v>
+        <v>0.8038278306713933</v>
       </c>
       <c r="EY2">
-        <v>0.8115793083526227</v>
+        <v>0.8115974622089051</v>
       </c>
       <c r="EZ2">
-        <v>0.8263671024972128</v>
+        <v>0.8263881297487111</v>
       </c>
       <c r="FA2">
-        <v>0.8271158651939001</v>
+        <v>0.8271354746418439</v>
       </c>
       <c r="FB2">
-        <v>0.8632568261033018</v>
+        <v>0.8632858357986385</v>
       </c>
       <c r="FC2">
-        <v>0.869282095354766</v>
+        <v>0.8693113000742226</v>
       </c>
       <c r="FD2">
-        <v>0.8775433768768865</v>
+        <v>0.8775734600844999</v>
       </c>
       <c r="FE2">
-        <v>0.8789414395960147</v>
+        <v>0.8789703034664327</v>
       </c>
       <c r="FF2">
-        <v>0.8924107068168758</v>
+        <v>0.8924420410589013</v>
       </c>
       <c r="FG2">
-        <v>0.9068648029807689</v>
+        <v>0.9068989086192102</v>
       </c>
       <c r="FH2">
-        <v>0.9095492521254851</v>
+        <v>0.9095825316262098</v>
       </c>
       <c r="FI2">
-        <v>0.9118416547928795</v>
+        <v>0.9118739883221678</v>
       </c>
       <c r="FJ2">
-        <v>0.9136681359872254</v>
+        <v>0.9136993811305768</v>
       </c>
       <c r="FK2">
-        <v>0.9140786507034789</v>
+        <v>0.9141083746537134</v>
       </c>
       <c r="FL2">
-        <v>0.9145209054778964</v>
+        <v>0.9145491179367444</v>
       </c>
       <c r="FM2">
-        <v>0.9150716913060358</v>
+        <v>0.915098425447319</v>
       </c>
       <c r="FN2">
-        <v>0.9174002215713404</v>
+        <v>0.9174260207840219</v>
       </c>
       <c r="FO2">
-        <v>0.9204029615976449</v>
+        <v>0.920428031962045</v>
       </c>
       <c r="FP2">
-        <v>0.9256782097924946</v>
+        <v>0.9257032459280602</v>
       </c>
       <c r="FQ2">
-        <v>0.9295271765698485</v>
+        <v>0.9295517425165144</v>
       </c>
       <c r="FR2">
-        <v>0.9295308296683372</v>
+        <v>0.9295537500597405</v>
       </c>
       <c r="FS2">
-        <v>0.9322757992095526</v>
+        <v>0.9322979119620263</v>
       </c>
       <c r="FT2">
-        <v>0.9338249200199427</v>
+        <v>0.933845859607943</v>
       </c>
       <c r="FU2">
-        <v>0.9341219268627621</v>
+        <v>0.9341413105625992</v>
       </c>
       <c r="FV2">
-        <v>0.9365862800202099</v>
+        <v>0.9366047703073455</v>
       </c>
       <c r="FW2">
-        <v>0.9375635919636767</v>
+        <v>0.9375807343060831</v>
       </c>
       <c r="FX2">
-        <v>0.9375957761598149</v>
+        <v>0.9376112816678319</v>
       </c>
       <c r="FY2">
-        <v>0.9380685577924666</v>
+        <v>0.9380825611399983</v>
       </c>
       <c r="FZ2">
-        <v>0.9381480339378692</v>
+        <v>0.9381604149063644</v>
       </c>
       <c r="GA2">
-        <v>0.9401010626248949</v>
+        <v>0.9401123938882159</v>
       </c>
       <c r="GB2">
-        <v>0.9525973199020404</v>
+        <v>0.9526108241247799</v>
       </c>
       <c r="GC2">
-        <v>0.959543724000221</v>
+        <v>0.9595577048030222</v>
       </c>
       <c r="GD2">
-        <v>0.9598600042419256</v>
+        <v>0.9598724350477096</v>
       </c>
       <c r="GE2">
-        <v>0.9605602384614201</v>
+        <v>0.9605712366303369</v>
       </c>
       <c r="GF2">
-        <v>0.9608765187031247</v>
+        <v>0.9608859668750244</v>
       </c>
       <c r="GG2">
-        <v>0.9610572984026674</v>
+        <v>0.9610651551601799</v>
       </c>
       <c r="GH2">
-        <v>0.9611404714178562</v>
+        <v>0.9611467069263249</v>
       </c>
       <c r="GI2">
-        <v>0.9631663049006705</v>
+        <v>0.9631715129576263</v>
       </c>
       <c r="GJ2">
-        <v>0.9632235410773596</v>
+        <v>0.963227119957365</v>
       </c>
       <c r="GK2">
-        <v>0.9633868499379129</v>
+        <v>0.9633888320633591</v>
       </c>
       <c r="GL2">
-        <v>0.9665816482531077</v>
+        <v>0.9665829602351979</v>
       </c>
       <c r="GM2">
-        <v>0.9724797221119296</v>
+        <v>0.9724811902393384</v>
       </c>
       <c r="GN2">
-        <v>0.9742353599103735</v>
+        <v>0.9742357179977096</v>
       </c>
       <c r="GO2">
-        <v>0.9746078812688247</v>
+        <v>0.9746067065499173</v>
       </c>
       <c r="GP2">
-        <v>0.9767443623452385</v>
+        <v>0.9767421939955856</v>
       </c>
       <c r="GQ2">
-        <v>0.9852906348508736</v>
+        <v>0.9852894321002983</v>
       </c>
       <c r="GR2">
-        <v>0.9944736973196732</v>
+        <v>0.9944736548106846</v>
       </c>
       <c r="GS2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GT2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GU2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GV2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GW2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GX2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GY2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GZ2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HA2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HB2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HC2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HD2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HE2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HF2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HG2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HH2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HI2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HJ2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HK2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HL2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HM2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HN2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HO2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HP2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HQ2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HR2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HS2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HT2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HU2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HV2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HW2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HX2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HY2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HZ2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IA2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IB2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IC2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="ID2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IE2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IF2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IG2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IH2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="II2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IJ2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IK2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IL2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IM2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IN2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IO2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IP2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IQ2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IR2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IS2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IT2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IU2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IV2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IW2">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.954623060346491E-08</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>7.372411660435617E-07</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.425472189181394E-05</v>
+        <v>3.792020644665745E-06</v>
       </c>
       <c r="E3">
-        <v>3.716241942708464E-05</v>
+        <v>1.699024936290005E-05</v>
       </c>
       <c r="F3">
-        <v>3.797719297055531E-05</v>
+        <v>1.699024936290005E-05</v>
       </c>
       <c r="G3">
-        <v>5.425848664025611E-05</v>
+        <v>2.355078964395266E-05</v>
       </c>
       <c r="H3">
-        <v>5.453510336464438E-05</v>
+        <v>2.355078964395266E-05</v>
       </c>
       <c r="I3">
-        <v>5.735534730742999E-05</v>
+        <v>2.355078964395266E-05</v>
       </c>
       <c r="J3">
-        <v>6.050323124356875E-05</v>
+        <v>2.355078964395266E-05</v>
       </c>
       <c r="K3">
-        <v>0.0001107198632248221</v>
+        <v>6.410445912330666E-05</v>
       </c>
       <c r="L3">
-        <v>0.0001367603166965385</v>
+        <v>8.044077876954832E-05</v>
       </c>
       <c r="M3">
-        <v>0.0001407449111157029</v>
+        <v>8.044077876954832E-05</v>
       </c>
       <c r="N3">
-        <v>0.0001766328403876432</v>
+        <v>0.0001066413441787444</v>
       </c>
       <c r="O3">
-        <v>0.0002095918837190019</v>
+        <v>0.0001299080358404263</v>
       </c>
       <c r="P3">
-        <v>0.0002347899332078081</v>
+        <v>0.0001454005169144596</v>
       </c>
       <c r="Q3">
-        <v>0.0002472910729541971</v>
+        <v>0.0001481744657808375</v>
       </c>
       <c r="R3">
-        <v>0.0002483998754317027</v>
+        <v>0.0001481744657808375</v>
       </c>
       <c r="S3">
-        <v>0.0002581317822342712</v>
+        <v>0.0001481744657808375</v>
       </c>
       <c r="T3">
-        <v>0.0002722514319478253</v>
+        <v>0.000152569680889428</v>
       </c>
       <c r="U3">
-        <v>0.0002723214642864046</v>
+        <v>0.000152569680889428</v>
       </c>
       <c r="V3">
-        <v>0.0002726784848591617</v>
+        <v>0.000152569680889428</v>
       </c>
       <c r="W3">
-        <v>0.0002731418794497608</v>
+        <v>0.000152569680889428</v>
       </c>
       <c r="X3">
-        <v>0.00027488096201448</v>
+        <v>0.000152569680889428</v>
       </c>
       <c r="Y3">
-        <v>0.0002750019652420252</v>
+        <v>0.000152569680889428</v>
       </c>
       <c r="Z3">
-        <v>0.0002924403268882525</v>
+        <v>0.000160289259599866</v>
       </c>
       <c r="AA3">
-        <v>0.0003185034413595091</v>
+        <v>0.0001766482788366661</v>
       </c>
       <c r="AB3">
-        <v>0.0003251644682243767</v>
+        <v>0.0001766482788366661</v>
       </c>
       <c r="AC3">
-        <v>0.0003298508355293042</v>
+        <v>0.0001766482788366661</v>
       </c>
       <c r="AD3">
-        <v>0.0003618864068793974</v>
+        <v>0.0001989899258713586</v>
       </c>
       <c r="AE3">
-        <v>0.0003926782362547224</v>
+        <v>0.0002200857128751448</v>
       </c>
       <c r="AF3">
-        <v>0.0004046131570125982</v>
+        <v>0.0002222924784986639</v>
       </c>
       <c r="AG3">
-        <v>0.000424445241610264</v>
+        <v>0.0002324098566005842</v>
       </c>
       <c r="AH3">
-        <v>0.0004385815753234797</v>
+        <v>0.0002368217841211988</v>
       </c>
       <c r="AI3">
-        <v>0.0004398462222978238</v>
+        <v>0.0002368217841211988</v>
       </c>
       <c r="AJ3">
-        <v>0.0004398834975110676</v>
+        <v>0.0002368217841211988</v>
       </c>
       <c r="AK3">
-        <v>0.0004416965122742869</v>
+        <v>0.0002368217841211988</v>
       </c>
       <c r="AL3">
-        <v>0.0004473929401587232</v>
+        <v>0.0002368217841211988</v>
       </c>
       <c r="AM3">
-        <v>0.0004541863497209051</v>
+        <v>0.0002368217841211988</v>
       </c>
       <c r="AN3">
-        <v>0.0004979418688332353</v>
+        <v>0.0002709033376457417</v>
       </c>
       <c r="AO3">
-        <v>0.0005223113643388505</v>
+        <v>0.0002855658537334294</v>
       </c>
       <c r="AP3">
-        <v>0.0005388172870039942</v>
+        <v>0.0002923514055465219</v>
       </c>
       <c r="AQ3">
-        <v>0.000568365865404541</v>
+        <v>0.0003122018243555505</v>
       </c>
       <c r="AR3">
-        <v>0.0006042537946764813</v>
+        <v>0.0003384023897647466</v>
       </c>
       <c r="AS3">
-        <v>0.0006929242588776204</v>
+        <v>0.0004174753772134571</v>
       </c>
       <c r="AT3">
-        <v>0.0007821179170681455</v>
+        <v>0.0004970724496355866</v>
       </c>
       <c r="AU3">
-        <v>0.000845482200782672</v>
+        <v>0.0005507961609138543</v>
       </c>
       <c r="AV3">
-        <v>0.0009320752990259547</v>
+        <v>0.0006277882447113545</v>
       </c>
       <c r="AW3">
-        <v>0.000981119414030995</v>
+        <v>0.0006671674004524428</v>
       </c>
       <c r="AX3">
-        <v>0.001018518533272278</v>
+        <v>0.0006948817293432172</v>
       </c>
       <c r="AY3">
-        <v>0.001040746266821343</v>
+        <v>0.0007073988361165021</v>
       </c>
       <c r="AZ3">
-        <v>0.001046565166103294</v>
+        <v>0.0007073988361165021</v>
       </c>
       <c r="BA3">
-        <v>0.001049812252237421</v>
+        <v>0.0007073988361165021</v>
       </c>
       <c r="BB3">
-        <v>0.001051437658004446</v>
+        <v>0.0007073988361165021</v>
       </c>
       <c r="BC3">
-        <v>0.001064151546746519</v>
+        <v>0.0007103858962838695</v>
       </c>
       <c r="BD3">
-        <v>0.001068958785648994</v>
+        <v>0.0007103858962838695</v>
       </c>
       <c r="BE3">
-        <v>0.001075763768510941</v>
+        <v>0.0007103858962838695</v>
       </c>
       <c r="BF3">
-        <v>0.001105942962898695</v>
+        <v>0.0007308680050006522</v>
       </c>
       <c r="BG3">
-        <v>0.001119055570632679</v>
+        <v>0.0007342544631666905</v>
       </c>
       <c r="BH3">
-        <v>0.001146263926080702</v>
+        <v>0.0007517606736920819</v>
       </c>
       <c r="BI3">
-        <v>0.001193034923131857</v>
+        <v>0.0007888628404260179</v>
       </c>
       <c r="BJ3">
-        <v>0.001255993561854613</v>
+        <v>0.0008421802159109804</v>
       </c>
       <c r="BK3">
-        <v>0.001273898356491378</v>
+        <v>0.000850367021933671</v>
       </c>
       <c r="BL3">
-        <v>0.001293730441089044</v>
+        <v>0.0008604844000355913</v>
       </c>
       <c r="BM3">
-        <v>0.001317576935605269</v>
+        <v>0.0008746230244785295</v>
       </c>
       <c r="BN3">
-        <v>0.0013521738549034</v>
+        <v>0.000899530381361761</v>
       </c>
       <c r="BO3">
-        <v>0.001368924109563587</v>
+        <v>0.0009065606812601248</v>
       </c>
       <c r="BP3">
-        <v>0.00138477843324195</v>
+        <v>0.0009126935244324554</v>
       </c>
       <c r="BQ3">
-        <v>0.00139263419808258</v>
+        <v>0.0009126935244324554</v>
       </c>
       <c r="BR3">
-        <v>0.001393420184966634</v>
+        <v>0.0009126935244324554</v>
       </c>
       <c r="BS3">
-        <v>0.001394648904441707</v>
+        <v>0.0009126935244324554</v>
       </c>
       <c r="BT3">
-        <v>0.001403868516254669</v>
+        <v>0.0009126935244324554</v>
       </c>
       <c r="BU3">
-        <v>0.001467232799969195</v>
+        <v>0.0009664172357107231</v>
       </c>
       <c r="BV3">
-        <v>0.001542599488440228</v>
+        <v>0.001032163791489095</v>
       </c>
       <c r="BW3">
-        <v>0.001626630496735488</v>
+        <v>0.001106589422174468</v>
       </c>
       <c r="BX3">
-        <v>0.001729967274639091</v>
+        <v>0.001200353699628115</v>
       </c>
       <c r="BY3">
-        <v>0.001844000912325687</v>
+        <v>0.001304833053303519</v>
       </c>
       <c r="BZ3">
-        <v>0.002008570708987053</v>
+        <v>0.001459934627551585</v>
       </c>
       <c r="CA3">
-        <v>0.002208683114927366</v>
+        <v>0.001650639339100705</v>
       </c>
       <c r="CB3">
-        <v>0.002370418361646237</v>
+        <v>0.001802901536250782</v>
       </c>
       <c r="CC3">
-        <v>0.0025106920288005</v>
+        <v>0.001933665605395135</v>
       </c>
       <c r="CD3">
-        <v>0.002645758286060406</v>
+        <v>0.002059213396578671</v>
       </c>
       <c r="CE3">
-        <v>0.002723063834492105</v>
+        <v>0.002126902114139409</v>
       </c>
       <c r="CF3">
-        <v>0.002769425948551555</v>
+        <v>0.002163594701565887</v>
       </c>
       <c r="CG3">
-        <v>0.002799886187933607</v>
+        <v>0.002184358333888358</v>
       </c>
       <c r="CH3">
-        <v>0.00283511248121897</v>
+        <v>0.002209896136564279</v>
       </c>
       <c r="CI3">
-        <v>0.002845728992003592</v>
+        <v>0.002210782247000994</v>
       </c>
       <c r="CJ3">
-        <v>0.002846270997462597</v>
+        <v>0.002210782247000994</v>
       </c>
       <c r="CK3">
-        <v>0.002846942461548975</v>
+        <v>0.002210782247000994</v>
       </c>
       <c r="CL3">
-        <v>0.00284990419098889</v>
+        <v>0.002210782247000994</v>
       </c>
       <c r="CM3">
-        <v>0.004070496266226694</v>
+        <v>0.003423704474821649</v>
       </c>
       <c r="CN3">
-        <v>0.2002732222858549</v>
+        <v>0.1999508095076445</v>
       </c>
       <c r="CO3">
-        <v>0.2208285358688485</v>
+        <v>0.2205313797073898</v>
       </c>
       <c r="CP3">
-        <v>0.3994883922443695</v>
+        <v>0.3994857401031543</v>
       </c>
       <c r="CQ3">
-        <v>0.4028430339763138</v>
+        <v>0.4028363462117134</v>
       </c>
       <c r="CR3">
-        <v>0.4135462017591782</v>
+        <v>0.4135479926957261</v>
       </c>
       <c r="CS3">
-        <v>0.4219540835886072</v>
+        <v>0.4219604444215826</v>
       </c>
       <c r="CT3">
-        <v>0.4251173855244332</v>
+        <v>0.4251193848879575</v>
       </c>
       <c r="CU3">
-        <v>0.4251475403388214</v>
+        <v>0.4251398425751563</v>
       </c>
       <c r="CV3">
-        <v>0.4383519330709434</v>
+        <v>0.4383569735212225</v>
       </c>
       <c r="CW3">
-        <v>0.4474310818867543</v>
+        <v>0.4474418353814689</v>
       </c>
       <c r="CX3">
-        <v>0.4876437640709582</v>
+        <v>0.4877132501051392</v>
       </c>
       <c r="CY3">
-        <v>0.5355404160992771</v>
+        <v>0.5356817202484082</v>
       </c>
       <c r="CZ3">
-        <v>0.5357339749153504</v>
+        <v>0.5358658602095188</v>
       </c>
       <c r="DA3">
-        <v>0.5403529768216445</v>
+        <v>0.5404829796607555</v>
       </c>
       <c r="DB3">
-        <v>0.5472877894809577</v>
+        <v>0.5474198536228644</v>
       </c>
       <c r="DC3">
-        <v>0.5657704331059996</v>
+        <v>0.5659242241684544</v>
       </c>
       <c r="DD3">
-        <v>0.5975448674613905</v>
+        <v>0.5977430209745224</v>
       </c>
       <c r="DE3">
-        <v>0.6022986940649494</v>
+        <v>0.6024951947255327</v>
       </c>
       <c r="DF3">
-        <v>0.602353772203832</v>
+        <v>0.6025406181809172</v>
       </c>
       <c r="DG3">
-        <v>0.6084837283794734</v>
+        <v>0.6086712650123469</v>
       </c>
       <c r="DH3">
-        <v>0.6085050705690405</v>
+        <v>0.6086828950670827</v>
       </c>
       <c r="DI3">
-        <v>0.6139740844580904</v>
+        <v>0.6141514740465743</v>
       </c>
       <c r="DJ3">
-        <v>0.6200736725343479</v>
+        <v>0.6202517010626368</v>
       </c>
       <c r="DK3">
-        <v>0.620293063779897</v>
+        <v>0.6204617174450938</v>
       </c>
       <c r="DL3">
-        <v>0.625766510268857</v>
+        <v>0.6259347365730833</v>
       </c>
       <c r="DM3">
-        <v>0.6320780551408145</v>
+        <v>0.6322472813410579</v>
       </c>
       <c r="DN3">
-        <v>0.6551899646719423</v>
+        <v>0.6553888012969221</v>
       </c>
       <c r="DO3">
-        <v>0.6595137790842249</v>
+        <v>0.6597102305584949</v>
       </c>
       <c r="DP3">
-        <v>0.6772800307238004</v>
+        <v>0.6774969891240593</v>
       </c>
       <c r="DQ3">
-        <v>0.6930256104043693</v>
+        <v>0.6932596345854821</v>
       </c>
       <c r="DR3">
-        <v>0.6946623923711638</v>
+        <v>0.6948894554640493</v>
       </c>
       <c r="DS3">
-        <v>0.6965337217332001</v>
+        <v>0.6967542231651995</v>
       </c>
       <c r="DT3">
-        <v>0.6974329819149567</v>
+        <v>0.6976452662807403</v>
       </c>
       <c r="DU3">
-        <v>0.6976657858402339</v>
+        <v>0.6978687181843257</v>
       </c>
       <c r="DV3">
-        <v>0.6992701838076854</v>
+        <v>0.699466099914548</v>
       </c>
       <c r="DW3">
-        <v>0.6992722278536438</v>
+        <v>0.699466099914548</v>
       </c>
       <c r="DX3">
-        <v>0.70368065016421</v>
+        <v>0.7038722811591759</v>
       </c>
       <c r="DY3">
-        <v>0.7081444996736517</v>
+        <v>0.7083339839935748</v>
       </c>
       <c r="DZ3">
-        <v>0.7128050710791025</v>
+        <v>0.7129927437356073</v>
       </c>
       <c r="EA3">
-        <v>0.7145353572440002</v>
+        <v>0.714716228047187</v>
       </c>
       <c r="EB3">
-        <v>0.7231299460696414</v>
+        <v>0.7233157047257993</v>
       </c>
       <c r="EC3">
-        <v>0.7231610465290105</v>
+        <v>0.7233371096683847</v>
       </c>
       <c r="ED3">
-        <v>0.741711634152674</v>
+        <v>0.7419095399192351</v>
       </c>
       <c r="EE3">
-        <v>0.7425334776360013</v>
+        <v>0.7427230344979776</v>
       </c>
       <c r="EF3">
-        <v>0.7443751183986399</v>
+        <v>0.7445580630409153</v>
       </c>
       <c r="EG3">
-        <v>0.7461388421628592</v>
+        <v>0.7463150418950686</v>
       </c>
       <c r="EH3">
-        <v>0.7481606803218421</v>
+        <v>0.7483305747052363</v>
       </c>
       <c r="EI3">
-        <v>0.7497952184886822</v>
+        <v>0.7499581479627235</v>
       </c>
       <c r="EJ3">
-        <v>0.750601360232328</v>
+        <v>0.750755914062182</v>
       </c>
       <c r="EK3">
-        <v>0.7521312660012908</v>
+        <v>0.7522786767358843</v>
       </c>
       <c r="EL3">
-        <v>0.7584163931737842</v>
+        <v>0.7585647588158269</v>
       </c>
       <c r="EM3">
-        <v>0.7738772888601284</v>
+        <v>0.7740422354745249</v>
       </c>
       <c r="EN3">
-        <v>0.7798647410386608</v>
+        <v>0.7800301356287143</v>
       </c>
       <c r="EO3">
-        <v>0.7800063847757872</v>
+        <v>0.7801622721010198</v>
       </c>
       <c r="EP3">
-        <v>0.7843195536882858</v>
+        <v>0.7844730377338344</v>
       </c>
       <c r="EQ3">
-        <v>0.7881565806104439</v>
+        <v>0.7883068505204511</v>
       </c>
       <c r="ER3">
-        <v>0.7901523100699565</v>
+        <v>0.7902962301687984</v>
       </c>
       <c r="ES3">
-        <v>0.7946399879789148</v>
+        <v>0.7947818019817801</v>
       </c>
       <c r="ET3">
-        <v>0.8016721615362528</v>
+        <v>0.8018162026446701</v>
       </c>
       <c r="EU3">
-        <v>0.8212691461386881</v>
+        <v>0.8214368118576848</v>
       </c>
       <c r="EV3">
-        <v>0.8220526092227939</v>
+        <v>0.8222118606765106</v>
       </c>
       <c r="EW3">
-        <v>0.8237141740890856</v>
+        <v>0.8238665066591268</v>
       </c>
       <c r="EX3">
-        <v>0.824057579142119</v>
+        <v>0.824200748040948</v>
       </c>
       <c r="EY3">
-        <v>0.8400232138182235</v>
+        <v>0.8401838232451158</v>
       </c>
       <c r="EZ3">
-        <v>0.8488534166390849</v>
+        <v>0.8490193151626779</v>
       </c>
       <c r="FA3">
-        <v>0.8617000703784643</v>
+        <v>0.8618780978969798</v>
       </c>
       <c r="FB3">
-        <v>0.8877685938496113</v>
+        <v>0.8879812668197662</v>
       </c>
       <c r="FC3">
-        <v>0.8890831513229428</v>
+        <v>0.8892883144660001</v>
       </c>
       <c r="FD3">
-        <v>0.8957186508883281</v>
+        <v>0.8959253656127528</v>
       </c>
       <c r="FE3">
-        <v>0.8997997258055352</v>
+        <v>0.9000036420010029</v>
       </c>
       <c r="FF3">
-        <v>0.9167359974619484</v>
+        <v>0.9169590071518146</v>
       </c>
       <c r="FG3">
-        <v>0.9237236713201893</v>
+        <v>0.9239488323339238</v>
       </c>
       <c r="FH3">
-        <v>0.9239164590462782</v>
+        <v>0.9241321998919063</v>
       </c>
       <c r="FI3">
-        <v>0.9275417042727326</v>
+        <v>0.9277538703247975</v>
       </c>
       <c r="FJ3">
-        <v>0.9275984416765816</v>
+        <v>0.927800955870828</v>
       </c>
       <c r="FK3">
-        <v>0.928344957461437</v>
+        <v>0.9285389944702355</v>
       </c>
       <c r="FL3">
-        <v>0.9283490625573537</v>
+        <v>0.9285389944702355</v>
       </c>
       <c r="FM3">
-        <v>0.9305106389135017</v>
+        <v>0.9306945034476234</v>
       </c>
       <c r="FN3">
-        <v>0.9321218887808143</v>
+        <v>0.9322987487462914</v>
       </c>
       <c r="FO3">
-        <v>0.9363986986940505</v>
+        <v>0.9365730934615332</v>
       </c>
       <c r="FP3">
-        <v>0.9419132671821762</v>
+        <v>0.942087304618248</v>
       </c>
       <c r="FQ3">
-        <v>0.9435245170494887</v>
+        <v>0.943691549916916</v>
       </c>
       <c r="FR3">
-        <v>0.9442439972348926</v>
+        <v>0.9444025068760382</v>
       </c>
       <c r="FS3">
-        <v>0.9465110891889</v>
+        <v>0.9466637111412568</v>
       </c>
       <c r="FT3">
-        <v>0.9466056425469819</v>
+        <v>0.9467486770409821</v>
       </c>
       <c r="FU3">
-        <v>0.9469515401699646</v>
+        <v>0.9470854152375264</v>
       </c>
       <c r="FV3">
-        <v>0.9484618054393258</v>
+        <v>0.9485885039644318</v>
       </c>
       <c r="FW3">
-        <v>0.9488286472818837</v>
+        <v>0.9489462220479434</v>
       </c>
       <c r="FX3">
-        <v>0.9489968524584713</v>
+        <v>0.9491049651930632</v>
       </c>
       <c r="FY3">
-        <v>0.949554168747165</v>
+        <v>0.949653482095111</v>
       </c>
       <c r="FZ3">
-        <v>0.9495819355616018</v>
+        <v>0.9496715477156644</v>
       </c>
       <c r="GA3">
-        <v>0.957204870706955</v>
+        <v>0.9572977160162432</v>
       </c>
       <c r="GB3">
-        <v>0.965863457531298</v>
+        <v>0.9659612996802737</v>
       </c>
       <c r="GC3">
-        <v>0.9679506756889545</v>
+        <v>0.968042323829337</v>
       </c>
       <c r="GD3">
-        <v>0.9681507880948949</v>
+        <v>0.9682330285408861</v>
       </c>
       <c r="GE3">
-        <v>0.9693025992715281</v>
+        <v>0.9693770527382473</v>
       </c>
       <c r="GF3">
-        <v>0.9694934046976572</v>
+        <v>0.9695584346204713</v>
       </c>
       <c r="GG3">
-        <v>0.9699597143481972</v>
+        <v>0.9700157899027273</v>
       </c>
       <c r="GH3">
-        <v>0.9705435329863532</v>
+        <v>0.970590854286962</v>
       </c>
       <c r="GI3">
-        <v>0.9710317545364486</v>
+        <v>0.9710701587840964</v>
       </c>
       <c r="GJ3">
-        <v>0.9714372884682215</v>
+        <v>0.9714666348483172</v>
       </c>
       <c r="GK3">
-        <v>0.9714372884694528</v>
+        <v>0.9714666348483172</v>
       </c>
       <c r="GL3">
-        <v>0.9759178333785558</v>
+        <v>0.9759450615141538</v>
       </c>
       <c r="GM3">
-        <v>0.9790205815156102</v>
+        <v>0.9790433450604122</v>
       </c>
       <c r="GN3">
-        <v>0.9792278834814047</v>
+        <v>0.9792412515754253</v>
       </c>
       <c r="GO3">
-        <v>0.9792565580208229</v>
+        <v>0.9792602264667892</v>
       </c>
       <c r="GP3">
-        <v>0.9829438644460183</v>
+        <v>0.9829440637868242</v>
       </c>
       <c r="GQ3">
-        <v>0.9920604802610692</v>
+        <v>0.9920664564515124</v>
       </c>
       <c r="GR3">
-        <v>0.9981128451382847</v>
+        <v>0.9981193798488086</v>
       </c>
       <c r="GS3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GT3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GU3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GV3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GW3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GX3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GY3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GZ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HA3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HB3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HC3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HD3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HE3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HF3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HG3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HH3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HI3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HJ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HK3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HL3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HM3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HN3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HO3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HP3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HQ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HR3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HS3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HT3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HU3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HV3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HW3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HX3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HY3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HZ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IA3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IB3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IC3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="ID3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IE3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IF3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IG3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IH3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="II3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IJ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IK3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IL3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IM3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IN3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IO3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IP3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IQ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IR3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IS3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IT3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IU3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IV3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IW3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>1.24965817911525E-06</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>2.821532752845499E-06</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.605167003173854E-05</v>
+        <v>3.933016463608139E-07</v>
       </c>
       <c r="E4">
-        <v>3.43348357261835E-05</v>
+        <v>5.851390941080632E-06</v>
       </c>
       <c r="F4">
-        <v>4.547992953992256E-05</v>
+        <v>5.851390941080632E-06</v>
       </c>
       <c r="G4">
-        <v>5.812369832861522E-05</v>
+        <v>5.851390941080632E-06</v>
       </c>
       <c r="H4">
-        <v>7.0961447114066E-05</v>
+        <v>5.851390941080632E-06</v>
       </c>
       <c r="I4">
-        <v>0.0001079626364956884</v>
+        <v>3.007106385973754E-05</v>
       </c>
       <c r="J4">
-        <v>0.0001800025952917299</v>
+        <v>8.941104720405147E-05</v>
       </c>
       <c r="K4">
-        <v>0.0002294783644648725</v>
+        <v>0.0001261343303244847</v>
       </c>
       <c r="L4">
-        <v>0.0002770613006696489</v>
+        <v>0.0001609603755411921</v>
       </c>
       <c r="M4">
-        <v>0.0003286618278072818</v>
+        <v>0.0001998133612892974</v>
       </c>
       <c r="N4">
-        <v>0.0003594975772919433</v>
+        <v>0.0002178532463126954</v>
       </c>
       <c r="O4">
-        <v>0.0003721413460806359</v>
+        <v>0.0002178532463126954</v>
       </c>
       <c r="P4">
-        <v>0.0003731174823643224</v>
+        <v>0.0002178532463126954</v>
       </c>
       <c r="Q4">
-        <v>0.0003735203926875888</v>
+        <v>0.0002178532463126954</v>
       </c>
       <c r="R4">
-        <v>0.0003735362890793231</v>
+        <v>0.0002178532463126954</v>
       </c>
       <c r="S4">
-        <v>0.0003846415038937287</v>
+        <v>0.0002178532463126954</v>
       </c>
       <c r="T4">
-        <v>0.0004015078696118517</v>
+        <v>0.000221891238503234</v>
       </c>
       <c r="U4">
-        <v>0.0004099044604715248</v>
+        <v>0.000221891238503234</v>
       </c>
       <c r="V4">
-        <v>0.0004384544809943863</v>
+        <v>0.0002376400752955175</v>
       </c>
       <c r="W4">
-        <v>0.0004655710685412038</v>
+        <v>0.0002519521432761566</v>
       </c>
       <c r="X4">
-        <v>0.0004859513952006003</v>
+        <v>0.0002595122739762278</v>
       </c>
       <c r="Y4">
-        <v>0.0005336393544036214</v>
+        <v>0.000294443586597066</v>
       </c>
       <c r="Z4">
-        <v>0.0006039736492281686</v>
+        <v>0.0003520739366077364</v>
       </c>
       <c r="AA4">
-        <v>0.0006535565163995214</v>
+        <v>0.0003889045669611337</v>
       </c>
       <c r="AB4">
-        <v>0.0006764640680166819</v>
+        <v>0.0003989978038894052</v>
       </c>
       <c r="AC4">
-        <v>0.0007047244475443839</v>
+        <v>0.0004144563256440319</v>
       </c>
       <c r="AD4">
-        <v>0.0007570222036703644</v>
+        <v>0.0004540081629476504</v>
       </c>
       <c r="AE4">
-        <v>0.0008043356128796452</v>
+        <v>0.0004885640539349687</v>
       </c>
       <c r="AF4">
-        <v>0.0008282954024792204</v>
+        <v>0.000499711977577462</v>
       </c>
       <c r="AG4">
-        <v>0.0008417797692538647</v>
+        <v>0.0005003601003536559</v>
       </c>
       <c r="AH4">
-        <v>0.0008435626938240678</v>
+        <v>0.0005003601003536559</v>
       </c>
       <c r="AI4">
-        <v>0.0008435767295798332</v>
+        <v>0.0005003601003536559</v>
       </c>
       <c r="AJ4">
-        <v>0.0008438827978147182</v>
+        <v>0.0005003601003536559</v>
       </c>
       <c r="AK4">
-        <v>0.0008703579953722549</v>
+        <v>0.0005140292857244342</v>
       </c>
       <c r="AL4">
-        <v>0.0009309042573603833</v>
+        <v>0.000561848824527503</v>
       </c>
       <c r="AM4">
-        <v>0.000989354636383539</v>
+        <v>0.0006075676028993165</v>
       </c>
       <c r="AN4">
-        <v>0.001053331105314341</v>
+        <v>0.0006588253313039113</v>
       </c>
       <c r="AO4">
-        <v>0.001140633463855311</v>
+        <v>0.0007334632325214995</v>
       </c>
       <c r="AP4">
-        <v>0.001257802831897133</v>
+        <v>0.000838037648710538</v>
       </c>
       <c r="AQ4">
-        <v>0.001368019414055153</v>
+        <v>0.0009356430987331511</v>
       </c>
       <c r="AR4">
-        <v>0.001474278412279313</v>
+        <v>0.001029281754869574</v>
       </c>
       <c r="AS4">
-        <v>0.001562599280803262</v>
+        <v>0.001104940536311315</v>
       </c>
       <c r="AT4">
-        <v>0.001668298825036772</v>
+        <v>0.001198018436515128</v>
       </c>
       <c r="AU4">
-        <v>0.001744076143770354</v>
+        <v>0.001261104477251651</v>
       </c>
       <c r="AV4">
-        <v>0.001783427533112699</v>
+        <v>0.001287679819435022</v>
       </c>
       <c r="AW4">
-        <v>0.001831386086311198</v>
+        <v>0.001322882355768317</v>
       </c>
       <c r="AX4">
-        <v>0.001886156911395847</v>
+        <v>0.001364913017271075</v>
       </c>
       <c r="AY4">
-        <v>0.00192315810077747</v>
+        <v>0.001389132690189732</v>
       </c>
       <c r="AZ4">
-        <v>0.00192702408271286</v>
+        <v>0.001389132690189732</v>
       </c>
       <c r="BA4">
-        <v>0.001927323572207855</v>
+        <v>0.001389132690189732</v>
       </c>
       <c r="BB4">
-        <v>0.001927324937862532</v>
+        <v>0.001389132690189732</v>
       </c>
       <c r="BC4">
-        <v>0.001933799128454333</v>
+        <v>0.001389132690189732</v>
       </c>
       <c r="BD4">
-        <v>0.001954922117101317</v>
+        <v>0.00139743721117466</v>
       </c>
       <c r="BE4">
-        <v>0.001997146870395642</v>
+        <v>0.001426892604103132</v>
       </c>
       <c r="BF4">
-        <v>0.002052231869475041</v>
+        <v>0.001469238170735483</v>
       </c>
       <c r="BG4">
-        <v>0.002115246994421909</v>
+        <v>0.001519532317949704</v>
       </c>
       <c r="BH4">
-        <v>0.00220995101283918</v>
+        <v>0.001601589103930233</v>
       </c>
       <c r="BI4">
-        <v>0.002367643070203772</v>
+        <v>0.001746780512441852</v>
       </c>
       <c r="BJ4">
-        <v>0.002469347118504056</v>
+        <v>0.001835853618532616</v>
       </c>
       <c r="BK4">
-        <v>0.00250896486784195</v>
+        <v>0.001862695940575296</v>
       </c>
       <c r="BL4">
-        <v>0.00259948520632914</v>
+        <v>0.001940559310510638</v>
       </c>
       <c r="BM4">
-        <v>0.002679230224996412</v>
+        <v>0.002007622284674786</v>
       </c>
       <c r="BN4">
-        <v>0.002690517281807778</v>
+        <v>0.002007622284674786</v>
       </c>
       <c r="BO4">
-        <v>0.002690992137029842</v>
+        <v>0.002007622284674786</v>
       </c>
       <c r="BP4">
-        <v>0.002691110103007871</v>
+        <v>0.002007622284674786</v>
       </c>
       <c r="BQ4">
-        <v>0.002691119885855707</v>
+        <v>0.002007622284674786</v>
       </c>
       <c r="BR4">
-        <v>0.002709870752542336</v>
+        <v>0.002013549163379248</v>
       </c>
       <c r="BS4">
-        <v>0.002772120301501998</v>
+        <v>0.002063075952984328</v>
       </c>
       <c r="BT4">
-        <v>0.002842327030328677</v>
+        <v>0.002120578440129956</v>
       </c>
       <c r="BU4">
-        <v>0.002897500787406593</v>
+        <v>0.002163012971315366</v>
       </c>
       <c r="BV4">
-        <v>0.002976384296088263</v>
+        <v>0.002229212430617698</v>
       </c>
       <c r="BW4">
-        <v>0.003091212444169213</v>
+        <v>0.002331440178439817</v>
       </c>
       <c r="BX4">
-        <v>0.00324532178159368</v>
+        <v>0.002473040529429491</v>
       </c>
       <c r="BY4">
-        <v>0.003531308576814163</v>
+        <v>0.002746825238869737</v>
       </c>
       <c r="BZ4">
-        <v>0.003711026153810656</v>
+        <v>0.002914093424040083</v>
       </c>
       <c r="CA4">
-        <v>0.003874725251074856</v>
+        <v>0.003065305851826618</v>
       </c>
       <c r="CB4">
-        <v>0.004139522376649468</v>
+        <v>0.003317851579755321</v>
       </c>
       <c r="CC4">
-        <v>0.004296342104028639</v>
+        <v>0.003462168628225374</v>
       </c>
       <c r="CD4">
-        <v>0.004412337912090074</v>
+        <v>0.003565566753365865</v>
       </c>
       <c r="CE4">
-        <v>0.00451692296034221</v>
+        <v>0.003657527563971837</v>
       </c>
       <c r="CF4">
-        <v>0.004570096821453548</v>
+        <v>0.003697957545102007</v>
       </c>
       <c r="CG4">
-        <v>0.004573155224702435</v>
+        <v>0.003697957545102007</v>
       </c>
       <c r="CH4">
-        <v>0.004573668267393861</v>
+        <v>0.003697957545102007</v>
       </c>
       <c r="CI4">
-        <v>0.00457468673317684</v>
+        <v>0.003697957545102007</v>
       </c>
       <c r="CJ4">
-        <v>0.004599586612760704</v>
+        <v>0.003710047746473657</v>
       </c>
       <c r="CK4">
-        <v>0.004642520597043176</v>
+        <v>0.00374021402088808</v>
       </c>
       <c r="CL4">
-        <v>0.004720336220742693</v>
+        <v>0.003805343110063295</v>
       </c>
       <c r="CM4">
-        <v>0.005103480054339451</v>
+        <v>0.004176510958376223</v>
       </c>
       <c r="CN4">
-        <v>0.18305665708032</v>
+        <v>0.1825309468333448</v>
       </c>
       <c r="CO4">
-        <v>0.1836044697411647</v>
+        <v>0.1830671667205002</v>
       </c>
       <c r="CP4">
-        <v>0.3827816464124419</v>
+        <v>0.382694993998025</v>
       </c>
       <c r="CQ4">
-        <v>0.4150598958729959</v>
+        <v>0.4150354926589916</v>
       </c>
       <c r="CR4">
-        <v>0.4199466524913266</v>
+        <v>0.4199207539438087</v>
       </c>
       <c r="CS4">
-        <v>0.4344310862492574</v>
+        <v>0.4344260277502207</v>
       </c>
       <c r="CT4">
-        <v>0.4360464907222601</v>
+        <v>0.4360323239122423</v>
       </c>
       <c r="CU4">
-        <v>0.4365431272639601</v>
+        <v>0.43651724858496</v>
       </c>
       <c r="CV4">
-        <v>0.4478534050749385</v>
+        <v>0.4478409796585802</v>
       </c>
       <c r="CW4">
-        <v>0.4551186956535183</v>
+        <v>0.4551103101455406</v>
       </c>
       <c r="CX4">
-        <v>0.4684466224307771</v>
+        <v>0.4684563855882701</v>
       </c>
       <c r="CY4">
-        <v>0.5257888714724521</v>
+        <v>0.5259192119025381</v>
       </c>
       <c r="CZ4">
-        <v>0.5270350337516257</v>
+        <v>0.5271554065830792</v>
       </c>
       <c r="DA4">
-        <v>0.5287144022235595</v>
+        <v>0.5288258155988359</v>
       </c>
       <c r="DB4">
-        <v>0.5478597569035952</v>
+        <v>0.5480028570611748</v>
       </c>
       <c r="DC4">
-        <v>0.5588743437195154</v>
+        <v>0.559030209017889</v>
       </c>
       <c r="DD4">
-        <v>0.6129046908165402</v>
+        <v>0.6131734260439499</v>
       </c>
       <c r="DE4">
-        <v>0.6155831712717764</v>
+        <v>0.61584527214183</v>
       </c>
       <c r="DF4">
-        <v>0.6161807570117893</v>
+        <v>0.6164313809383404</v>
       </c>
       <c r="DG4">
-        <v>0.6217578769185824</v>
+        <v>0.6220086121011664</v>
       </c>
       <c r="DH4">
-        <v>0.6217667882354335</v>
+        <v>0.6220086121011664</v>
       </c>
       <c r="DI4">
-        <v>0.6236839018033941</v>
+        <v>0.6239173194851072</v>
       </c>
       <c r="DJ4">
-        <v>0.6297290607023651</v>
+        <v>0.6299636788442516</v>
       </c>
       <c r="DK4">
-        <v>0.6311004639794457</v>
+        <v>0.6313254059792145</v>
       </c>
       <c r="DL4">
-        <v>0.6363982128909078</v>
+        <v>0.6366226160042001</v>
       </c>
       <c r="DM4">
-        <v>0.6366915992860046</v>
+        <v>0.6369038175336094</v>
       </c>
       <c r="DN4">
-        <v>0.6587059169180932</v>
+        <v>0.6589564984992677</v>
       </c>
       <c r="DO4">
-        <v>0.6662636047917864</v>
+        <v>0.6665189067382047</v>
       </c>
       <c r="DP4">
-        <v>0.6789899030790998</v>
+        <v>0.6792619536019937</v>
       </c>
       <c r="DQ4">
-        <v>0.6980976767597636</v>
+        <v>0.6984013266077599</v>
       </c>
       <c r="DR4">
-        <v>0.6981125942345143</v>
+        <v>0.6984034111735914</v>
       </c>
       <c r="DS4">
-        <v>0.6993476925138729</v>
+        <v>0.6996285161065601</v>
       </c>
       <c r="DT4">
-        <v>0.6997316665574558</v>
+        <v>0.7000005160968951</v>
       </c>
       <c r="DU4">
-        <v>0.7002503422087875</v>
+        <v>0.7005075311678974</v>
       </c>
       <c r="DV4">
-        <v>0.7009884861964514</v>
+        <v>0.7012345253143469</v>
       </c>
       <c r="DW4">
-        <v>0.7010122389460545</v>
+        <v>0.7012454657161766</v>
       </c>
       <c r="DX4">
-        <v>0.7048073049826299</v>
+        <v>0.705036495874708</v>
       </c>
       <c r="DY4">
-        <v>0.7105779608861885</v>
+        <v>0.7108077134245715</v>
       </c>
       <c r="DZ4">
-        <v>0.716200953592215</v>
+        <v>0.7164309241402212</v>
       </c>
       <c r="EA4">
-        <v>0.7199492938295714</v>
+        <v>0.720175119760871</v>
       </c>
       <c r="EB4">
-        <v>0.728606259684893</v>
+        <v>0.7288393641831014</v>
       </c>
       <c r="EC4">
-        <v>0.7302369901576397</v>
+        <v>0.7304610220110028</v>
       </c>
       <c r="ED4">
-        <v>0.7489094598455784</v>
+        <v>0.7491640779996611</v>
       </c>
       <c r="EE4">
-        <v>0.752686870182449</v>
+        <v>0.7529374113707543</v>
       </c>
       <c r="EF4">
-        <v>0.7529984779372413</v>
+        <v>0.7532368766639765</v>
       </c>
       <c r="EG4">
-        <v>0.7542259484167273</v>
+        <v>0.7544543360459208</v>
       </c>
       <c r="EH4">
-        <v>0.7576863171588963</v>
+        <v>0.7579098900140884</v>
       </c>
       <c r="EI4">
-        <v>0.7601397225178941</v>
+        <v>0.7603561372287576</v>
       </c>
       <c r="EJ4">
-        <v>0.7602963925852757</v>
+        <v>0.7605003042689465</v>
       </c>
       <c r="EK4">
-        <v>0.7611634198407856</v>
+        <v>0.7613564816159214</v>
       </c>
       <c r="EL4">
-        <v>0.7674626029355114</v>
+        <v>0.7676574563271352</v>
       </c>
       <c r="EM4">
-        <v>0.783757920663178</v>
+        <v>0.7839778283297697</v>
       </c>
       <c r="EN4">
-        <v>0.7914484731346506</v>
+        <v>0.7916734103643787</v>
       </c>
       <c r="EO4">
-        <v>0.7914590805914733</v>
+        <v>0.7916734103643787</v>
       </c>
       <c r="EP4">
-        <v>0.7972049924954455</v>
+        <v>0.7974198263312765</v>
       </c>
       <c r="EQ4">
-        <v>0.8033233853931927</v>
+        <v>0.8035395901168237</v>
       </c>
       <c r="ER4">
-        <v>0.8035002005902377</v>
+        <v>0.8037039491677245</v>
       </c>
       <c r="ES4">
-        <v>0.8088742485004247</v>
+        <v>0.8090776357518236</v>
       </c>
       <c r="ET4">
-        <v>0.8123323150426321</v>
+        <v>0.8125308821624295</v>
       </c>
       <c r="EU4">
-        <v>0.8306668077362193</v>
+        <v>0.8308951746283748</v>
       </c>
       <c r="EV4">
-        <v>0.8350254028633768</v>
+        <v>0.83525104530288</v>
       </c>
       <c r="EW4">
-        <v>0.8360874940456268</v>
+        <v>0.8363027405226127</v>
       </c>
       <c r="EX4">
-        <v>0.8361870176639635</v>
+        <v>0.8363896281245188</v>
       </c>
       <c r="EY4">
-        <v>0.8498273144360018</v>
+        <v>0.8500488004986664</v>
       </c>
       <c r="EZ4">
-        <v>0.859927905267197</v>
+        <v>0.8601600294508399</v>
       </c>
       <c r="FA4">
-        <v>0.8639203887004732</v>
+        <v>0.8641489364290035</v>
       </c>
       <c r="FB4">
-        <v>0.8967329541520974</v>
+        <v>0.8970249945227183</v>
       </c>
       <c r="FC4">
-        <v>0.8968022531209393</v>
+        <v>0.8970815871373715</v>
       </c>
       <c r="FD4">
-        <v>0.9043754439943733</v>
+        <v>0.9046595344540936</v>
       </c>
       <c r="FE4">
-        <v>0.9049131280853874</v>
+        <v>0.9051856022005611</v>
       </c>
       <c r="FF4">
-        <v>0.9251737767467839</v>
+        <v>0.925480533117806</v>
       </c>
       <c r="FG4">
-        <v>0.9359247445671097</v>
+        <v>0.9362436525939251</v>
       </c>
       <c r="FH4">
-        <v>0.9363795724395084</v>
+        <v>0.9366866713016536</v>
       </c>
       <c r="FI4">
-        <v>0.9383718393062129</v>
+        <v>0.9386707068784936</v>
       </c>
       <c r="FJ4">
-        <v>0.9384187796404284</v>
+        <v>0.93870488882628</v>
       </c>
       <c r="FK4">
-        <v>0.939617856320389</v>
+        <v>0.9398938883316316</v>
       </c>
       <c r="FL4">
-        <v>0.9401355669517368</v>
+        <v>0.940399936136889</v>
       </c>
       <c r="FM4">
-        <v>0.9408204896402902</v>
+        <v>0.941073585129463</v>
       </c>
       <c r="FN4">
-        <v>0.9415657081678358</v>
+        <v>0.9418076702794186</v>
       </c>
       <c r="FO4">
-        <v>0.9448145201135405</v>
+        <v>0.9450511751234686</v>
       </c>
       <c r="FP4">
-        <v>0.9507577727142147</v>
+        <v>0.9509953910315064</v>
       </c>
       <c r="FQ4">
-        <v>0.9538188760630564</v>
+        <v>0.9540507504497447</v>
       </c>
       <c r="FR4">
-        <v>0.953958500550723</v>
+        <v>0.9541778322423355</v>
       </c>
       <c r="FS4">
-        <v>0.9556339072227229</v>
+        <v>0.9558442702383947</v>
       </c>
       <c r="FT4">
-        <v>0.9556414182718974</v>
+        <v>0.9558442702383947</v>
       </c>
       <c r="FU4">
-        <v>0.9556417801963314</v>
+        <v>0.9558442702383947</v>
       </c>
       <c r="FV4">
-        <v>0.9570938306720642</v>
+        <v>0.9572868322513787</v>
       </c>
       <c r="FW4">
-        <v>0.9574523840060719</v>
+        <v>0.9576333523739432</v>
       </c>
       <c r="FX4">
-        <v>0.9576468011128227</v>
+        <v>0.9578153542971046</v>
       </c>
       <c r="FY4">
-        <v>0.9591898618870346</v>
+        <v>0.9593491384045837</v>
       </c>
       <c r="FZ4">
-        <v>0.9593708786340094</v>
+        <v>0.9595177087831157</v>
       </c>
       <c r="GA4">
-        <v>0.9625021973816776</v>
+        <v>0.9626434470030261</v>
       </c>
       <c r="GB4">
-        <v>0.9701736982534687</v>
+        <v>0.9703199331017301</v>
       </c>
       <c r="GC4">
-        <v>0.9722498367187715</v>
+        <v>0.9723880354602493</v>
       </c>
       <c r="GD4">
-        <v>0.9722595776456088</v>
+        <v>0.9723880354602493</v>
       </c>
       <c r="GE4">
-        <v>0.9727637757671824</v>
+        <v>0.9728805393098876</v>
       </c>
       <c r="GF4">
-        <v>0.9728683608154346</v>
+        <v>0.9729725001204935</v>
       </c>
       <c r="GG4">
-        <v>0.9732579137789242</v>
+        <v>0.9733500920138045</v>
       </c>
       <c r="GH4">
-        <v>0.9736219211128408</v>
+        <v>0.9737020788286377</v>
       </c>
       <c r="GI4">
-        <v>0.9743232975711192</v>
+        <v>0.9743922198815801</v>
       </c>
       <c r="GJ4">
-        <v>0.9748851912617287</v>
+        <v>0.9749425535673851</v>
       </c>
       <c r="GK4">
-        <v>0.97517950925681</v>
+        <v>0.9752246888647661</v>
       </c>
       <c r="GL4">
-        <v>0.9784843169015788</v>
+        <v>0.9785243197191327</v>
       </c>
       <c r="GM4">
-        <v>0.9812378495555607</v>
+        <v>0.9812713926746374</v>
       </c>
       <c r="GN4">
-        <v>0.9813584437535453</v>
+        <v>0.9813793998909148</v>
       </c>
       <c r="GO4">
-        <v>0.981415244010596</v>
+        <v>0.9814234647072075</v>
       </c>
       <c r="GP4">
-        <v>0.9835206546754096</v>
+        <v>0.9835209073864869</v>
       </c>
       <c r="GQ4">
-        <v>0.9913561935444591</v>
+        <v>0.9913618132259983</v>
       </c>
       <c r="GR4">
-        <v>0.9971268494480178</v>
+        <v>0.9971330307758618</v>
       </c>
       <c r="GS4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="GT4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="GU4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="GV4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="GW4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="GX4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="GY4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="GZ4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HA4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HB4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HC4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HD4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HE4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HF4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HG4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HH4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HI4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HJ4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HK4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HL4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HM4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HN4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HO4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HP4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HQ4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HR4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HS4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HT4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HU4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HV4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HW4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HX4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HY4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="HZ4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IA4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IB4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IC4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="ID4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IE4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IF4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IG4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IH4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="II4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IJ4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IK4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IL4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IM4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IN4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IO4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IP4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IQ4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IR4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IS4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IT4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IU4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IV4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="IW4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.000233656307786135</v>
+        <v>0.0002295880209986128</v>
       </c>
       <c r="C5">
-        <v>0.0004888062462885028</v>
+        <v>0.0004806867385710281</v>
       </c>
       <c r="D5">
-        <v>0.0005462382182023098</v>
+        <v>0.0005339105022733325</v>
       </c>
       <c r="E5">
-        <v>0.0005692401949688053</v>
+        <v>0.0005526769335486878</v>
       </c>
       <c r="F5">
-        <v>0.0006573243779040367</v>
+        <v>0.0006365772460064362</v>
       </c>
       <c r="G5">
-        <v>0.000739507800642637</v>
+        <v>0.000714572113087353</v>
       </c>
       <c r="H5">
-        <v>0.0007396213159464196</v>
+        <v>0.000714572113087353</v>
       </c>
       <c r="I5">
-        <v>0.0007566507565138921</v>
+        <v>0.0007273612659936234</v>
       </c>
       <c r="J5">
-        <v>0.0007566630363293013</v>
+        <v>0.0007273612659936234</v>
       </c>
       <c r="K5">
-        <v>0.0007609134704709387</v>
+        <v>0.0007273612659936234</v>
       </c>
       <c r="L5">
-        <v>0.0007760208139743611</v>
+        <v>0.0007382267956983958</v>
       </c>
       <c r="M5">
-        <v>0.0008702537871144888</v>
+        <v>0.0008282807804760842</v>
       </c>
       <c r="N5">
-        <v>0.0009410177994725597</v>
+        <v>0.0008948471702099057</v>
       </c>
       <c r="O5">
-        <v>0.0009457520383303189</v>
+        <v>0.0008953313590650539</v>
       </c>
       <c r="P5">
-        <v>0.0009687754950975301</v>
+        <v>0.0009141192873961604</v>
       </c>
       <c r="Q5">
-        <v>0.001119619130124096</v>
+        <v>0.001060828882701373</v>
       </c>
       <c r="R5">
-        <v>0.001172571059888615</v>
+        <v>0.001109569047118685</v>
       </c>
       <c r="S5">
-        <v>0.001176135607807396</v>
+        <v>0.001109569047118685</v>
       </c>
       <c r="T5">
-        <v>0.001188406925216314</v>
+        <v>0.001117596298935477</v>
       </c>
       <c r="U5">
-        <v>0.001233312316712697</v>
+        <v>0.001158283536165173</v>
       </c>
       <c r="V5">
-        <v>0.001241149298973849</v>
+        <v>0.001161872931989674</v>
       </c>
       <c r="W5">
-        <v>0.001245140088606834</v>
+        <v>0.001161872931989674</v>
       </c>
       <c r="X5">
-        <v>0.001246814817162641</v>
+        <v>0.001161872931989674</v>
       </c>
       <c r="Y5">
-        <v>0.001247046019490346</v>
+        <v>0.001161872931989674</v>
       </c>
       <c r="Z5">
-        <v>0.001247139007453444</v>
+        <v>0.001161872931989674</v>
       </c>
       <c r="AA5">
-        <v>0.001324749096039647</v>
+        <v>0.001235290833709009</v>
       </c>
       <c r="AB5">
-        <v>0.001426535019431462</v>
+        <v>0.001332903765750938</v>
       </c>
       <c r="AC5">
-        <v>0.001460961430578654</v>
+        <v>0.001363103702362592</v>
       </c>
       <c r="AD5">
-        <v>0.001494271176688636</v>
+        <v>0.001392186087309423</v>
       </c>
       <c r="AE5">
-        <v>0.001636543861429592</v>
+        <v>0.001530317927028482</v>
       </c>
       <c r="AF5">
-        <v>0.001816504197426415</v>
+        <v>0.001706167341849077</v>
       </c>
       <c r="AG5">
-        <v>0.001885625999729762</v>
+        <v>0.001771090217619903</v>
       </c>
       <c r="AH5">
-        <v>0.001938778251500956</v>
+        <v>0.001820030863098769</v>
       </c>
       <c r="AI5">
-        <v>0.002006840593768999</v>
+        <v>0.001883893437627223</v>
       </c>
       <c r="AJ5">
-        <v>0.002045917788071169</v>
+        <v>0.001918747850097241</v>
       </c>
       <c r="AK5">
-        <v>0.002073247488981878</v>
+        <v>0.001941845441712621</v>
       </c>
       <c r="AL5">
-        <v>0.002073406405837174</v>
+        <v>0.001941845441712621</v>
       </c>
       <c r="AM5">
-        <v>0.002074210277023961</v>
+        <v>0.001941845441712621</v>
       </c>
       <c r="AN5">
-        <v>0.002081335428861393</v>
+        <v>0.001944722441922868</v>
       </c>
       <c r="AO5">
-        <v>0.002083639693338178</v>
+        <v>0.001944722441922868</v>
       </c>
       <c r="AP5">
-        <v>0.00209988648887957</v>
+        <v>0.001956728328386011</v>
       </c>
       <c r="AQ5">
-        <v>0.002106520171600625</v>
+        <v>0.00195911346925535</v>
       </c>
       <c r="AR5">
-        <v>0.002124621782203825</v>
+        <v>0.001972975643496106</v>
       </c>
       <c r="AS5">
-        <v>0.002143828287843844</v>
+        <v>0.001987943590055959</v>
       </c>
       <c r="AT5">
-        <v>0.002178657436004456</v>
+        <v>0.002018546583452626</v>
       </c>
       <c r="AU5">
-        <v>0.002281783519440929</v>
+        <v>0.002117500739620975</v>
       </c>
       <c r="AV5">
-        <v>0.002379778742706427</v>
+        <v>0.002211319961735716</v>
       </c>
       <c r="AW5">
-        <v>0.002405000670546898</v>
+        <v>0.002232308106717397</v>
       </c>
       <c r="AX5">
-        <v>0.002457025810280533</v>
+        <v>0.002280120745236216</v>
       </c>
       <c r="AY5">
-        <v>0.002564748813870189</v>
+        <v>0.002383675471494124</v>
       </c>
       <c r="AZ5">
-        <v>0.002640438196392388</v>
+        <v>0.002455171142116455</v>
       </c>
       <c r="BA5">
-        <v>0.002670357766389399</v>
+        <v>0.002480860659163924</v>
       </c>
       <c r="BB5">
-        <v>0.002699928494374785</v>
+        <v>0.002506201057220593</v>
       </c>
       <c r="BC5">
-        <v>0.002709263409185853</v>
+        <v>0.002511289574947516</v>
       </c>
       <c r="BD5">
-        <v>0.002713002736510458</v>
+        <v>0.002511289574947516</v>
       </c>
       <c r="BE5">
-        <v>0.002718373572689431</v>
+        <v>0.002512410866579627</v>
       </c>
       <c r="BF5">
-        <v>0.00271896441770912</v>
+        <v>0.002512410866579627</v>
       </c>
       <c r="BG5">
-        <v>0.002721779717802934</v>
+        <v>0.002512410866579627</v>
       </c>
       <c r="BH5">
-        <v>0.002779211689716741</v>
+        <v>0.002565634630281931</v>
       </c>
       <c r="BI5">
-        <v>0.002851017958109543</v>
+        <v>0.002633244103597643</v>
       </c>
       <c r="BJ5">
-        <v>0.002935537140925978</v>
+        <v>0.002713576585340635</v>
       </c>
       <c r="BK5">
-        <v>0.003029726654064657</v>
+        <v>0.002803587075609806</v>
       </c>
       <c r="BL5">
-        <v>0.003102894326502826</v>
+        <v>0.002872559033920299</v>
       </c>
       <c r="BM5">
-        <v>0.003192183215478202</v>
+        <v>0.002957665008950011</v>
       </c>
       <c r="BN5">
-        <v>0.003331420540118011</v>
+        <v>0.003092759078504036</v>
       </c>
       <c r="BO5">
-        <v>0.003422531813154114</v>
+        <v>0.003179688884560194</v>
       </c>
       <c r="BP5">
-        <v>0.003514254646210596</v>
+        <v>0.003267230736212963</v>
       </c>
       <c r="BQ5">
-        <v>0.003583376448513944</v>
+        <v>0.003332153611983789</v>
       </c>
       <c r="BR5">
-        <v>0.003609712216391531</v>
+        <v>0.003354256481387161</v>
       </c>
       <c r="BS5">
-        <v>0.003619229758708684</v>
+        <v>0.003359527771625685</v>
       </c>
       <c r="BT5">
-        <v>0.003619272507360109</v>
+        <v>0.003359527771625685</v>
       </c>
       <c r="BU5">
-        <v>0.003619473977256823</v>
+        <v>0.003359527771625685</v>
       </c>
       <c r="BV5">
-        <v>0.00363065055562926</v>
+        <v>0.003366459415187543</v>
       </c>
       <c r="BW5">
-        <v>0.003671781221999858</v>
+        <v>0.003403368930174669</v>
       </c>
       <c r="BX5">
-        <v>0.00375141599465353</v>
+        <v>0.003478813123552595</v>
       </c>
       <c r="BY5">
-        <v>0.003806720692496449</v>
+        <v>0.003529907924136834</v>
       </c>
       <c r="BZ5">
-        <v>0.003913120056041998</v>
+        <v>0.003632137959385687</v>
       </c>
       <c r="CA5">
-        <v>0.004007974959202851</v>
+        <v>0.003722814367994071</v>
       </c>
       <c r="CB5">
-        <v>0.004055930804800885</v>
+        <v>0.003766554481373879</v>
       </c>
       <c r="CC5">
-        <v>0.004145262007777671</v>
+        <v>0.00385170280400215</v>
       </c>
       <c r="CD5">
-        <v>0.004256329881478789</v>
+        <v>0.003958605056185126</v>
       </c>
       <c r="CE5">
-        <v>0.004333697864056924</v>
+        <v>0.004031780659665183</v>
       </c>
       <c r="CF5">
-        <v>0.004346881795496253</v>
+        <v>0.004040721250124309</v>
       </c>
       <c r="CG5">
-        <v>0.004366938453164601</v>
+        <v>0.004056540023729831</v>
       </c>
       <c r="CH5">
-        <v>0.00437532181844396</v>
+        <v>0.00406067623639849</v>
       </c>
       <c r="CI5">
-        <v>0.004379385772879383</v>
+        <v>0.00406067623639849</v>
       </c>
       <c r="CJ5">
-        <v>0.004380600676719868</v>
+        <v>0.00406067623639849</v>
       </c>
       <c r="CK5">
-        <v>0.004381372192045577</v>
+        <v>0.00406067623639849</v>
       </c>
       <c r="CL5">
-        <v>0.004398914866630152</v>
+        <v>0.004073979030827638</v>
       </c>
       <c r="CM5">
-        <v>0.005348332428267617</v>
+        <v>0.005019896617275257</v>
       </c>
       <c r="CN5">
-        <v>0.1722426379896908</v>
+        <v>0.1720424617866347</v>
       </c>
       <c r="CO5">
-        <v>0.172464775767093</v>
+        <v>0.172260522131582</v>
       </c>
       <c r="CP5">
-        <v>0.3699059623464306</v>
+        <v>0.3698542224212705</v>
       </c>
       <c r="CQ5">
-        <v>0.450157480020654</v>
+        <v>0.4501652056733728</v>
       </c>
       <c r="CR5">
-        <v>0.4505679020143305</v>
+        <v>0.4505716997315156</v>
       </c>
       <c r="CS5">
-        <v>0.4582579902705875</v>
+        <v>0.4582636400783885</v>
       </c>
       <c r="CT5">
-        <v>0.4582978712289165</v>
+        <v>0.4582992988930708</v>
       </c>
       <c r="CU5">
-        <v>0.4654345809667332</v>
+        <v>0.465437421341154</v>
       </c>
       <c r="CV5">
-        <v>0.4771813793581721</v>
+        <v>0.4771892928349719</v>
       </c>
       <c r="CW5">
-        <v>0.4948385049465609</v>
+        <v>0.4948561843021007</v>
       </c>
       <c r="CX5">
-        <v>0.5027460572100645</v>
+        <v>0.5027657613217797</v>
       </c>
       <c r="CY5">
-        <v>0.553812654911758</v>
+        <v>0.5538686518906077</v>
       </c>
       <c r="CZ5">
-        <v>0.559157696089871</v>
+        <v>0.5592136832012543</v>
       </c>
       <c r="DA5">
-        <v>0.5671622363566065</v>
+        <v>0.5672203252322553</v>
       </c>
       <c r="DB5">
-        <v>0.587676567040206</v>
+        <v>0.587746690404112</v>
       </c>
       <c r="DC5">
-        <v>0.5898745915134508</v>
+        <v>0.5899422062911043</v>
       </c>
       <c r="DD5">
-        <v>0.6270266297514691</v>
+        <v>0.627119489291212</v>
       </c>
       <c r="DE5">
-        <v>0.6271857781567723</v>
+        <v>0.6272745102507487</v>
       </c>
       <c r="DF5">
-        <v>0.6292236114246791</v>
+        <v>0.629309707741221</v>
       </c>
       <c r="DG5">
-        <v>0.6307000234738775</v>
+        <v>0.6307830382467633</v>
       </c>
       <c r="DH5">
-        <v>0.6310369662851055</v>
+        <v>0.6311159947802779</v>
       </c>
       <c r="DI5">
-        <v>0.6310518260426007</v>
+        <v>0.6311266125273921</v>
       </c>
       <c r="DJ5">
-        <v>0.6354745371899788</v>
+        <v>0.6355485814809164</v>
       </c>
       <c r="DK5">
-        <v>0.6404449426556078</v>
+        <v>0.6405186796198087</v>
       </c>
       <c r="DL5">
-        <v>0.6483980619206298</v>
+        <v>0.6484738598210247</v>
       </c>
       <c r="DM5">
-        <v>0.6484148101041879</v>
+        <v>0.6484863674936047</v>
       </c>
       <c r="DN5">
-        <v>0.6662765106993938</v>
+        <v>0.6663579963992948</v>
       </c>
       <c r="DO5">
-        <v>0.6773638590688578</v>
+        <v>0.6774498942704351</v>
       </c>
       <c r="DP5">
-        <v>0.6818852468195241</v>
+        <v>0.6819706181760794</v>
       </c>
       <c r="DQ5">
-        <v>0.7006564204450364</v>
+        <v>0.7007524422300561</v>
       </c>
       <c r="DR5">
-        <v>0.7012589546251147</v>
+        <v>0.7013512010109149</v>
       </c>
       <c r="DS5">
-        <v>0.7016246646973012</v>
+        <v>0.7017129476464793</v>
       </c>
       <c r="DT5">
-        <v>0.7016452780149881</v>
+        <v>0.7017293235220892</v>
       </c>
       <c r="DU5">
-        <v>0.7017536658985999</v>
+        <v>0.7018335436562814</v>
       </c>
       <c r="DV5">
-        <v>0.7045397737914414</v>
+        <v>0.7046176098987739</v>
       </c>
       <c r="DW5">
-        <v>0.7048513817018252</v>
+        <v>0.7049252114156335</v>
       </c>
       <c r="DX5">
-        <v>0.7061690432457336</v>
+        <v>0.7062396653686139</v>
       </c>
       <c r="DY5">
-        <v>0.7091284991443516</v>
+        <v>0.7091972172545122</v>
       </c>
       <c r="DZ5">
-        <v>0.7161924488797438</v>
+        <v>0.7162625219290174</v>
       </c>
       <c r="EA5">
-        <v>0.7191380026778985</v>
+        <v>0.7192061606762398</v>
       </c>
       <c r="EB5">
-        <v>0.7289513640049095</v>
+        <v>0.7290230599642663</v>
       </c>
       <c r="EC5">
-        <v>0.7305752314590216</v>
+        <v>0.7306439629537291</v>
       </c>
       <c r="ED5">
-        <v>0.7439040399031778</v>
+        <v>0.7439791006099739</v>
       </c>
       <c r="EE5">
-        <v>0.7499358695041766</v>
+        <v>0.7500114656507911</v>
       </c>
       <c r="EF5">
-        <v>0.7508774200655519</v>
+        <v>0.7509495099906096</v>
       </c>
       <c r="EG5">
-        <v>0.7514488553845938</v>
+        <v>0.7515171452180598</v>
       </c>
       <c r="EH5">
-        <v>0.7550157499034535</v>
+        <v>0.7550826180280558</v>
       </c>
       <c r="EI5">
-        <v>0.7576470784911373</v>
+        <v>0.7577117820712359</v>
       </c>
       <c r="EJ5">
-        <v>0.7576586868280242</v>
+        <v>0.7577191458161266</v>
       </c>
       <c r="EK5">
-        <v>0.7581035854028495</v>
+        <v>0.758160143829687</v>
       </c>
       <c r="EL5">
-        <v>0.7609833112988107</v>
+        <v>0.7610379024076224</v>
       </c>
       <c r="EM5">
-        <v>0.772564321684725</v>
+        <v>0.7726238542608966</v>
       </c>
       <c r="EN5">
-        <v>0.7833340655436054</v>
+        <v>0.7833978954447312</v>
       </c>
       <c r="EO5">
-        <v>0.7833804531331512</v>
+        <v>0.7834400660568697</v>
       </c>
       <c r="EP5">
-        <v>0.7887254943112642</v>
+        <v>0.7887850973675162</v>
       </c>
       <c r="EQ5">
-        <v>0.7969402705850054</v>
+        <v>0.797002142332079</v>
       </c>
       <c r="ER5">
-        <v>0.7972402133350004</v>
+        <v>0.7972980694264588</v>
       </c>
       <c r="ES5">
-        <v>0.8006690390492592</v>
+        <v>0.8007253638057704</v>
       </c>
       <c r="ET5">
-        <v>0.8040458901617862</v>
+        <v>0.8041006423157224</v>
       </c>
       <c r="EU5">
-        <v>0.8203658007056149</v>
+        <v>0.8204292569948476</v>
       </c>
       <c r="EV5">
-        <v>0.8275133221437919</v>
+        <v>0.8275781997277383</v>
       </c>
       <c r="EW5">
-        <v>0.8281515872150609</v>
+        <v>0.8282127177699736</v>
       </c>
       <c r="EX5">
-        <v>0.8288562448385423</v>
+        <v>0.8289136810798446</v>
       </c>
       <c r="EY5">
-        <v>0.8383959141564329</v>
+        <v>0.8384566710483808</v>
       </c>
       <c r="EZ5">
-        <v>0.8495478095280478</v>
+        <v>0.8496131671717357</v>
       </c>
       <c r="FA5">
-        <v>0.8518443733045762</v>
+        <v>0.8519073006018277</v>
       </c>
       <c r="FB5">
-        <v>0.8789392862074606</v>
+        <v>0.8790194729491605</v>
       </c>
       <c r="FC5">
-        <v>0.8810585622780813</v>
+        <v>0.8811361779076091</v>
       </c>
       <c r="FD5">
-        <v>0.8833324083538527</v>
+        <v>0.8834075755991798</v>
       </c>
       <c r="FE5">
-        <v>0.8838278131303611</v>
+        <v>0.883899119916147</v>
       </c>
       <c r="FF5">
-        <v>0.9002699486782628</v>
+        <v>0.9003500566455137</v>
       </c>
       <c r="FG5">
-        <v>0.9120653245713204</v>
+        <v>0.912150544211294</v>
       </c>
       <c r="FH5">
-        <v>0.9158749666982692</v>
+        <v>0.9159589573700175</v>
       </c>
       <c r="FI5">
-        <v>0.9165932729222053</v>
+        <v>0.9166735801172781</v>
       </c>
       <c r="FJ5">
-        <v>0.9166360607856311</v>
+        <v>0.9167121481451284</v>
       </c>
       <c r="FK5">
-        <v>0.9166375740570816</v>
+        <v>0.9167121481451284</v>
       </c>
       <c r="FL5">
-        <v>0.9173412642805306</v>
+        <v>0.9174121432868554</v>
       </c>
       <c r="FM5">
-        <v>0.9176367923903785</v>
+        <v>0.9177036522358812</v>
       </c>
       <c r="FN5">
-        <v>0.9197327827602233</v>
+        <v>0.9197970530047999</v>
       </c>
       <c r="FO5">
-        <v>0.9265225892864802</v>
+        <v>0.9265879968015486</v>
       </c>
       <c r="FP5">
-        <v>0.935694167592105</v>
+        <v>0.9357626034950146</v>
       </c>
       <c r="FQ5">
-        <v>0.9411142905727199</v>
+        <v>0.9411827762228167</v>
       </c>
       <c r="FR5">
-        <v>0.9418172512961447</v>
+        <v>0.9418820412852992</v>
       </c>
       <c r="FS5">
-        <v>0.9420327002933241</v>
+        <v>0.9420934075391586</v>
       </c>
       <c r="FT5">
-        <v>0.9421616224776201</v>
+        <v>0.9422181782781883</v>
       </c>
       <c r="FU5">
-        <v>0.9422647031010551</v>
+        <v>0.9423170869382601</v>
       </c>
       <c r="FV5">
-        <v>0.9435407435435766</v>
+        <v>0.9435898867428641</v>
       </c>
       <c r="FW5">
-        <v>0.9439003632855603</v>
+        <v>0.9439455382125276</v>
       </c>
       <c r="FX5">
-        <v>0.9440583599108252</v>
+        <v>0.944099406477517</v>
       </c>
       <c r="FY5">
-        <v>0.9456399771635294</v>
+        <v>0.9456780257190796</v>
       </c>
       <c r="FZ5">
-        <v>0.9456915419782477</v>
+        <v>0.9457253776670868</v>
       </c>
       <c r="GA5">
-        <v>0.9483541327669732</v>
+        <v>0.9483858287333723</v>
       </c>
       <c r="GB5">
-        <v>0.9563382570330284</v>
+        <v>0.9563720385534694</v>
       </c>
       <c r="GC5">
-        <v>0.9615205612057185</v>
+        <v>0.9615542036461561</v>
       </c>
       <c r="GD5">
-        <v>0.9628707637507113</v>
+        <v>0.9629012244376468</v>
       </c>
       <c r="GE5">
-        <v>0.9641674505939208</v>
+        <v>0.9641946870360992</v>
       </c>
       <c r="GF5">
-        <v>0.9644466405632243</v>
+        <v>0.9644698448721619</v>
       </c>
       <c r="GG5">
-        <v>0.9657571836068956</v>
+        <v>0.9657771746728443</v>
       </c>
       <c r="GH5">
-        <v>0.9657970928502254</v>
+        <v>0.9658128617949857</v>
       </c>
       <c r="GI5">
-        <v>0.9660037794671128</v>
+        <v>0.9660154587112579</v>
       </c>
       <c r="GJ5">
-        <v>0.966689766729972</v>
+        <v>0.9666977368363144</v>
       </c>
       <c r="GK5">
-        <v>0.9673119747507058</v>
+        <v>0.9673161850787803</v>
       </c>
       <c r="GL5">
-        <v>0.9685305734913132</v>
+        <v>0.9685314975729866</v>
       </c>
       <c r="GM5">
-        <v>0.9724438326217149</v>
+        <v>0.9724436100066528</v>
       </c>
       <c r="GN5">
-        <v>0.9728766718761384</v>
+        <v>0.9728725391247587</v>
       </c>
       <c r="GO5">
-        <v>0.9728770593961813</v>
+        <v>0.9728725391247587</v>
       </c>
       <c r="GP5">
-        <v>0.976467179515815</v>
+        <v>0.9764612559765635</v>
       </c>
       <c r="GQ5">
-        <v>0.9859382528314198</v>
+        <v>0.9859355954778601</v>
       </c>
       <c r="GR5">
-        <v>0.9936227330874899</v>
+        <v>0.9936219233718163</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,601 +9737,601 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0001463199510415232</v>
+        <v>0.0001456178432978102</v>
       </c>
       <c r="C6">
-        <v>0.0001917589314704168</v>
+        <v>0.0001903407442233074</v>
       </c>
       <c r="D6">
-        <v>0.0002251628519911268</v>
+        <v>0.0002230269184152149</v>
       </c>
       <c r="E6">
-        <v>0.0002526631130663378</v>
+        <v>0.0002498086155196981</v>
       </c>
       <c r="F6">
-        <v>0.0002533853857208416</v>
+        <v>0.0002498086155196981</v>
       </c>
       <c r="G6">
-        <v>0.0002575778924372145</v>
+        <v>0.0002532793302002216</v>
       </c>
       <c r="H6">
-        <v>0.0002578237678957686</v>
+        <v>0.0002532793302002216</v>
       </c>
       <c r="I6">
-        <v>0.0002588316594718256</v>
+        <v>0.0002535649886792743</v>
       </c>
       <c r="J6">
-        <v>0.0002594905027715428</v>
+        <v>0.0002535649886792743</v>
       </c>
       <c r="K6">
-        <v>0.0003011639259162819</v>
+        <v>0.0002945218108004419</v>
       </c>
       <c r="L6">
-        <v>0.0003722774962826187</v>
+        <v>0.0003649228575292546</v>
       </c>
       <c r="M6">
-        <v>0.0004081409629889297</v>
+        <v>0.0004000689185476989</v>
       </c>
       <c r="N6">
-        <v>0.0004268643544018249</v>
+        <v>0.0004180725304155816</v>
       </c>
       <c r="O6">
-        <v>0.0005055821903419911</v>
+        <v>0.0004960788958898033</v>
       </c>
       <c r="P6">
-        <v>0.0006006670675172386</v>
+        <v>0.0005904545693929871</v>
       </c>
       <c r="Q6">
-        <v>0.0006205976870212331</v>
+        <v>0.0006096655765500112</v>
       </c>
       <c r="R6">
-        <v>0.0006345597360748302</v>
+        <v>0.0006229071866247026</v>
       </c>
       <c r="S6">
-        <v>0.0006687973606584528</v>
+        <v>0.00065642718034543</v>
       </c>
       <c r="T6">
-        <v>0.0007043326433399986</v>
+        <v>0.0006912450118864503</v>
       </c>
       <c r="U6">
-        <v>0.0007182946923935958</v>
+        <v>0.0007044866219611417</v>
       </c>
       <c r="V6">
-        <v>0.0007186917891235612</v>
+        <v>0.0007044866219611417</v>
       </c>
       <c r="W6">
-        <v>0.0007189656551442276</v>
+        <v>0.0007044866219611417</v>
       </c>
       <c r="X6">
-        <v>0.0007253573343265534</v>
+        <v>0.0007101568136874513</v>
       </c>
       <c r="Y6">
-        <v>0.0007262264384921373</v>
+        <v>0.0007103036655343249</v>
       </c>
       <c r="Z6">
-        <v>0.0007445691348763047</v>
+        <v>0.0007279265296481797</v>
       </c>
       <c r="AA6">
-        <v>0.0007874532721124061</v>
+        <v>0.0007700942335415541</v>
       </c>
       <c r="AB6">
-        <v>0.0008044116463921105</v>
+        <v>0.0007863325838258301</v>
       </c>
       <c r="AC6">
-        <v>0.000875474285754604</v>
+        <v>0.0008566826924969841</v>
       </c>
       <c r="AD6">
-        <v>0.001003470965413426</v>
+        <v>0.0009839747266852765</v>
       </c>
       <c r="AE6">
-        <v>0.001114659043803845</v>
+        <v>0.001094455831656336</v>
       </c>
       <c r="AF6">
-        <v>0.001209952930994865</v>
+        <v>0.001189040544122652</v>
       </c>
       <c r="AG6">
-        <v>0.001314861218911402</v>
+        <v>0.001293240988884706</v>
       </c>
       <c r="AH6">
-        <v>0.001422601323041632</v>
+        <v>0.001400273642059849</v>
       </c>
       <c r="AI6">
-        <v>0.001539656711874807</v>
+        <v>0.001516622870081345</v>
       </c>
       <c r="AJ6">
-        <v>0.001600897716496145</v>
+        <v>0.001577149983739733</v>
       </c>
       <c r="AK6">
-        <v>0.001630005034692627</v>
+        <v>0.001605538960538841</v>
       </c>
       <c r="AL6">
-        <v>0.001696961489745262</v>
+        <v>0.001671782316203978</v>
       </c>
       <c r="AM6">
-        <v>0.001727569365054978</v>
+        <v>0.001701672057939691</v>
       </c>
       <c r="AN6">
-        <v>0.001739820201979444</v>
+        <v>0.001713202218886693</v>
       </c>
       <c r="AO6">
-        <v>0.001741482461704881</v>
+        <v>0.001714142336143461</v>
       </c>
       <c r="AP6">
-        <v>0.001741500905603273</v>
+        <v>0.001714142336143461</v>
       </c>
       <c r="AQ6">
-        <v>0.001741649904114517</v>
+        <v>0.001714142336143461</v>
       </c>
       <c r="AR6">
-        <v>0.001754212223062488</v>
+        <v>0.001725984022253442</v>
       </c>
       <c r="AS6">
-        <v>0.001768796784163061</v>
+        <v>0.001739848230591455</v>
       </c>
       <c r="AT6">
-        <v>0.001816906423793486</v>
+        <v>0.00178724216059804</v>
       </c>
       <c r="AU6">
-        <v>0.001889416379265197</v>
+        <v>0.001859039785828037</v>
       </c>
       <c r="AV6">
-        <v>0.001933608850600027</v>
+        <v>0.001902516005021109</v>
       </c>
       <c r="AW6">
-        <v>0.002023413087376789</v>
+        <v>0.001991610306770448</v>
       </c>
       <c r="AX6">
-        <v>0.002110633577958578</v>
+        <v>0.002078120504482489</v>
       </c>
       <c r="AY6">
-        <v>0.002150552932970953</v>
+        <v>0.002117323015537285</v>
       </c>
       <c r="AZ6">
-        <v>0.002174870223805972</v>
+        <v>0.002140921301568236</v>
       </c>
       <c r="BA6">
-        <v>0.002201402679808151</v>
+        <v>0.002166735059561128</v>
       </c>
       <c r="BB6">
-        <v>0.002202356181730103</v>
+        <v>0.002166966320853247</v>
       </c>
       <c r="BC6">
-        <v>0.002203309683652056</v>
+        <v>0.002167197582145365</v>
       </c>
       <c r="BD6">
-        <v>0.002203417303520177</v>
+        <v>0.002167197582145365</v>
       </c>
       <c r="BE6">
-        <v>0.00220631153143858</v>
+        <v>0.002169369838219583</v>
       </c>
       <c r="BF6">
-        <v>0.002206419151306701</v>
+        <v>0.002169369838219583</v>
       </c>
       <c r="BG6">
-        <v>0.002211797736912577</v>
+        <v>0.002174026796058541</v>
       </c>
       <c r="BH6">
-        <v>0.002243943889338374</v>
+        <v>0.00220545502795783</v>
       </c>
       <c r="BI6">
-        <v>0.002292968393037837</v>
+        <v>0.002253763948739815</v>
       </c>
       <c r="BJ6">
-        <v>0.002306199354036265</v>
+        <v>0.002266274369505488</v>
       </c>
       <c r="BK6">
-        <v>0.00232139644418306</v>
+        <v>0.00228075119172345</v>
       </c>
       <c r="BL6">
-        <v>0.002347195596129903</v>
+        <v>0.002305831544100247</v>
       </c>
       <c r="BM6">
-        <v>0.002387948692205193</v>
+        <v>0.00234586791168899</v>
       </c>
       <c r="BN6">
-        <v>0.00240922294781058</v>
+        <v>0.002366422741037614</v>
       </c>
       <c r="BO6">
-        <v>0.002449626153859467</v>
+        <v>0.002406109170141068</v>
       </c>
       <c r="BP6">
-        <v>0.002477705520978378</v>
+        <v>0.002433470053493977</v>
       </c>
       <c r="BQ6">
-        <v>0.002486740185660147</v>
+        <v>0.002441783596766548</v>
       </c>
       <c r="BR6">
-        <v>0.002486758629558539</v>
+        <v>0.002441783596766548</v>
       </c>
       <c r="BS6">
-        <v>0.00248814968806351</v>
+        <v>0.002442452475242167</v>
       </c>
       <c r="BT6">
-        <v>0.002488697304644834</v>
+        <v>0.002442452475242167</v>
       </c>
       <c r="BU6">
-        <v>0.002489937839638447</v>
+        <v>0.002442970809359301</v>
       </c>
       <c r="BV6">
-        <v>0.002499073496327837</v>
+        <v>0.002451385358626631</v>
       </c>
       <c r="BW6">
-        <v>0.002515495570567071</v>
+        <v>0.002467087334594236</v>
       </c>
       <c r="BX6">
-        <v>0.002531256665756427</v>
+        <v>0.002482128239968033</v>
       </c>
       <c r="BY6">
-        <v>0.002552940763392742</v>
+        <v>0.00250309296810967</v>
       </c>
       <c r="BZ6">
-        <v>0.002575139432067887</v>
+        <v>0.002524572338556928</v>
       </c>
       <c r="CA6">
-        <v>0.002596823529704201</v>
+        <v>0.002545537066698566</v>
       </c>
       <c r="CB6">
-        <v>0.002625373451858621</v>
+        <v>0.002573368570257667</v>
       </c>
       <c r="CC6">
-        <v>0.002641134547047977</v>
+        <v>0.002588409475631463</v>
       </c>
       <c r="CD6">
-        <v>0.002649778932700295</v>
+        <v>0.002596332685821923</v>
       </c>
       <c r="CE6">
-        <v>0.002665758844906164</v>
+        <v>0.002611592438517836</v>
       </c>
       <c r="CF6">
-        <v>0.002676449773712917</v>
+        <v>0.00262156247530379</v>
       </c>
       <c r="CG6">
-        <v>0.002676526031523672</v>
+        <v>0.00262156247530379</v>
       </c>
       <c r="CH6">
-        <v>0.002682779597995575</v>
+        <v>0.002627094535191416</v>
       </c>
       <c r="CI6">
-        <v>0.002686750186595202</v>
+        <v>0.002630343301020095</v>
       </c>
       <c r="CJ6">
-        <v>0.002691692157968131</v>
+        <v>0.002634563584156136</v>
       </c>
       <c r="CK6">
-        <v>0.002696157770305112</v>
+        <v>0.002638307442281707</v>
       </c>
       <c r="CL6">
-        <v>0.0027174320259105</v>
+        <v>0.002658862271630331</v>
       </c>
       <c r="CM6">
-        <v>0.002754085971676461</v>
+        <v>0.00269479892118778</v>
       </c>
       <c r="CN6">
-        <v>0.002948690786361633</v>
+        <v>0.002888708315460923</v>
       </c>
       <c r="CO6">
-        <v>0.05659521083460857</v>
+        <v>0.05654193589857798</v>
       </c>
       <c r="CP6">
-        <v>0.1136332691387861</v>
+        <v>0.1135871714571097</v>
       </c>
       <c r="CQ6">
-        <v>0.2223903633457597</v>
+        <v>0.2223586058743082</v>
       </c>
       <c r="CR6">
-        <v>0.3981235566068503</v>
+        <v>0.3981154153662135</v>
       </c>
       <c r="CS6">
-        <v>0.4045302205903067</v>
+        <v>0.404522244283766</v>
       </c>
       <c r="CT6">
-        <v>0.4136964062820009</v>
+        <v>0.4136889770963444</v>
       </c>
       <c r="CU6">
-        <v>0.4170133631323034</v>
+        <v>0.4170056709641072</v>
       </c>
       <c r="CV6">
-        <v>0.4185034648447487</v>
+        <v>0.4184952566791895</v>
       </c>
       <c r="CW6">
-        <v>0.4195976582273182</v>
+        <v>0.4195888792320919</v>
       </c>
       <c r="CX6">
-        <v>0.4335954792836148</v>
+        <v>0.4335879165785698</v>
       </c>
       <c r="CY6">
-        <v>0.4339457322700454</v>
+        <v>0.4339374957014672</v>
       </c>
       <c r="CZ6">
-        <v>0.5026575674551437</v>
+        <v>0.5026581249295388</v>
       </c>
       <c r="DA6">
-        <v>0.5197871667477689</v>
+        <v>0.5197893742557227</v>
       </c>
       <c r="DB6">
-        <v>0.5211782557527426</v>
+        <v>0.5211799335503233</v>
       </c>
       <c r="DC6">
-        <v>0.5415699152915278</v>
+        <v>0.5415736949097739</v>
       </c>
       <c r="DD6">
-        <v>0.544960030347351</v>
+        <v>0.5449635571152841</v>
       </c>
       <c r="DE6">
-        <v>0.5797133929698919</v>
+        <v>0.579721010618101</v>
       </c>
       <c r="DF6">
-        <v>0.5898582847354407</v>
+        <v>0.5898665850528538</v>
       </c>
       <c r="DG6">
-        <v>0.5968153407604305</v>
+        <v>0.5968238822398476</v>
       </c>
       <c r="DH6">
-        <v>0.5969468473603542</v>
+        <v>0.5969546846804159</v>
       </c>
       <c r="DI6">
-        <v>0.5993163965391639</v>
+        <v>0.5993238396631159</v>
       </c>
       <c r="DJ6">
-        <v>0.5993471900614876</v>
+        <v>0.5993539150775772</v>
       </c>
       <c r="DK6">
-        <v>0.6008211997727186</v>
+        <v>0.6008274065627436</v>
       </c>
       <c r="DL6">
-        <v>0.6049070183810407</v>
+        <v>0.6049130686739378</v>
       </c>
       <c r="DM6">
-        <v>0.6052228114348709</v>
+        <v>0.6052281830916211</v>
       </c>
       <c r="DN6">
-        <v>0.6096384257680798</v>
+        <v>0.6096436866035773</v>
       </c>
       <c r="DO6">
-        <v>0.6223728937290419</v>
+        <v>0.6223791958835072</v>
       </c>
       <c r="DP6">
-        <v>0.6454967674740042</v>
+        <v>0.6455055498539028</v>
       </c>
       <c r="DQ6">
-        <v>0.645496857828901</v>
+        <v>0.6455055498539028</v>
       </c>
       <c r="DR6">
-        <v>0.6670054354519706</v>
+        <v>0.6670163839879719</v>
       </c>
       <c r="DS6">
-        <v>0.6704824501143513</v>
+        <v>0.6704931578354157</v>
       </c>
       <c r="DT6">
-        <v>0.6723237717533002</v>
+        <v>0.6723340121200745</v>
       </c>
       <c r="DU6">
-        <v>0.6731600128164041</v>
+        <v>0.6731696466277666</v>
       </c>
       <c r="DV6">
-        <v>0.6737548524612916</v>
+        <v>0.6737638462837553</v>
       </c>
       <c r="DW6">
-        <v>0.6747696863378725</v>
+        <v>0.674778098339578</v>
       </c>
       <c r="DX6">
-        <v>0.6760847924371124</v>
+        <v>0.6760926642050042</v>
       </c>
       <c r="DY6">
-        <v>0.676630456078289</v>
+        <v>0.6766376810465298</v>
       </c>
       <c r="DZ6">
-        <v>0.6803312013575528</v>
+        <v>0.6803382164969821</v>
       </c>
       <c r="EA6">
-        <v>0.6869421908564279</v>
+        <v>0.6869493992285213</v>
       </c>
       <c r="EB6">
-        <v>0.6898295734743142</v>
+        <v>0.6898364593689214</v>
       </c>
       <c r="EC6">
-        <v>0.6947999641493873</v>
+        <v>0.6948068160578642</v>
       </c>
       <c r="ED6">
-        <v>0.7045428953846035</v>
+        <v>0.704550374291766</v>
       </c>
       <c r="EE6">
-        <v>0.7087703603036143</v>
+        <v>0.7087777023313054</v>
       </c>
       <c r="EF6">
-        <v>0.7221068273100041</v>
+        <v>0.7221152940320107</v>
       </c>
       <c r="EG6">
-        <v>0.7229751378755281</v>
+        <v>0.7229830024836679</v>
       </c>
       <c r="EH6">
-        <v>0.7232435617357839</v>
+        <v>0.723250741147263</v>
       </c>
       <c r="EI6">
-        <v>0.7274745986550643</v>
+        <v>0.727481641681785</v>
       </c>
       <c r="EJ6">
-        <v>0.7295441403112349</v>
+        <v>0.7295507475915616</v>
       </c>
       <c r="EK6">
-        <v>0.7296559083346691</v>
+        <v>0.7296618087218973</v>
       </c>
       <c r="EL6">
-        <v>0.7314564703705422</v>
+        <v>0.7314618977583782</v>
       </c>
       <c r="EM6">
-        <v>0.7316883364280391</v>
+        <v>0.7316930735560512</v>
       </c>
       <c r="EN6">
-        <v>0.7440322483595292</v>
+        <v>0.7440379727154853</v>
       </c>
       <c r="EO6">
-        <v>0.7606544536138657</v>
+        <v>0.7606617577305875</v>
       </c>
       <c r="EP6">
-        <v>0.7627717443736397</v>
+        <v>0.7627786193570977</v>
       </c>
       <c r="EQ6">
-        <v>0.7661810751309129</v>
+        <v>0.766187699925384</v>
       </c>
       <c r="ER6">
-        <v>0.7755721208395754</v>
+        <v>0.7755793238974752</v>
       </c>
       <c r="ES6">
-        <v>0.7782580176422572</v>
+        <v>0.7782648703173942</v>
       </c>
       <c r="ET6">
-        <v>0.782105168732569</v>
+        <v>0.7821118318557296</v>
       </c>
       <c r="EU6">
-        <v>0.7821059873843907</v>
+        <v>0.7821119282482452</v>
       </c>
       <c r="EV6">
-        <v>0.7931069837145425</v>
+        <v>0.7931137258159212</v>
       </c>
       <c r="EW6">
-        <v>0.8080234253401596</v>
+        <v>0.8080315109583487</v>
       </c>
       <c r="EX6">
-        <v>0.8082015378536003</v>
+        <v>0.8082089257672352</v>
       </c>
       <c r="EY6">
-        <v>0.8085216305077549</v>
+        <v>0.8085283403807267</v>
       </c>
       <c r="EZ6">
-        <v>0.8120148582713591</v>
+        <v>0.8120213295748676</v>
       </c>
       <c r="FA6">
-        <v>0.8277196294564647</v>
+        <v>0.827727553458437</v>
       </c>
       <c r="FB6">
-        <v>0.8285245761572072</v>
+        <v>0.8285318892695774</v>
       </c>
       <c r="FC6">
-        <v>0.8578366213691382</v>
+        <v>0.8578472717530635</v>
       </c>
       <c r="FD6">
-        <v>0.8747325896441334</v>
+        <v>0.8747448577043113</v>
       </c>
       <c r="FE6">
-        <v>0.8771198455242792</v>
+        <v>0.8771317218406809</v>
       </c>
       <c r="FF6">
-        <v>0.8788890801577883</v>
+        <v>0.8789004791360315</v>
       </c>
       <c r="FG6">
-        <v>0.8922826961684907</v>
+        <v>0.8922952277560422</v>
       </c>
       <c r="FH6">
-        <v>0.911316407604803</v>
+        <v>0.9113308529406369</v>
       </c>
       <c r="FI6">
-        <v>0.9169046974265038</v>
+        <v>0.9169191943536789</v>
       </c>
       <c r="FJ6">
-        <v>0.9174901965106864</v>
+        <v>0.9175040521553187</v>
       </c>
       <c r="FK6">
-        <v>0.9179851326780351</v>
+        <v>0.9179983344973892</v>
       </c>
       <c r="FL6">
-        <v>0.9180034753744192</v>
+        <v>0.9180159573615031</v>
       </c>
       <c r="FM6">
-        <v>0.9186884206261062</v>
+        <v>0.9187002751036903</v>
       </c>
       <c r="FN6">
-        <v>0.9187311645893318</v>
+        <v>0.9187423026141593</v>
       </c>
       <c r="FO6">
-        <v>0.919907912278131</v>
+        <v>0.9199184909068544</v>
       </c>
       <c r="FP6">
-        <v>0.92429437530914</v>
+        <v>0.9243048390792291</v>
       </c>
       <c r="FQ6">
-        <v>0.9328251429528845</v>
+        <v>0.9328360658400628</v>
       </c>
       <c r="FR6">
-        <v>0.9398005367792582</v>
+        <v>0.9398117033681797</v>
       </c>
       <c r="FS6">
-        <v>0.9414875754065647</v>
+        <v>0.9414982532733884</v>
       </c>
       <c r="FT6">
-        <v>0.941704630812944</v>
+        <v>0.941714616368706</v>
       </c>
       <c r="FU6">
-        <v>0.9418783721360547</v>
+        <v>0.9418876593818639</v>
       </c>
       <c r="FV6">
-        <v>0.9422354529330006</v>
+        <v>0.942244067260911</v>
       </c>
       <c r="FW6">
-        <v>0.9429103724439311</v>
+        <v>0.942918357873802</v>
       </c>
       <c r="FX6">
-        <v>0.9439694226238485</v>
+        <v>0.9439768323568076</v>
       </c>
       <c r="FY6">
-        <v>0.9439866079451453</v>
+        <v>0.9439932976855406</v>
       </c>
       <c r="FZ6">
-        <v>0.9457685723796151</v>
+        <v>0.9457747865448972</v>
       </c>
       <c r="GA6">
-        <v>0.9469190887664348</v>
+        <v>0.9469247399026437</v>
       </c>
       <c r="GB6">
-        <v>0.9471896677668531</v>
+        <v>0.9471946340048828</v>
       </c>
       <c r="GC6">
-        <v>0.956550876473264</v>
+        <v>0.9565564168423729</v>
       </c>
       <c r="GD6">
-        <v>0.9647794180942021</v>
+        <v>0.9647853757228593</v>
       </c>
       <c r="GE6">
-        <v>0.9652989578834074</v>
+        <v>0.965304265094326</v>
       </c>
       <c r="GF6">
-        <v>0.9659554542029476</v>
+        <v>0.9659601299642612</v>
       </c>
       <c r="GG6">
-        <v>0.9665454675874708</v>
+        <v>0.9665495026914609</v>
       </c>
       <c r="GH6">
-        <v>0.9677210658761832</v>
+        <v>0.9677245414248802</v>
       </c>
       <c r="GI6">
-        <v>0.9679373127925015</v>
+        <v>0.9679400959181629</v>
       </c>
       <c r="GJ6">
-        <v>0.9687650146149611</v>
+        <v>0.9687671900025473</v>
       </c>
       <c r="GK6">
-        <v>0.9688216185972326</v>
+        <v>0.9688230794516399</v>
       </c>
       <c r="GL6">
-        <v>0.9708082979471504</v>
+        <v>0.9708093115789435</v>
       </c>
       <c r="GM6">
-        <v>0.971097818828998</v>
+        <v>0.9710981501860148</v>
       </c>
       <c r="GN6">
-        <v>0.9775556268163139</v>
+        <v>0.9775561301907421</v>
       </c>
       <c r="GO6">
-        <v>0.9797100047788865</v>
+        <v>0.9797100841565347</v>
       </c>
       <c r="GP6">
-        <v>0.9798069140361994</v>
+        <v>0.9798062844628476</v>
       </c>
       <c r="GQ6">
-        <v>0.9803006290134558</v>
+        <v>0.9802993454456942</v>
       </c>
       <c r="GR6">
-        <v>0.9889817136685435</v>
+        <v>0.9889809100363975</v>
       </c>
       <c r="GS6">
         <v>0.9999999999999999</v>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>105</v>
       </c>
       <c r="E2">
-        <v>0.003055490664580075</v>
+        <v>0.002939391887953976</v>
       </c>
       <c r="F2">
-        <v>0.5102796732272538</v>
+        <v>0.510285053972771</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>57</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>102</v>
       </c>
       <c r="E3">
-        <v>0.002846270997462597</v>
+        <v>0.002210782247000994</v>
       </c>
       <c r="F3">
-        <v>0.5355404160992771</v>
+        <v>0.5356817202484082</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>57</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>102</v>
       </c>
       <c r="E4">
-        <v>0.004599586612760704</v>
+        <v>0.003805343110063295</v>
       </c>
       <c r="F4">
-        <v>0.5257888714724521</v>
+        <v>0.5259192119025381</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>57</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>101</v>
       </c>
       <c r="E5">
-        <v>0.004380600676719868</v>
+        <v>0.004073979030827638</v>
       </c>
       <c r="F5">
-        <v>0.5027460572100645</v>
+        <v>0.5027657613217797</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>57</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>103</v>
       </c>
       <c r="E6">
-        <v>0.0027174320259105</v>
+        <v>0.002888708315460923</v>
       </c>
       <c r="F6">
-        <v>0.5026575674551437</v>
+        <v>0.5026581249295388</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>57</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>133</v>
       </c>
       <c r="E2">
-        <v>0.003055490664580075</v>
+        <v>0.002939391887953976</v>
       </c>
       <c r="F2">
-        <v>0.7052834907363761</v>
+        <v>0.7053037341072763</v>
       </c>
       <c r="G2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H2">
         <v>57</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>127</v>
       </c>
       <c r="E3">
-        <v>0.002846270997462597</v>
+        <v>0.002210782247000994</v>
       </c>
       <c r="F3">
-        <v>0.70368065016421</v>
+        <v>0.7038722811591759</v>
       </c>
       <c r="G3">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>57</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E4">
-        <v>0.004599586612760704</v>
+        <v>0.003805343110063295</v>
       </c>
       <c r="F4">
-        <v>0.7002503422087875</v>
+        <v>0.7000005160968951</v>
       </c>
       <c r="G4">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>57</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>120</v>
       </c>
       <c r="E5">
-        <v>0.004380600676719868</v>
+        <v>0.004073979030827638</v>
       </c>
       <c r="F5">
-        <v>0.7006564204450364</v>
+        <v>0.7007524422300561</v>
       </c>
       <c r="G5">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H5">
         <v>57</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>133</v>
       </c>
       <c r="E6">
-        <v>0.0027174320259105</v>
+        <v>0.002888708315460923</v>
       </c>
       <c r="F6">
-        <v>0.7045428953846035</v>
+        <v>0.704550374291766</v>
       </c>
       <c r="G6">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <v>57</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>151</v>
       </c>
       <c r="E2">
-        <v>0.003055490664580075</v>
+        <v>0.002939391887953976</v>
       </c>
       <c r="F2">
-        <v>0.8028227299691528</v>
+        <v>0.8028431472875893</v>
       </c>
       <c r="G2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H2">
         <v>57</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>149</v>
       </c>
       <c r="E3">
-        <v>0.002846270997462597</v>
+        <v>0.002210782247000994</v>
       </c>
       <c r="F3">
-        <v>0.8016721615362528</v>
+        <v>0.8018162026446701</v>
       </c>
       <c r="G3">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H3">
         <v>57</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>146</v>
       </c>
       <c r="E4">
-        <v>0.004599586612760704</v>
+        <v>0.003805343110063295</v>
       </c>
       <c r="F4">
-        <v>0.8033233853931927</v>
+        <v>0.8035395901168237</v>
       </c>
       <c r="G4">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H4">
         <v>57</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>148</v>
       </c>
       <c r="E5">
-        <v>0.004380600676719868</v>
+        <v>0.004073979030827638</v>
       </c>
       <c r="F5">
-        <v>0.8006690390492592</v>
+        <v>0.8007253638057704</v>
       </c>
       <c r="G5">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H5">
         <v>57</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>152</v>
       </c>
       <c r="E6">
-        <v>0.0027174320259105</v>
+        <v>0.002888708315460923</v>
       </c>
       <c r="F6">
-        <v>0.8080234253401596</v>
+        <v>0.8080315109583487</v>
       </c>
       <c r="G6">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H6">
         <v>57</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>162</v>
       </c>
       <c r="E2">
-        <v>0.003055490664580075</v>
+        <v>0.002939391887953976</v>
       </c>
       <c r="F2">
-        <v>0.9068648029807689</v>
+        <v>0.9068989086192102</v>
       </c>
       <c r="G2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H2">
         <v>57</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E3">
-        <v>0.002846270997462597</v>
+        <v>0.002210782247000994</v>
       </c>
       <c r="F3">
-        <v>0.9167359974619484</v>
+        <v>0.9000036420010029</v>
       </c>
       <c r="G3">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H3">
         <v>57</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>159</v>
       </c>
       <c r="E4">
-        <v>0.004599586612760704</v>
+        <v>0.003805343110063295</v>
       </c>
       <c r="F4">
-        <v>0.9043754439943733</v>
+        <v>0.9046595344540936</v>
       </c>
       <c r="G4">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H4">
         <v>57</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>161</v>
       </c>
       <c r="E5">
-        <v>0.004380600676719868</v>
+        <v>0.004073979030827638</v>
       </c>
       <c r="F5">
-        <v>0.9002699486782628</v>
+        <v>0.9003500566455137</v>
       </c>
       <c r="G5">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H5">
         <v>57</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>163</v>
       </c>
       <c r="E6">
-        <v>0.0027174320259105</v>
+        <v>0.002888708315460923</v>
       </c>
       <c r="F6">
-        <v>0.911316407604803</v>
+        <v>0.9113308529406369</v>
       </c>
       <c r="G6">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H6">
         <v>57</v>

--- a/on_trucks/Processed_Stand_Alone/57_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/57_11R22.xlsx
@@ -1997,31 +1997,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.668441013105163E-06</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1.600123775087426E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>2.566461401664443E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.600123775087426E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>2.220998158914335E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.716826328977502E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>7.694119836671976E-06</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>3.35395536957303E-06</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>7.118195685626442E-07</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -2033,46 +2033,46 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>7.303542511082531E-06</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>5.681947896421831E-07</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.72008842558323E-05</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.72008842558323E-05</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>1.518131125447809E-05</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>2.570390702108147E-05</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>4.438250053304415E-05</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>2.75200748799688E-05</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>2.224670780940011E-05</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>2.258192022041046E-05</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>1.26234718069137E-05</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>1.063295668305476E-05</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>3.68160226923799E-06</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>1.892201788073522E-06</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -2081,10 +2081,10 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>1.503679790408945E-06</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>2.761358824931266E-06</v>
+        <v>0</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -2093,10 +2093,10 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>2.761358824931266E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>2.479071583131464E-06</v>
+        <v>0</v>
       </c>
       <c r="AK2">
         <v>0</v>
@@ -2114,52 +2114,52 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>6.710667181268891E-07</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>7.717108860066802E-06</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>1.57466559733929E-05</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>3.812035738070814E-05</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>6.014570636259677E-05</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>7.077391339458183E-05</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>8.894607518618676E-05</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>7.97600587590006E-05</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>9.289079534077921E-05</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>7.371092068201462E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>4.864984425261857E-05</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>6.286086587313874E-05</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>4.438250053304415E-05</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>2.789031199140324E-05</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>8.572261118313492E-06</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>4.165348759012901E-06</v>
+        <v>0</v>
       </c>
       <c r="BF2">
         <v>0</v>
@@ -2168,40 +2168,40 @@
         <v>0</v>
       </c>
       <c r="BH2">
-        <v>6.679002707430295E-06</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>1.687300408490045E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>3.388278875774714E-05</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>6.840341918300954E-05</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>7.483632050380943E-05</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>7.846426287937061E-05</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>7.72456105679335E-05</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>9.149399360276907E-05</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>5.743112202777718E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>2.711184716199394E-05</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>2.057022862691143E-05</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>1.324712934102307E-05</v>
+        <v>0</v>
       </c>
       <c r="BT2">
         <v>0</v>
@@ -2210,388 +2210,388 @@
         <v>0</v>
       </c>
       <c r="BV2">
-        <v>1.828214939400482E-06</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>1.435080552601232E-05</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>2.939461457208134E-05</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>5.960967259849507E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>6.563442322485162E-05</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.0001045240044117367</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.0001801084362716416</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.0001582369943100092</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.0001608398195012039</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.0001591022686606644</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.0001406056077310697</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.0001073593006253384</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>5.566388111660057E-05</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>3.557668326080428E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>9.693740742445596E-06</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>2.220893707003149E-06</v>
+        <v>0</v>
       </c>
       <c r="CL2">
         <v>0</v>
       </c>
       <c r="CM2">
-        <v>6.700706838276575E-06</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.0602371919436294</v>
+        <v>0.09591402397390883</v>
       </c>
       <c r="CO2">
-        <v>0.03461924638470262</v>
+        <v>0.01463227840027346</v>
       </c>
       <c r="CP2">
-        <v>0.1356021017371732</v>
+        <v>0.3350351279253623</v>
       </c>
       <c r="CQ2">
-        <v>0.08160803596718753</v>
+        <v>0.163720378805177</v>
       </c>
       <c r="CR2">
-        <v>0.0001364711145987839</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.00998700696964396</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.009658499607098301</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.0002289789767493395</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.001902457852611957</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.01897958730001429</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.0003817639642123998</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.117698632033902</v>
+        <v>0.2782302109987005</v>
       </c>
       <c r="CZ2">
-        <v>0.009069959801834213</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.0006897875287366304</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.02654594090272249</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.0007950435255799571</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.05931174120843909</v>
+        <v>0.09297771313564723</v>
       </c>
       <c r="DE2">
-        <v>0.0003382469192853863</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.001828315001170433</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.001008277570882765</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.001773509057362942</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.000877103795878415</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.005135219096071108</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.002669476585115088</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.0003418978046702846</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.00165572337256468</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.023589095554548</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.01927257781177862</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.002104011929558341</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.0277279560211016</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.003309110400150748</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.004334058932992363</v>
+        <v>0</v>
       </c>
       <c r="DT2">
         <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.0009735937345963506</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.0003270023339431734</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.0008670039602696038</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.001113819014933296</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.006734285228037143</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.005708192445614928</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.002607640893643796</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.003686972841205704</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.009269567784227703</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.007659237310883773</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.01117902614437028</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.0002948622948142517</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.0001137945616670585</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.004657099625411283</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.003282073940220367</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>3.113161824545538E-05</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.002635642048298829</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.0004909635258573462</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.01325054601605418</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.01560027788450652</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.002448214987308328</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.00185766566811604</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.005042046230754907</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.0002400047352375862</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.008182275604729002</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>6.783262880038569E-05</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.01535701956646426</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.01280893609945726</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.00044795932761053</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.0005367240561933718</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.007769631537511769</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.01479066753980606</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.000747344893132814</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.03615036115679463</v>
+        <v>0.01949026676093074</v>
       </c>
       <c r="FC2">
-        <v>0.006025464275584092</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.008262160010277289</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.001396843381932804</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.01347173759246864</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.01445686756030879</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.002683623006999691</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.002291456695958036</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.001825392808408997</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.0004089935231366079</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.0004407432830310101</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.0005493075105745298</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.002327595336702919</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.003002011178023098</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.005275213966015191</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.003848496588454218</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>2.007543226128016E-06</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.002744161902285748</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.001547947645916697</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.0002954509546561882</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.0024634597447463</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.0009759639987376338</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>3.05473617487883E-05</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.0004712794721664445</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>7.785376636609521E-05</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.001951978981851545</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.01249843023656408</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.006946880678242255</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.0003147302446874224</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.0006988015826274053</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.0003147302446874224</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.0001791882851555422</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>8.15517661449494E-05</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.002024806031301357</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>5.560699973872556E-05</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.0001617121059941443</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.003194128171838708</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.005898230004140609</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.001754527758371187</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.0003709885522077064</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.002135487445668307</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.008547238104712699</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.009184222710386301</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.005526345189314996</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2773,16 +2773,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.792020644665745E-06</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1.31982287182343E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>6.560540281052608E-06</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.0553669479354E-05</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1.633631964624166E-05</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.620056540919609E-05</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.326669166168184E-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.549248107403331E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2.773948866377902E-06</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>4.395215108590562E-06</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>7.719578710437984E-06</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>1.635901923680012E-05</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -2851,19 +2851,19 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>2.234164703469245E-05</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>2.10957870037862E-05</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.206765623519093E-06</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1.011737810192028E-05</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>4.411927520614632E-06</v>
+        <v>0</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -2881,40 +2881,40 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>3.408155352454287E-05</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>1.466251608768768E-05</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>6.785551813092566E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.985041880902859E-05</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>2.620056540919609E-05</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>7.907298744871053E-05</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>7.959707242212944E-05</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>5.372371127826769E-05</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>7.699208379750024E-05</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>3.937915574108827E-05</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>2.771432889077442E-05</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>1.251710677328501E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
         <v>0</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="BC3">
-        <v>2.987060167367392E-06</v>
+        <v>0</v>
       </c>
       <c r="BD3">
         <v>0</v>
@@ -2935,37 +2935,37 @@
         <v>0</v>
       </c>
       <c r="BF3">
-        <v>2.048210871678275E-05</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>3.386458166038264E-06</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>1.75062105253914E-05</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>3.710216673393604E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>5.33173754849625E-05</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>8.186806022690597E-06</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>1.011737810192028E-05</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>1.413862444293821E-05</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>2.490735688323148E-05</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>7.030299898363775E-06</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>6.132843172330676E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
         <v>0</v>
@@ -2980,49 +2980,49 @@
         <v>0</v>
       </c>
       <c r="BU3">
-        <v>5.372371127826769E-05</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>6.574655577837238E-05</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>7.442563068537204E-05</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>9.376427745364776E-05</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.0001044793536754041</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.0001551015742480653</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.0001907047115491201</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.0001522621971500777</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.0001307640691443524</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.0001255477911835362</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>6.768871756073793E-05</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>3.669258742647755E-05</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>2.076363232247111E-05</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>2.553780267592127E-05</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>8.861104367141936E-07</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
         <v>0</v>
@@ -3034,337 +3034,337 @@
         <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.001212922227820655</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.1965271050328228</v>
+        <v>0.482101479987632</v>
       </c>
       <c r="CO3">
-        <v>0.02058057019974536</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.1789543603957645</v>
+        <v>0.4312151701105283</v>
       </c>
       <c r="CQ3">
-        <v>0.003350606108559148</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>0.01071164648401268</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.008412451725856515</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.003158940466374841</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>2.045768719885259E-05</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.01321713094606627</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.009084861860246395</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.04027141472367025</v>
+        <v>0.02962375716428709</v>
       </c>
       <c r="CY3">
-        <v>0.04796847014326903</v>
+        <v>0.05191252054829257</v>
       </c>
       <c r="CZ3">
-        <v>0.000184139961110567</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.004617119451236826</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.006936873962108862</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.01850437054559004</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.03181879680606794</v>
+        <v>0.005147072189260139</v>
       </c>
       <c r="DE3">
-        <v>0.004752173751010351</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>4.542345538452638E-05</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.006130646831429758</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>1.163005473579746E-05</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.005468578979491621</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.006100227016062451</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.0002100163824569422</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.005473019127989458</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.006312544767974656</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.02314151995586421</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.004321429261572783</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.01778675856556446</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.01576264546142278</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.001629820878567245</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.001864767701150207</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.0008910431155408081</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.0002234519035853881</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.001597381730222277</v>
+        <v>0</v>
       </c>
       <c r="DW3">
         <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.00440618124462788</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.004461702834398947</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.004658759742032471</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.00172348431157977</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.008599476678612319</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>2.140494258536068E-05</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.01857243025085037</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.0008134945787424536</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.001835028542937681</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.001756978854153254</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.002015532810167721</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.001627573257487192</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.0007977660994584205</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.001522762673702296</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.006286082079942515</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.01547747665869801</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.005987900154189412</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.0001321364723055738</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.004310765632814559</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.003833812786616746</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.001989379648347246</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.004485571812981681</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.007034400662890099</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.01962060921301471</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.000775048818825852</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.001654645982616112</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.0003342413818212804</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.01598307520416772</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.008835491917562152</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.0128587827343018</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.02610316892278647</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.001307047646233893</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.006637051146752749</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.004078276388250048</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.01695536515081159</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.006989825182109264</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.0001833675579825618</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.003621670432891153</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>4.708554603048161E-05</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.0007380385994074337</v>
+        <v>0</v>
       </c>
       <c r="FL3">
         <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.002155508977387918</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.001604245298667956</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.004274344715241846</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.005514211156714809</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.001604245298667956</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.000710956959122255</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.002261204265218587</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>8.496589972525836E-05</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.0003367381965442985</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.001503088726905441</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.0003577180835116174</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.0001587431451198023</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.0005485169020478163</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>1.806562055335529E-05</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.007626168300578801</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.008663583664030467</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.002081024149063289</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.0001907047115491201</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.001144024197361155</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.0001813818822240319</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.0004573552822560323</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.0005750643842347072</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.0004793044971343707</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.0003964760642208216</v>
+        <v>0</v>
       </c>
       <c r="GK3">
         <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.004478426665836649</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.003098283546258377</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.0001979065150130236</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>1.897489136398512E-05</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.003683837320035013</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.009122392664688124</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.006052923397296268</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.001880620151191379</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3546,10 +3546,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.933016463608139E-07</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>5.458089294719819E-06</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3561,22 +3561,22 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.421967291865691E-05</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>5.933998334431393E-05</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>3.672328312043319E-05</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>3.482604521670748E-05</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>3.885298574810529E-05</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.803988502339795E-05</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -3594,46 +3594,46 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>4.037992190538624E-06</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>1.574883679228349E-05</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1.431206798063911E-05</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>7.560130700071128E-06</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>3.49313126208382E-05</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>5.763035001067044E-05</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>3.683063035339733E-05</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>1.009323692827152E-05</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>1.54585217546267E-05</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>3.955183730361852E-05</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>3.455589098731825E-05</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.11479236424933E-05</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>6.481227761938427E-07</v>
+        <v>0</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -3645,49 +3645,49 @@
         <v>0</v>
       </c>
       <c r="AK4">
-        <v>1.366918537077831E-05</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>4.781953880306882E-05</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>4.571877837181346E-05</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>5.125772840459485E-05</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>7.463790121758824E-05</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.0001045744161890385</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>9.760545002261309E-05</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>9.36386561364232E-05</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>7.565878144174097E-05</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>9.30779002038127E-05</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>6.308604073652357E-05</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>2.65753421833708E-05</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>3.520253633329501E-05</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>4.203066150275762E-05</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>2.421967291865691E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
         <v>0</v>
@@ -3702,34 +3702,34 @@
         <v>0</v>
       </c>
       <c r="BD4">
-        <v>8.304520984928142E-06</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>2.945539292847137E-05</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>4.234556663235179E-05</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>5.029414721422078E-05</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>8.205678598052849E-05</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.0001451914085116191</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>8.907310609076389E-05</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>2.684232204268031E-05</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>7.786336993534162E-05</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>6.706297416414902E-05</v>
+        <v>0</v>
       </c>
       <c r="BN4">
         <v>0</v>
@@ -3744,49 +3744,49 @@
         <v>0</v>
       </c>
       <c r="BR4">
-        <v>5.926878704461949E-06</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>4.952678960508003E-05</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>5.75024871456281E-05</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>4.243453118541004E-05</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>6.619945930233145E-05</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.0001022277478221193</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.0001416003509896738</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.0002737847094402464</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.0001672681851703465</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.0001512124277865348</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.0002525457279287027</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.0001443170484700534</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.0001033981251404905</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>9.196081060597141E-05</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>4.042998113017037E-05</v>
+        <v>0</v>
       </c>
       <c r="CG4">
         <v>0</v>
@@ -3798,268 +3798,268 @@
         <v>0</v>
       </c>
       <c r="CJ4">
-        <v>1.209020137165034E-05</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>3.016627441442248E-05</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>6.512908917521503E-05</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.0003711678483129287</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.1783544358749686</v>
+        <v>0.3960268906675291</v>
       </c>
       <c r="CO4">
-        <v>0.0005362198871553237</v>
+        <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.1996278272775248</v>
+        <v>0.4528372597046172</v>
       </c>
       <c r="CQ4">
-        <v>0.03234049866096661</v>
+        <v>0.006098199904620616</v>
       </c>
       <c r="CR4">
-        <v>0.00488526128481715</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.01450527380641199</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.001606296162021572</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.0004849246727176972</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.01132373107362024</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.007269330486960366</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.01334607544272956</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.057462826314268</v>
+        <v>0.07318711290620253</v>
       </c>
       <c r="CZ4">
-        <v>0.001236194680541128</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.001670409015756641</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.01917704146233895</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.01102735195671422</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.05414321702606085</v>
+        <v>0.06432213105383398</v>
       </c>
       <c r="DE4">
-        <v>0.002671846097880216</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.0005861087965103343</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.005577231162826024</v>
+        <v>0</v>
       </c>
       <c r="DH4">
         <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.001908707383940766</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.00604635935914439</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.001361727134962893</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.005297210024985676</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.0002812015294092604</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.0220526809656584</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.007562408238936933</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.01274304686378907</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.01913937300576623</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>2.084565831514919E-06</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.001225104932968668</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.0003719999903349941</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.0005070150710023744</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.000726994146449476</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>1.094040182964062E-05</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.003791030158531275</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.005771217549863581</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.005623210715649769</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.003744195620649746</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.008664244422230337</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.001621657827901499</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.01870305598865831</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.00377333337109318</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.0002994652932222496</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.001217459381944337</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.003455553968167593</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.002446247214669252</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.0001441670401889892</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.0008561773469748875</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.006300974711213803</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.0163203720026345</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.007695582034609006</v>
+        <v>0</v>
       </c>
       <c r="EO4">
         <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.005746415966897842</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.006119763785547273</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.0001643590509007012</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.005373686584099115</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.003453246410606013</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.01836429246594527</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.004355870674505183</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.001051695219732654</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>8.688760190607317E-05</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.01365917237414759</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.01011122895217357</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.003988906978163531</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.03287605809371483</v>
+        <v>0.007528405763196781</v>
       </c>
       <c r="FC4">
-        <v>5.659261465318632E-05</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.007577947316722169</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.0005260677464675085</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.02029493091724483</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.01076311947611912</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.0004430187077285193</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.001984035576840018</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>3.418194778634253E-05</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.001188999505351522</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.000506047805257402</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.0006736489925740113</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.000734085149955556</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.003243504844049976</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.005944215908037798</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.003055359418238354</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.000127081792590818</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.001666437996059192</v>
+        <v>0</v>
       </c>
       <c r="FT4">
         <v>0</v>
@@ -4068,76 +4068,76 @@
         <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.001442562012984012</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.0003465201225645044</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.0001820019231614706</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.001533784107479115</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.0001685703785320341</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.003125738219910378</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.007676486098704137</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.002068102358519185</v>
+        <v>0</v>
       </c>
       <c r="GD4">
         <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.0004925038496382466</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>9.196081060597141E-05</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.0003775918933110377</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.0003519868148331409</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.0006901410529423507</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.0005503336858050192</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.0002821352973809256</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.003299630854366604</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.002747072955504741</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.0001080072162774863</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>4.406481629265926E-05</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.002097442679279358</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.007840905839511364</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.005771217549863581</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.002866969224137036</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,28 +4313,28 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0002295880209986128</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0002510987175724153</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>5.322376370230429E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1.876643127535531E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>8.390031245774844E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>7.799486708091674E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.278915290627049E-05</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -4343,37 +4343,37 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.086552970477236E-05</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>9.005398477768843E-05</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>6.65663897338215E-05</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>4.841888551482267E-07</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.878792833110649E-05</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0001467095953052123</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>4.874016441731187E-05</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>8.027251816792759E-06</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>4.068723722969524E-05</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>3.589395824501422E-06</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -4388,37 +4388,37 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>7.341790171933497E-05</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>9.761293204192914E-05</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>3.019993661165419E-05</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>2.90823849468314E-05</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.000138131839719058</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.000175849414820596</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>6.492287577082575E-05</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>4.894064547886625E-05</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>6.386257452845388E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>3.485441247001777E-05</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>2.309759161537993E-05</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -4427,58 +4427,58 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>2.877000210246942E-06</v>
+        <v>0</v>
       </c>
       <c r="AO5">
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.200588646314275E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>2.3851408693399E-06</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>1.386217424075582E-05</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.496794655985276E-05</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>3.060299339666647E-05</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>9.895415616834925E-05</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>9.381922211474079E-05</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>2.098814498168177E-05</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>4.781263851881848E-05</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.0001035547262579081</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>7.149567062233172E-05</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>2.568951704746829E-05</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>2.53403980566697E-05</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>5.08851772692263E-06</v>
+        <v>0</v>
       </c>
       <c r="BD5">
         <v>0</v>
       </c>
       <c r="BE5">
-        <v>1.12129163211061E-06</v>
+        <v>0</v>
       </c>
       <c r="BF5">
         <v>0</v>
@@ -4487,40 +4487,40 @@
         <v>0</v>
       </c>
       <c r="BH5">
-        <v>5.322376370230429E-05</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>6.76094733157118E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>8.033248174299219E-05</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>9.001049026917137E-05</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>6.897195831049217E-05</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>8.51059750297123E-05</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.000135094069554025</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>8.692980605615839E-05</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>8.754185165276886E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>6.492287577082575E-05</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>2.210286940337156E-05</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>5.271290238524073E-06</v>
+        <v>0</v>
       </c>
       <c r="BT5">
         <v>0</v>
@@ -4529,43 +4529,43 @@
         <v>0</v>
       </c>
       <c r="BV5">
-        <v>6.931643561858248E-06</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>3.690951498712631E-05</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>7.544419337792559E-05</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>5.109480058423911E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.0001022300352488534</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>9.067640860838362E-05</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>4.374011337980774E-05</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>8.514832262827168E-05</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.0001069022521829759</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>7.317560348005676E-05</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>8.940590459125593E-06</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>1.581877360552217E-05</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>4.136212668658689E-06</v>
+        <v>0</v>
       </c>
       <c r="CI5">
         <v>0</v>
@@ -4577,340 +4577,340 @@
         <v>0</v>
       </c>
       <c r="CL5">
-        <v>1.330279442914769E-05</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.0009459175864476187</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.1670225651693594</v>
+        <v>0.3576078542194381</v>
       </c>
       <c r="CO5">
-        <v>0.0002180603449473249</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.1975937002896885</v>
+        <v>0.437405217076226</v>
       </c>
       <c r="CQ5">
-        <v>0.08031098325210237</v>
+        <v>0.1312716210732817</v>
       </c>
       <c r="CR5">
-        <v>0.0004064940581427287</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.007691940346872974</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>3.56588146822521E-05</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.007138122448083145</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.01175187149381794</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.01766689146712877</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.007909577019679075</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.05110289056882805</v>
+        <v>0.05503209771151891</v>
       </c>
       <c r="CZ5">
-        <v>0.005345031310646612</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.008006642031001031</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.02052636517185671</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.002195515886992262</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.03717728300010774</v>
+        <v>0.01868320991953543</v>
       </c>
       <c r="DE5">
-        <v>0.000155020959536625</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.002035197490472301</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.001473330505542342</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.0003329565335146494</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>1.061774711421314E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.004421968953524277</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.004970098138892277</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.007955180201216045</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>1.250767257994786E-05</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.01787162890569013</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.01109189787114024</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.004520723905644253</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.01878182405397667</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.0005987587808587957</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.000361746635564405</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>1.637587560991943E-05</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.0001042201341921654</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.002784066242492481</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.0003076015168595925</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.001314453952980516</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.00295755188589825</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.007065304674505119</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.002943638747222341</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.009816899288026587</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.001620902989462865</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.01333513765624473</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.006032365040817242</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.0009380443398184498</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.000567635227450127</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.003565472809996013</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.002629164043180147</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>7.363744890794316E-06</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.0004409980135603305</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.002877758577935412</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.01158595185327432</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.01077404118383454</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>4.21706121384611E-05</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.005345031310646612</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.008217044964562742</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.000295927094379776</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.003427294379311712</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.003375278509952057</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.01632861467912519</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.007148942732890642</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.0006345180422353951</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.0007009633098710164</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.009542989968536246</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.01115649612335493</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.002294133430092004</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.02711217234733274</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.002116704958448668</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.002271397691570652</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.000491544316967237</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.01645093672936672</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.01180048756578037</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.003808413158723465</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.0007146227472604755</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>3.856802785024045E-05</v>
+        <v>0</v>
       </c>
       <c r="FK5">
         <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.0006999951417269898</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.0002915089490258934</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.002093400768918626</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.00679094379674872</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.009174606693466024</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.005420172727802063</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.0006992650624825535</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.0002113662538594575</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.0001247707390297584</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>9.890866007177344E-05</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.001272799804604094</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.0003556514696634228</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.0001538682649894603</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.001578619241562559</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>4.7351948007242E-05</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.002660451066285575</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.007986209820097116</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.005182165092686644</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.001347020791490721</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.001293462598452381</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.000275157836062643</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.001307329800682341</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>3.568712214137324E-05</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.0002025969162722582</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.0006822781250565546</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.0006184482424658645</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.001215312494206391</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.003912112433666213</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.0004289291181058917</v>
+        <v>0</v>
       </c>
       <c r="GO5">
         <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.00358871685180489</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.009474339501296577</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.007686327893956184</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.006378076628183993</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,64 +5086,64 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0001456178432978102</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>4.472290092549725E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>3.268617419190742E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>2.678169710448323E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.470714680523546E-06</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.856584790526179E-07</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4.095682212116764E-05</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>7.040104672881276E-05</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>3.514606101844428E-05</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.800361186788275E-05</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>7.80063654742216E-05</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>9.437567350318384E-05</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.921100715702409E-05</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>1.324161007469136E-05</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>3.351999372072741E-05</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>3.481783154102033E-05</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>1.324161007469136E-05</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -5152,58 +5152,58 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>5.670191726309548E-06</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>1.468518468736293E-07</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>1.762286411385478E-05</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>4.216770389337428E-05</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>1.623835028427601E-05</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>7.035010867115401E-05</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0001272920341882923</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0001104811049710598</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>9.458471246631544E-05</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0001042004447620546</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0001070326531751423</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.0001163492280214959</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>6.052711365838882E-05</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>2.83889767991073E-05</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>6.624335566513728E-05</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>2.988974173571255E-05</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>1.153016094700202E-05</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>9.401172567684878E-07</v>
+        <v>0</v>
       </c>
       <c r="AP6">
         <v>0</v>
@@ -5212,478 +5212,478 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>1.184168610998062E-05</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.386420833801359E-05</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>4.739393000658462E-05</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>7.1797625229997E-05</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>4.347621919307198E-05</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>8.909430174933836E-05</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>8.651019771204151E-05</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>3.920251105479609E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>2.359828603095094E-05</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>2.581375799289251E-05</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>2.312612921185451E-07</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>2.312612921185451E-07</v>
+        <v>0</v>
       </c>
       <c r="BD6">
         <v>0</v>
       </c>
       <c r="BE6">
-        <v>2.172256074218396E-06</v>
+        <v>0</v>
       </c>
       <c r="BF6">
         <v>0</v>
       </c>
       <c r="BG6">
-        <v>4.656957838957928E-06</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>3.142823189928934E-05</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>4.830892078198496E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>1.251042076567288E-05</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>1.447682221796208E-05</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>2.508035237679638E-05</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>4.003636758874329E-05</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>2.055482934862396E-05</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>3.968642910345494E-05</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>2.736088335290813E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>8.313543272570759E-06</v>
+        <v>0</v>
       </c>
       <c r="BR6">
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>6.688784756190444E-07</v>
+        <v>0</v>
       </c>
       <c r="BT6">
         <v>0</v>
       </c>
       <c r="BU6">
-        <v>5.183341171340955E-07</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>8.414549267329796E-06</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>1.570197596760467E-05</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>1.504090537379691E-05</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>2.09647281416376E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>2.147937044725738E-05</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>2.09647281416376E-05</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>2.783150355910108E-05</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>1.504090537379691E-05</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>7.923210190459679E-06</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>1.525975269591339E-05</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>9.970036785953819E-06</v>
+        <v>0</v>
       </c>
       <c r="CG6">
         <v>0</v>
       </c>
       <c r="CH6">
-        <v>5.532059887625726E-06</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>3.248765828678494E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>4.220283136041646E-06</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>3.743858125571309E-06</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>2.055482934862396E-05</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>3.593664955744865E-05</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.0001939093942731434</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.05365322758311705</v>
+        <v>0.07421075610832119</v>
       </c>
       <c r="CP6">
-        <v>0.05704523555853169</v>
+        <v>0.08485454715365784</v>
       </c>
       <c r="CQ6">
-        <v>0.1087714344171985</v>
+        <v>0.2471663271411089</v>
       </c>
       <c r="CR6">
-        <v>0.1757568094919053</v>
+        <v>0.4573599176504371</v>
       </c>
       <c r="CS6">
-        <v>0.006406828917552529</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.00916673281257838</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.003316693867762831</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.001489585715082212</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.001093622552902442</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.01399903734647791</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.0003495791228973293</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.06872062922807161</v>
+        <v>0.1214907966823572</v>
       </c>
       <c r="DA6">
-        <v>0.0171312493261839</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.001390559294600609</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.02039376135945055</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.003389862205510183</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.0347574535028169</v>
+        <v>0.01491765526411763</v>
       </c>
       <c r="DF6">
-        <v>0.01014557443475279</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.006957297186993831</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.0001308024405682496</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.002369154982699934</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>3.007541446136439E-05</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.001473491485166354</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.004085662111194236</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.0003151144176832848</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.004415503511956208</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.01273550927992992</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.02312635397039565</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
         <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.02151083413406907</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.003476773847443826</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.00184085428465871</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.000835634507692113</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.0005941996559887675</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.001014252055822675</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.001314565865426254</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.0005450168415255387</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.003700535450452343</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.006611182731539159</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.002887060140400093</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.004970356688942881</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.009743558233901835</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.004227328039539422</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.01333759170070529</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.0008677084516572285</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.0002677386635950418</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.004230900534521988</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.002069105909776615</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.0001110611303357474</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.00180008903648083</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.0002311757976729694</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.01234489915943414</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.01662378501510216</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.002116861626510106</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.003409080568286356</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.009391623972091185</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.00268554641991906</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.003846961538335469</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>9.639251554420558E-08</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.01100179756767608</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.01491778514242753</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.0001774148088865338</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.0003194146134915266</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.003492989194140868</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.01570622388356934</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.0008043358111404314</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.02931538248348606</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.01689758595124778</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.00238686413636953</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.001768757295350698</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.01339474862001062</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.01903562518459467</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.005588341413041956</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.0005848578016398442</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.00049428234207054</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>1.762286411385478E-05</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.0006843177421872775</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>4.202751046905004E-05</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.001176188292695059</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.004386348172374665</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.008531226760833708</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.006975637528116815</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.001686549905208767</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.0002163630953175557</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.0001730430131578548</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.0003564078790470808</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.0006742906128909423</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.00105847448300566</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>1.646532873299055E-05</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.001781488859356595</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.001149953357746522</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.0002698941022391422</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.00936178283749017</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.008228958880486307</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.0005188893714666639</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.0006558648699352158</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.0005893727271996976</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.001175038733419315</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.000215554493282714</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.0008270940843844632</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>5.588944909258618E-05</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.00198623212730353</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.0002888386070712706</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.006457980004727317</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.002153953965792696</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>9.62003063128964E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.0004930609828466432</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.008681564590703343</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.01101908996360233</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6648,769 +6648,769 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.668441013105163E-06</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2.566967876397942E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>5.133429278062385E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>6.733553053149811E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>8.954551212064145E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0001067137754104165</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0001144078952470884</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0001177618506166615</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0001184736701852241</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0001184736701852241</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0001184736701852241</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0001184736701852241</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0001257772126963067</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0001263454074859488</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0001435462917417811</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0001607471759976134</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0001759284872520915</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.000201632394273173</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0002460148948062172</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.000273534969686186</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0002957816774955861</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0003183635977159965</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0003309870695229102</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.000341620026205965</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.000345301628475203</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0003471938302632766</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0003471938302632766</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0003471938302632766</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0003486975100536855</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0003514588688786168</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0003514588688786168</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0003514588688786168</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.000354220227703548</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0003566992992866795</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0003566992992866795</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0003566992992866795</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0003566992992866795</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0003566992992866795</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0003566992992866795</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0003573703660048064</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0003650874748648732</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.000380834130838266</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.0004189544882189742</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.000479100194581571</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.0005498741079761528</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.0006388201831623395</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.0007185802419213401</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.0008114710372621193</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.0008851819579441339</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.0009338318021967525</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.0009966926680698913</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.001041075168602935</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.001068965480594339</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.001077537741712652</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.001081703090471665</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.001081703090471665</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.001081703090471665</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.001088382093179095</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.001105255097263996</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.001139137886021743</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.001207541305204753</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.001282377625708562</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.001360841888587933</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.001438087499155866</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.001529581492758635</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.001587012614786413</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.001614124461948407</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.001634694690575318</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.001647941819916341</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.001647941819916341</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.001647941819916341</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.001649770034855741</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.001664120840381754</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.001693515454953835</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.00175312512755233</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.001818759550777182</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.001923283555188919</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.00210339199146056</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.002261628985770569</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.002422468805271773</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.002581571073932437</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.002722176681663507</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.002829535982288846</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.002885199863405446</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.00292077654666625</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.002930470287408696</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.002932691181115699</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.002932691181115699</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.002939391887953976</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.06317658383158338</v>
+        <v>0.09591402397390883</v>
       </c>
       <c r="CO2">
-        <v>0.09779583021628599</v>
+        <v>0.1105463023741823</v>
       </c>
       <c r="CP2">
-        <v>0.2333979319534592</v>
+        <v>0.4455814302995446</v>
       </c>
       <c r="CQ2">
-        <v>0.3150059679206467</v>
+        <v>0.6093018091047215</v>
       </c>
       <c r="CR2">
-        <v>0.3151424390352455</v>
+        <v>0.6093018091047215</v>
       </c>
       <c r="CS2">
-        <v>0.3251294460048895</v>
+        <v>0.6093018091047215</v>
       </c>
       <c r="CT2">
-        <v>0.3347879456119878</v>
+        <v>0.6093018091047215</v>
       </c>
       <c r="CU2">
-        <v>0.3350169245887371</v>
+        <v>0.6093018091047215</v>
       </c>
       <c r="CV2">
-        <v>0.3369193824413491</v>
+        <v>0.6093018091047215</v>
       </c>
       <c r="CW2">
-        <v>0.3558989697413634</v>
+        <v>0.6093018091047215</v>
       </c>
       <c r="CX2">
-        <v>0.3562807337055758</v>
+        <v>0.6093018091047215</v>
       </c>
       <c r="CY2">
-        <v>0.4739793657394777</v>
+        <v>0.887532020103422</v>
       </c>
       <c r="CZ2">
-        <v>0.483049325541312</v>
+        <v>0.887532020103422</v>
       </c>
       <c r="DA2">
-        <v>0.4837391130700486</v>
+        <v>0.887532020103422</v>
       </c>
       <c r="DB2">
-        <v>0.510285053972771</v>
+        <v>0.887532020103422</v>
       </c>
       <c r="DC2">
-        <v>0.5110800974983509</v>
+        <v>0.887532020103422</v>
       </c>
       <c r="DD2">
-        <v>0.57039183870679</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="DE2">
-        <v>0.5707300856260754</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="DF2">
-        <v>0.5725584006272458</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="DG2">
-        <v>0.5735666781981286</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="DH2">
-        <v>0.5753401872554915</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="DI2">
-        <v>0.57621729105137</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="DJ2">
-        <v>0.581352510147441</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="DK2">
-        <v>0.5840219867325561</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="DL2">
-        <v>0.5843638845372264</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="DM2">
-        <v>0.5860196079097911</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="DN2">
-        <v>0.6096087034643392</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="DO2">
-        <v>0.6288812812761178</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="DP2">
-        <v>0.6309852932056761</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="DQ2">
-        <v>0.6587132492267777</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="DR2">
-        <v>0.6620223596269283</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="DS2">
-        <v>0.6663564185599207</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="DT2">
-        <v>0.6663564185599207</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="DU2">
-        <v>0.667330012294517</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="DV2">
-        <v>0.6676570146284603</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="DW2">
-        <v>0.6685240185887299</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="DX2">
-        <v>0.6696378376036632</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="DY2">
-        <v>0.6763721228317003</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="DZ2">
-        <v>0.6820803152773153</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="EA2">
-        <v>0.6846879561709591</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="EB2">
-        <v>0.6883749290121648</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="EC2">
-        <v>0.6976444967963925</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="ED2">
-        <v>0.7053037341072763</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="EE2">
-        <v>0.7164827602516466</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="EF2">
-        <v>0.7167776225464608</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="EG2">
-        <v>0.7168914171081279</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="EH2">
-        <v>0.7215485167335391</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="EI2">
-        <v>0.7248305906737595</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="EJ2">
-        <v>0.724861722292005</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="EK2">
-        <v>0.7274973643403038</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="EL2">
-        <v>0.7279883278661611</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="EM2">
-        <v>0.7412388738822152</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="EN2">
-        <v>0.7568391517667217</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="EO2">
-        <v>0.75928736675403</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="EP2">
-        <v>0.761145032422146</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="EQ2">
-        <v>0.7661870786529009</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="ER2">
-        <v>0.7664270833881385</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="ES2">
-        <v>0.7746093589928674</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="ET2">
-        <v>0.7746771916216678</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="EU2">
-        <v>0.7900342111881321</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="EV2">
-        <v>0.8028431472875893</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="EW2">
-        <v>0.8032911066151999</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="EX2">
-        <v>0.8038278306713933</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="EY2">
-        <v>0.8115974622089051</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="EZ2">
-        <v>0.8263881297487111</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="FA2">
-        <v>0.8271354746418439</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="FB2">
-        <v>0.8632858357986385</v>
+        <v>1</v>
       </c>
       <c r="FC2">
-        <v>0.8693113000742226</v>
+        <v>1</v>
       </c>
       <c r="FD2">
-        <v>0.8775734600844999</v>
+        <v>1</v>
       </c>
       <c r="FE2">
-        <v>0.8789703034664327</v>
+        <v>1</v>
       </c>
       <c r="FF2">
-        <v>0.8924420410589013</v>
+        <v>1</v>
       </c>
       <c r="FG2">
-        <v>0.9068989086192102</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0.9095825316262098</v>
+        <v>1</v>
       </c>
       <c r="FI2">
-        <v>0.9118739883221678</v>
+        <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0.9136993811305768</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0.9141083746537134</v>
+        <v>1</v>
       </c>
       <c r="FL2">
-        <v>0.9145491179367444</v>
+        <v>1</v>
       </c>
       <c r="FM2">
-        <v>0.915098425447319</v>
+        <v>1</v>
       </c>
       <c r="FN2">
-        <v>0.9174260207840219</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>0.920428031962045</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0.9257032459280602</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0.9295517425165144</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0.9295537500597405</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0.9322979119620263</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0.933845859607943</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0.9341413105625992</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0.9366047703073455</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0.9375807343060831</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0.9376112816678319</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0.9380825611399983</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
-        <v>0.9381604149063644</v>
+        <v>1</v>
       </c>
       <c r="GA2">
-        <v>0.9401123938882159</v>
+        <v>1</v>
       </c>
       <c r="GB2">
-        <v>0.9526108241247799</v>
+        <v>1</v>
       </c>
       <c r="GC2">
-        <v>0.9595577048030222</v>
+        <v>1</v>
       </c>
       <c r="GD2">
-        <v>0.9598724350477096</v>
+        <v>1</v>
       </c>
       <c r="GE2">
-        <v>0.9605712366303369</v>
+        <v>1</v>
       </c>
       <c r="GF2">
-        <v>0.9608859668750244</v>
+        <v>1</v>
       </c>
       <c r="GG2">
-        <v>0.9610651551601799</v>
+        <v>1</v>
       </c>
       <c r="GH2">
-        <v>0.9611467069263249</v>
+        <v>1</v>
       </c>
       <c r="GI2">
-        <v>0.9631715129576263</v>
+        <v>1</v>
       </c>
       <c r="GJ2">
-        <v>0.963227119957365</v>
+        <v>1</v>
       </c>
       <c r="GK2">
-        <v>0.9633888320633591</v>
+        <v>1</v>
       </c>
       <c r="GL2">
-        <v>0.9665829602351979</v>
+        <v>1</v>
       </c>
       <c r="GM2">
-        <v>0.9724811902393384</v>
+        <v>1</v>
       </c>
       <c r="GN2">
-        <v>0.9742357179977096</v>
+        <v>1</v>
       </c>
       <c r="GO2">
-        <v>0.9746067065499173</v>
+        <v>1</v>
       </c>
       <c r="GP2">
-        <v>0.9767421939955856</v>
+        <v>1</v>
       </c>
       <c r="GQ2">
-        <v>0.9852894321002983</v>
+        <v>1</v>
       </c>
       <c r="GR2">
-        <v>0.9944736548106846</v>
+        <v>1</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7424,595 +7424,595 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.792020644665745E-06</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1.699024936290005E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.699024936290005E-05</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2.355078964395266E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2.355078964395266E-05</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2.355078964395266E-05</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>2.355078964395266E-05</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>6.410445912330666E-05</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>8.044077876954832E-05</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>8.044077876954832E-05</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0001066413441787444</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0001299080358404263</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.0001454005169144596</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0001481744657808375</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0001481744657808375</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0001481744657808375</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.000152569680889428</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.000152569680889428</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.000152569680889428</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.000152569680889428</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.000152569680889428</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.000152569680889428</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.000160289259599866</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0001766482788366661</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0001766482788366661</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0001766482788366661</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0001989899258713586</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0002200857128751448</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0002222924784986639</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0002324098566005842</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.0002368217841211988</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.0002368217841211988</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0002368217841211988</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.0002368217841211988</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.0002368217841211988</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.0002368217841211988</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.0002709033376457417</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0002855658537334294</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.0002923514055465219</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0003122018243555505</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.0003384023897647466</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.0004174753772134571</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.0004970724496355866</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.0005507961609138543</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.0006277882447113545</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.0006671674004524428</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.0006948817293432172</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.0007073988361165021</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.0007073988361165021</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.0007073988361165021</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.0007073988361165021</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.0007103858962838695</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.0007103858962838695</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.0007103858962838695</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.0007308680050006522</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.0007342544631666905</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.0007517606736920819</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.0007888628404260179</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.0008421802159109804</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.000850367021933671</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.0008604844000355913</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.0008746230244785295</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.000899530381361761</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.0009065606812601248</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.0009126935244324554</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.0009126935244324554</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.0009126935244324554</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.0009126935244324554</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.0009126935244324554</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.0009664172357107231</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.001032163791489095</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.001106589422174468</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.001200353699628115</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.001304833053303519</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.001459934627551585</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.001650639339100705</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.001802901536250782</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.001933665605395135</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.002059213396578671</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.002126902114139409</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.002163594701565887</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.002184358333888358</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.002209896136564279</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.002210782247000994</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.002210782247000994</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.002210782247000994</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.002210782247000994</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.003423704474821649</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.1999508095076445</v>
+        <v>0.482101479987632</v>
       </c>
       <c r="CO3">
-        <v>0.2205313797073898</v>
+        <v>0.482101479987632</v>
       </c>
       <c r="CP3">
-        <v>0.3994857401031543</v>
+        <v>0.9133166500981603</v>
       </c>
       <c r="CQ3">
-        <v>0.4028363462117134</v>
+        <v>0.9133166500981603</v>
       </c>
       <c r="CR3">
-        <v>0.4135479926957261</v>
+        <v>0.9133166500981603</v>
       </c>
       <c r="CS3">
-        <v>0.4219604444215826</v>
+        <v>0.9133166500981603</v>
       </c>
       <c r="CT3">
-        <v>0.4251193848879575</v>
+        <v>0.9133166500981603</v>
       </c>
       <c r="CU3">
-        <v>0.4251398425751563</v>
+        <v>0.9133166500981603</v>
       </c>
       <c r="CV3">
-        <v>0.4383569735212225</v>
+        <v>0.9133166500981603</v>
       </c>
       <c r="CW3">
-        <v>0.4474418353814689</v>
+        <v>0.9133166500981603</v>
       </c>
       <c r="CX3">
-        <v>0.4877132501051392</v>
+        <v>0.9429404072624474</v>
       </c>
       <c r="CY3">
-        <v>0.5356817202484082</v>
+        <v>0.99485292781074</v>
       </c>
       <c r="CZ3">
-        <v>0.5358658602095188</v>
+        <v>0.99485292781074</v>
       </c>
       <c r="DA3">
-        <v>0.5404829796607555</v>
+        <v>0.99485292781074</v>
       </c>
       <c r="DB3">
-        <v>0.5474198536228644</v>
+        <v>0.99485292781074</v>
       </c>
       <c r="DC3">
-        <v>0.5659242241684544</v>
+        <v>0.99485292781074</v>
       </c>
       <c r="DD3">
-        <v>0.5977430209745224</v>
+        <v>1</v>
       </c>
       <c r="DE3">
-        <v>0.6024951947255327</v>
+        <v>1</v>
       </c>
       <c r="DF3">
-        <v>0.6025406181809172</v>
+        <v>1</v>
       </c>
       <c r="DG3">
-        <v>0.6086712650123469</v>
+        <v>1</v>
       </c>
       <c r="DH3">
-        <v>0.6086828950670827</v>
+        <v>1</v>
       </c>
       <c r="DI3">
-        <v>0.6141514740465743</v>
+        <v>1</v>
       </c>
       <c r="DJ3">
-        <v>0.6202517010626368</v>
+        <v>1</v>
       </c>
       <c r="DK3">
-        <v>0.6204617174450938</v>
+        <v>1</v>
       </c>
       <c r="DL3">
-        <v>0.6259347365730833</v>
+        <v>1</v>
       </c>
       <c r="DM3">
-        <v>0.6322472813410579</v>
+        <v>1</v>
       </c>
       <c r="DN3">
-        <v>0.6553888012969221</v>
+        <v>1</v>
       </c>
       <c r="DO3">
-        <v>0.6597102305584949</v>
+        <v>1</v>
       </c>
       <c r="DP3">
-        <v>0.6774969891240593</v>
+        <v>1</v>
       </c>
       <c r="DQ3">
-        <v>0.6932596345854821</v>
+        <v>1</v>
       </c>
       <c r="DR3">
-        <v>0.6948894554640493</v>
+        <v>1</v>
       </c>
       <c r="DS3">
-        <v>0.6967542231651995</v>
+        <v>1</v>
       </c>
       <c r="DT3">
-        <v>0.6976452662807403</v>
+        <v>1</v>
       </c>
       <c r="DU3">
-        <v>0.6978687181843257</v>
+        <v>1</v>
       </c>
       <c r="DV3">
-        <v>0.699466099914548</v>
+        <v>1</v>
       </c>
       <c r="DW3">
-        <v>0.699466099914548</v>
+        <v>1</v>
       </c>
       <c r="DX3">
-        <v>0.7038722811591759</v>
+        <v>1</v>
       </c>
       <c r="DY3">
-        <v>0.7083339839935748</v>
+        <v>1</v>
       </c>
       <c r="DZ3">
-        <v>0.7129927437356073</v>
+        <v>1</v>
       </c>
       <c r="EA3">
-        <v>0.714716228047187</v>
+        <v>1</v>
       </c>
       <c r="EB3">
-        <v>0.7233157047257993</v>
+        <v>1</v>
       </c>
       <c r="EC3">
-        <v>0.7233371096683847</v>
+        <v>1</v>
       </c>
       <c r="ED3">
-        <v>0.7419095399192351</v>
+        <v>1</v>
       </c>
       <c r="EE3">
-        <v>0.7427230344979776</v>
+        <v>1</v>
       </c>
       <c r="EF3">
-        <v>0.7445580630409153</v>
+        <v>1</v>
       </c>
       <c r="EG3">
-        <v>0.7463150418950686</v>
+        <v>1</v>
       </c>
       <c r="EH3">
-        <v>0.7483305747052363</v>
+        <v>1</v>
       </c>
       <c r="EI3">
-        <v>0.7499581479627235</v>
+        <v>1</v>
       </c>
       <c r="EJ3">
-        <v>0.750755914062182</v>
+        <v>1</v>
       </c>
       <c r="EK3">
-        <v>0.7522786767358843</v>
+        <v>1</v>
       </c>
       <c r="EL3">
-        <v>0.7585647588158269</v>
+        <v>1</v>
       </c>
       <c r="EM3">
-        <v>0.7740422354745249</v>
+        <v>1</v>
       </c>
       <c r="EN3">
-        <v>0.7800301356287143</v>
+        <v>1</v>
       </c>
       <c r="EO3">
-        <v>0.7801622721010198</v>
+        <v>1</v>
       </c>
       <c r="EP3">
-        <v>0.7844730377338344</v>
+        <v>1</v>
       </c>
       <c r="EQ3">
-        <v>0.7883068505204511</v>
+        <v>1</v>
       </c>
       <c r="ER3">
-        <v>0.7902962301687984</v>
+        <v>1</v>
       </c>
       <c r="ES3">
-        <v>0.7947818019817801</v>
+        <v>1</v>
       </c>
       <c r="ET3">
-        <v>0.8018162026446701</v>
+        <v>1</v>
       </c>
       <c r="EU3">
-        <v>0.8214368118576848</v>
+        <v>1</v>
       </c>
       <c r="EV3">
-        <v>0.8222118606765106</v>
+        <v>1</v>
       </c>
       <c r="EW3">
-        <v>0.8238665066591268</v>
+        <v>1</v>
       </c>
       <c r="EX3">
-        <v>0.824200748040948</v>
+        <v>1</v>
       </c>
       <c r="EY3">
-        <v>0.8401838232451158</v>
+        <v>1</v>
       </c>
       <c r="EZ3">
-        <v>0.8490193151626779</v>
+        <v>1</v>
       </c>
       <c r="FA3">
-        <v>0.8618780978969798</v>
+        <v>1</v>
       </c>
       <c r="FB3">
-        <v>0.8879812668197662</v>
+        <v>1</v>
       </c>
       <c r="FC3">
-        <v>0.8892883144660001</v>
+        <v>1</v>
       </c>
       <c r="FD3">
-        <v>0.8959253656127528</v>
+        <v>1</v>
       </c>
       <c r="FE3">
-        <v>0.9000036420010029</v>
+        <v>1</v>
       </c>
       <c r="FF3">
-        <v>0.9169590071518146</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.9239488323339238</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.9241321998919063</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.9277538703247975</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.927800955870828</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.9285389944702355</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.9285389944702355</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.9306945034476234</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.9322987487462914</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.9365730934615332</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.942087304618248</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.943691549916916</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.9444025068760382</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.9466637111412568</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.9467486770409821</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.9470854152375264</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.9485885039644318</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.9489462220479434</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.9491049651930632</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.949653482095111</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.9496715477156644</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.9572977160162432</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.9659612996802737</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.968042323829337</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.9682330285408861</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9693770527382473</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.9695584346204713</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.9700157899027273</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.970590854286962</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.9710701587840964</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.9714666348483172</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.9714666348483172</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.9759450615141538</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.9790433450604122</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.9792412515754253</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.9792602264667892</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.9829440637868242</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.9920664564515124</v>
+        <v>1</v>
       </c>
       <c r="GR3">
-        <v>0.9981193798488086</v>
+        <v>1</v>
       </c>
       <c r="GS3">
         <v>1</v>
@@ -8197,766 +8197,766 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.933016463608139E-07</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>5.851390941080632E-06</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>5.851390941080632E-06</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>5.851390941080632E-06</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>5.851390941080632E-06</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>3.007106385973754E-05</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>8.941104720405147E-05</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0001261343303244847</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0001609603755411921</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0001998133612892974</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0002178532463126954</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0002178532463126954</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0002178532463126954</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0002178532463126954</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0002178532463126954</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0002178532463126954</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.000221891238503234</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.000221891238503234</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0002376400752955175</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0002519521432761566</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0002595122739762278</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.000294443586597066</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0003520739366077364</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0003889045669611337</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0003989978038894052</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0004144563256440319</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0004540081629476504</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0004885640539349687</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.000499711977577462</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.0005003601003536559</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0005003601003536559</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0005003601003536559</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0005003601003536559</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.0005140292857244342</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.000561848824527503</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.0006075676028993165</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.0006588253313039113</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.0007334632325214995</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.000838037648710538</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.0009356430987331511</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.001029281754869574</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.001104940536311315</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.001198018436515128</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.001261104477251651</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.001287679819435022</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.001322882355768317</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.001364913017271075</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.001389132690189732</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.001389132690189732</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.001389132690189732</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.001389132690189732</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.001389132690189732</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.00139743721117466</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.001426892604103132</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.001469238170735483</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.001519532317949704</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.001601589103930233</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.001746780512441852</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.001835853618532616</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.001862695940575296</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.001940559310510638</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.002007622284674786</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.002007622284674786</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.002007622284674786</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.002007622284674786</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.002007622284674786</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.002013549163379248</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.002063075952984328</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.002120578440129956</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.002163012971315366</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.002229212430617698</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.002331440178439817</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.002473040529429491</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.002746825238869737</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.002914093424040083</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.003065305851826618</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.003317851579755321</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.003462168628225374</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.003565566753365865</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.003657527563971837</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.003697957545102007</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.003697957545102007</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.003697957545102007</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.003697957545102007</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.003710047746473657</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.00374021402088808</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.003805343110063295</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.004176510958376223</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.1825309468333448</v>
+        <v>0.3960268906675291</v>
       </c>
       <c r="CO4">
-        <v>0.1830671667205002</v>
+        <v>0.3960268906675291</v>
       </c>
       <c r="CP4">
-        <v>0.382694993998025</v>
+        <v>0.8488641503721462</v>
       </c>
       <c r="CQ4">
-        <v>0.4150354926589916</v>
+        <v>0.8549623502767668</v>
       </c>
       <c r="CR4">
-        <v>0.4199207539438087</v>
+        <v>0.8549623502767668</v>
       </c>
       <c r="CS4">
-        <v>0.4344260277502207</v>
+        <v>0.8549623502767668</v>
       </c>
       <c r="CT4">
-        <v>0.4360323239122423</v>
+        <v>0.8549623502767668</v>
       </c>
       <c r="CU4">
-        <v>0.43651724858496</v>
+        <v>0.8549623502767668</v>
       </c>
       <c r="CV4">
-        <v>0.4478409796585802</v>
+        <v>0.8549623502767668</v>
       </c>
       <c r="CW4">
-        <v>0.4551103101455406</v>
+        <v>0.8549623502767668</v>
       </c>
       <c r="CX4">
-        <v>0.4684563855882701</v>
+        <v>0.8549623502767668</v>
       </c>
       <c r="CY4">
-        <v>0.5259192119025381</v>
+        <v>0.9281494631829693</v>
       </c>
       <c r="CZ4">
-        <v>0.5271554065830792</v>
+        <v>0.9281494631829693</v>
       </c>
       <c r="DA4">
-        <v>0.5288258155988359</v>
+        <v>0.9281494631829693</v>
       </c>
       <c r="DB4">
-        <v>0.5480028570611748</v>
+        <v>0.9281494631829693</v>
       </c>
       <c r="DC4">
-        <v>0.559030209017889</v>
+        <v>0.9281494631829693</v>
       </c>
       <c r="DD4">
-        <v>0.6131734260439499</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="DE4">
-        <v>0.61584527214183</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="DF4">
-        <v>0.6164313809383404</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="DG4">
-        <v>0.6220086121011664</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="DH4">
-        <v>0.6220086121011664</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="DI4">
-        <v>0.6239173194851072</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="DJ4">
-        <v>0.6299636788442516</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="DK4">
-        <v>0.6313254059792145</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="DL4">
-        <v>0.6366226160042001</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="DM4">
-        <v>0.6369038175336094</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="DN4">
-        <v>0.6589564984992677</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="DO4">
-        <v>0.6665189067382047</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="DP4">
-        <v>0.6792619536019937</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="DQ4">
-        <v>0.6984013266077599</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="DR4">
-        <v>0.6984034111735914</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="DS4">
-        <v>0.6996285161065601</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="DT4">
-        <v>0.7000005160968951</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="DU4">
-        <v>0.7005075311678974</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="DV4">
-        <v>0.7012345253143469</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="DW4">
-        <v>0.7012454657161766</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="DX4">
-        <v>0.705036495874708</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="DY4">
-        <v>0.7108077134245715</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="DZ4">
-        <v>0.7164309241402212</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="EA4">
-        <v>0.720175119760871</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="EB4">
-        <v>0.7288393641831014</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="EC4">
-        <v>0.7304610220110028</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="ED4">
-        <v>0.7491640779996611</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="EE4">
-        <v>0.7529374113707543</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="EF4">
-        <v>0.7532368766639765</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="EG4">
-        <v>0.7544543360459208</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="EH4">
-        <v>0.7579098900140884</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="EI4">
-        <v>0.7603561372287576</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="EJ4">
-        <v>0.7605003042689465</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="EK4">
-        <v>0.7613564816159214</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="EL4">
-        <v>0.7676574563271352</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="EM4">
-        <v>0.7839778283297697</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="EN4">
-        <v>0.7916734103643787</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="EO4">
-        <v>0.7916734103643787</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="EP4">
-        <v>0.7974198263312765</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="EQ4">
-        <v>0.8035395901168237</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="ER4">
-        <v>0.8037039491677245</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="ES4">
-        <v>0.8090776357518236</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="ET4">
-        <v>0.8125308821624295</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="EU4">
-        <v>0.8308951746283748</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="EV4">
-        <v>0.83525104530288</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="EW4">
-        <v>0.8363027405226127</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="EX4">
-        <v>0.8363896281245188</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="EY4">
-        <v>0.8500488004986664</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="EZ4">
-        <v>0.8601600294508399</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="FA4">
-        <v>0.8641489364290035</v>
+        <v>0.9924715942368033</v>
       </c>
       <c r="FB4">
-        <v>0.8970249945227183</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.8970815871373715</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.9046595344540936</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.9051856022005611</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.925480533117806</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.9362436525939251</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.9366866713016536</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.9386707068784936</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.93870488882628</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.9398938883316316</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.940399936136889</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.941073585129463</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.9418076702794186</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.9450511751234686</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.9509953910315064</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.9540507504497447</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.9541778322423355</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.9558442702383947</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.9558442702383947</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.9558442702383947</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.9572868322513787</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.9576333523739432</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.9578153542971046</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.9593491384045837</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.9595177087831157</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.9626434470030261</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.9703199331017301</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.9723880354602493</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.9723880354602493</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.9728805393098876</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.9729725001204935</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.9733500920138045</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.9737020788286377</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.9743922198815801</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.9749425535673851</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.9752246888647661</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.9785243197191327</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.9812713926746374</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.9813793998909148</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.9814234647072075</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.9835209073864869</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
-        <v>0.9913618132259983</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.9971330307758618</v>
+        <v>1</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,601 +8964,601 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0002295880209986128</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0004806867385710281</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0005339105022733325</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0005526769335486878</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0006365772460064362</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.000714572113087353</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.000714572113087353</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0007273612659936234</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0007273612659936234</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0007273612659936234</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0007382267956983958</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0008282807804760842</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0008948471702099057</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0008953313590650539</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0009141192873961604</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.001060828882701373</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.001109569047118685</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.001109569047118685</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.001117596298935477</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.001158283536165173</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.001161872931989674</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.001161872931989674</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.001161872931989674</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.001161872931989674</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.001161872931989674</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.001235290833709009</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.001332903765750938</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.001363103702362592</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.001392186087309423</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.001530317927028482</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.001706167341849077</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.001771090217619903</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.001820030863098769</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.001883893437627223</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.001918747850097241</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.001941845441712621</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.001941845441712621</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.001941845441712621</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.001944722441922868</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.001944722441922868</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.001956728328386011</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.00195911346925535</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.001972975643496106</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.001987943590055959</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.002018546583452626</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.002117500739620975</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.002211319961735716</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.002232308106717397</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.002280120745236216</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.002383675471494124</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.002455171142116455</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.002480860659163924</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.002506201057220593</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.002511289574947516</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.002511289574947516</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.002512410866579627</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.002512410866579627</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.002512410866579627</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.002565634630281931</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.002633244103597643</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.002713576585340635</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.002803587075609806</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.002872559033920299</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.002957665008950011</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.003092759078504036</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.003179688884560194</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.003267230736212963</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.003332153611983789</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.003354256481387161</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.003359527771625685</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.003359527771625685</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.003359527771625685</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.003366459415187543</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.003403368930174669</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.003478813123552595</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.003529907924136834</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.003632137959385687</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.003722814367994071</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.003766554481373879</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.00385170280400215</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.003958605056185126</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.004031780659665183</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.004040721250124309</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.004056540023729831</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.00406067623639849</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.00406067623639849</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.00406067623639849</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.00406067623639849</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.004073979030827638</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.005019896617275257</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.1720424617866347</v>
+        <v>0.3576078542194381</v>
       </c>
       <c r="CO5">
-        <v>0.172260522131582</v>
+        <v>0.3576078542194381</v>
       </c>
       <c r="CP5">
-        <v>0.3698542224212705</v>
+        <v>0.795013071295664</v>
       </c>
       <c r="CQ5">
-        <v>0.4501652056733728</v>
+        <v>0.9262846923689456</v>
       </c>
       <c r="CR5">
-        <v>0.4505716997315156</v>
+        <v>0.9262846923689456</v>
       </c>
       <c r="CS5">
-        <v>0.4582636400783885</v>
+        <v>0.9262846923689456</v>
       </c>
       <c r="CT5">
-        <v>0.4582992988930708</v>
+        <v>0.9262846923689456</v>
       </c>
       <c r="CU5">
-        <v>0.465437421341154</v>
+        <v>0.9262846923689456</v>
       </c>
       <c r="CV5">
-        <v>0.4771892928349719</v>
+        <v>0.9262846923689456</v>
       </c>
       <c r="CW5">
-        <v>0.4948561843021007</v>
+        <v>0.9262846923689456</v>
       </c>
       <c r="CX5">
-        <v>0.5027657613217797</v>
+        <v>0.9262846923689456</v>
       </c>
       <c r="CY5">
-        <v>0.5538686518906077</v>
+        <v>0.9813167900804646</v>
       </c>
       <c r="CZ5">
-        <v>0.5592136832012543</v>
+        <v>0.9813167900804646</v>
       </c>
       <c r="DA5">
-        <v>0.5672203252322553</v>
+        <v>0.9813167900804646</v>
       </c>
       <c r="DB5">
-        <v>0.587746690404112</v>
+        <v>0.9813167900804646</v>
       </c>
       <c r="DC5">
-        <v>0.5899422062911043</v>
+        <v>0.9813167900804646</v>
       </c>
       <c r="DD5">
-        <v>0.627119489291212</v>
+        <v>1</v>
       </c>
       <c r="DE5">
-        <v>0.6272745102507487</v>
+        <v>1</v>
       </c>
       <c r="DF5">
-        <v>0.629309707741221</v>
+        <v>1</v>
       </c>
       <c r="DG5">
-        <v>0.6307830382467633</v>
+        <v>1</v>
       </c>
       <c r="DH5">
-        <v>0.6311159947802779</v>
+        <v>1</v>
       </c>
       <c r="DI5">
-        <v>0.6311266125273921</v>
+        <v>1</v>
       </c>
       <c r="DJ5">
-        <v>0.6355485814809164</v>
+        <v>1</v>
       </c>
       <c r="DK5">
-        <v>0.6405186796198087</v>
+        <v>1</v>
       </c>
       <c r="DL5">
-        <v>0.6484738598210247</v>
+        <v>1</v>
       </c>
       <c r="DM5">
-        <v>0.6484863674936047</v>
+        <v>1</v>
       </c>
       <c r="DN5">
-        <v>0.6663579963992948</v>
+        <v>1</v>
       </c>
       <c r="DO5">
-        <v>0.6774498942704351</v>
+        <v>1</v>
       </c>
       <c r="DP5">
-        <v>0.6819706181760794</v>
+        <v>1</v>
       </c>
       <c r="DQ5">
-        <v>0.7007524422300561</v>
+        <v>1</v>
       </c>
       <c r="DR5">
-        <v>0.7013512010109149</v>
+        <v>1</v>
       </c>
       <c r="DS5">
-        <v>0.7017129476464793</v>
+        <v>1</v>
       </c>
       <c r="DT5">
-        <v>0.7017293235220892</v>
+        <v>1</v>
       </c>
       <c r="DU5">
-        <v>0.7018335436562814</v>
+        <v>1</v>
       </c>
       <c r="DV5">
-        <v>0.7046176098987739</v>
+        <v>1</v>
       </c>
       <c r="DW5">
-        <v>0.7049252114156335</v>
+        <v>1</v>
       </c>
       <c r="DX5">
-        <v>0.7062396653686139</v>
+        <v>1</v>
       </c>
       <c r="DY5">
-        <v>0.7091972172545122</v>
+        <v>1</v>
       </c>
       <c r="DZ5">
-        <v>0.7162625219290174</v>
+        <v>1</v>
       </c>
       <c r="EA5">
-        <v>0.7192061606762398</v>
+        <v>1</v>
       </c>
       <c r="EB5">
-        <v>0.7290230599642663</v>
+        <v>1</v>
       </c>
       <c r="EC5">
-        <v>0.7306439629537291</v>
+        <v>1</v>
       </c>
       <c r="ED5">
-        <v>0.7439791006099739</v>
+        <v>1</v>
       </c>
       <c r="EE5">
-        <v>0.7500114656507911</v>
+        <v>1</v>
       </c>
       <c r="EF5">
-        <v>0.7509495099906096</v>
+        <v>1</v>
       </c>
       <c r="EG5">
-        <v>0.7515171452180598</v>
+        <v>1</v>
       </c>
       <c r="EH5">
-        <v>0.7550826180280558</v>
+        <v>1</v>
       </c>
       <c r="EI5">
-        <v>0.7577117820712359</v>
+        <v>1</v>
       </c>
       <c r="EJ5">
-        <v>0.7577191458161266</v>
+        <v>1</v>
       </c>
       <c r="EK5">
-        <v>0.758160143829687</v>
+        <v>1</v>
       </c>
       <c r="EL5">
-        <v>0.7610379024076224</v>
+        <v>1</v>
       </c>
       <c r="EM5">
-        <v>0.7726238542608966</v>
+        <v>1</v>
       </c>
       <c r="EN5">
-        <v>0.7833978954447312</v>
+        <v>1</v>
       </c>
       <c r="EO5">
-        <v>0.7834400660568697</v>
+        <v>1</v>
       </c>
       <c r="EP5">
-        <v>0.7887850973675162</v>
+        <v>1</v>
       </c>
       <c r="EQ5">
-        <v>0.797002142332079</v>
+        <v>1</v>
       </c>
       <c r="ER5">
-        <v>0.7972980694264588</v>
+        <v>1</v>
       </c>
       <c r="ES5">
-        <v>0.8007253638057704</v>
+        <v>1</v>
       </c>
       <c r="ET5">
-        <v>0.8041006423157224</v>
+        <v>1</v>
       </c>
       <c r="EU5">
-        <v>0.8204292569948476</v>
+        <v>1</v>
       </c>
       <c r="EV5">
-        <v>0.8275781997277383</v>
+        <v>1</v>
       </c>
       <c r="EW5">
-        <v>0.8282127177699736</v>
+        <v>1</v>
       </c>
       <c r="EX5">
-        <v>0.8289136810798446</v>
+        <v>1</v>
       </c>
       <c r="EY5">
-        <v>0.8384566710483808</v>
+        <v>1</v>
       </c>
       <c r="EZ5">
-        <v>0.8496131671717357</v>
+        <v>1</v>
       </c>
       <c r="FA5">
-        <v>0.8519073006018277</v>
+        <v>1</v>
       </c>
       <c r="FB5">
-        <v>0.8790194729491605</v>
+        <v>1</v>
       </c>
       <c r="FC5">
-        <v>0.8811361779076091</v>
+        <v>1</v>
       </c>
       <c r="FD5">
-        <v>0.8834075755991798</v>
+        <v>1</v>
       </c>
       <c r="FE5">
-        <v>0.883899119916147</v>
+        <v>1</v>
       </c>
       <c r="FF5">
-        <v>0.9003500566455137</v>
+        <v>1</v>
       </c>
       <c r="FG5">
-        <v>0.912150544211294</v>
+        <v>1</v>
       </c>
       <c r="FH5">
-        <v>0.9159589573700175</v>
+        <v>1</v>
       </c>
       <c r="FI5">
-        <v>0.9166735801172781</v>
+        <v>1</v>
       </c>
       <c r="FJ5">
-        <v>0.9167121481451284</v>
+        <v>1</v>
       </c>
       <c r="FK5">
-        <v>0.9167121481451284</v>
+        <v>1</v>
       </c>
       <c r="FL5">
-        <v>0.9174121432868554</v>
+        <v>1</v>
       </c>
       <c r="FM5">
-        <v>0.9177036522358812</v>
+        <v>1</v>
       </c>
       <c r="FN5">
-        <v>0.9197970530047999</v>
+        <v>1</v>
       </c>
       <c r="FO5">
-        <v>0.9265879968015486</v>
+        <v>1</v>
       </c>
       <c r="FP5">
-        <v>0.9357626034950146</v>
+        <v>1</v>
       </c>
       <c r="FQ5">
-        <v>0.9411827762228167</v>
+        <v>1</v>
       </c>
       <c r="FR5">
-        <v>0.9418820412852992</v>
+        <v>1</v>
       </c>
       <c r="FS5">
-        <v>0.9420934075391586</v>
+        <v>1</v>
       </c>
       <c r="FT5">
-        <v>0.9422181782781883</v>
+        <v>1</v>
       </c>
       <c r="FU5">
-        <v>0.9423170869382601</v>
+        <v>1</v>
       </c>
       <c r="FV5">
-        <v>0.9435898867428641</v>
+        <v>1</v>
       </c>
       <c r="FW5">
-        <v>0.9439455382125276</v>
+        <v>1</v>
       </c>
       <c r="FX5">
-        <v>0.944099406477517</v>
+        <v>1</v>
       </c>
       <c r="FY5">
-        <v>0.9456780257190796</v>
+        <v>1</v>
       </c>
       <c r="FZ5">
-        <v>0.9457253776670868</v>
+        <v>1</v>
       </c>
       <c r="GA5">
-        <v>0.9483858287333723</v>
+        <v>1</v>
       </c>
       <c r="GB5">
-        <v>0.9563720385534694</v>
+        <v>1</v>
       </c>
       <c r="GC5">
-        <v>0.9615542036461561</v>
+        <v>1</v>
       </c>
       <c r="GD5">
-        <v>0.9629012244376468</v>
+        <v>1</v>
       </c>
       <c r="GE5">
-        <v>0.9641946870360992</v>
+        <v>1</v>
       </c>
       <c r="GF5">
-        <v>0.9644698448721619</v>
+        <v>1</v>
       </c>
       <c r="GG5">
-        <v>0.9657771746728443</v>
+        <v>1</v>
       </c>
       <c r="GH5">
-        <v>0.9658128617949857</v>
+        <v>1</v>
       </c>
       <c r="GI5">
-        <v>0.9660154587112579</v>
+        <v>1</v>
       </c>
       <c r="GJ5">
-        <v>0.9666977368363144</v>
+        <v>1</v>
       </c>
       <c r="GK5">
-        <v>0.9673161850787803</v>
+        <v>1</v>
       </c>
       <c r="GL5">
-        <v>0.9685314975729866</v>
+        <v>1</v>
       </c>
       <c r="GM5">
-        <v>0.9724436100066528</v>
+        <v>1</v>
       </c>
       <c r="GN5">
-        <v>0.9728725391247587</v>
+        <v>1</v>
       </c>
       <c r="GO5">
-        <v>0.9728725391247587</v>
+        <v>1</v>
       </c>
       <c r="GP5">
-        <v>0.9764612559765635</v>
+        <v>1</v>
       </c>
       <c r="GQ5">
-        <v>0.9859355954778601</v>
+        <v>1</v>
       </c>
       <c r="GR5">
-        <v>0.9936219233718163</v>
+        <v>1</v>
       </c>
       <c r="GS5">
         <v>1</v>
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0001456178432978102</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0001903407442233074</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0002230269184152149</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0002498086155196981</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0002498086155196981</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0002532793302002216</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0002532793302002216</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0002535649886792743</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0002535649886792743</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0002945218108004419</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0003649228575292546</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0004000689185476989</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0004180725304155816</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0004960788958898033</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0005904545693929871</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0006096655765500112</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0006229071866247026</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.00065642718034543</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0006912450118864503</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0007044866219611417</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0007044866219611417</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0007044866219611417</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0007101568136874513</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0007103036655343249</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0007279265296481797</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0007700942335415541</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0007863325838258301</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0008566826924969841</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0009839747266852765</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.001094455831656336</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.001189040544122652</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.001293240988884706</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.001400273642059849</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.001516622870081345</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.001577149983739733</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.001605538960538841</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.001671782316203978</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.001701672057939691</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.001713202218886693</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.001714142336143461</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.001714142336143461</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.001714142336143461</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.001725984022253442</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.001739848230591455</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.00178724216059804</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.001859039785828037</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.001902516005021109</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.001991610306770448</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.002078120504482489</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.002117323015537285</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.002140921301568236</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.002166735059561128</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.002166966320853247</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.002167197582145365</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.002167197582145365</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.002169369838219583</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.002169369838219583</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.002174026796058541</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.00220545502795783</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.002253763948739815</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.002266274369505488</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.00228075119172345</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.002305831544100247</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.00234586791168899</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.002366422741037614</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.002406109170141068</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.002433470053493977</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.002441783596766548</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.002441783596766548</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.002442452475242167</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.002442452475242167</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.002442970809359301</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.002451385358626631</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.002467087334594236</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.002482128239968033</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.00250309296810967</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.002524572338556928</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.002545537066698566</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.002573368570257667</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.002588409475631463</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.002596332685821923</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.002611592438517836</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.00262156247530379</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.00262156247530379</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.002627094535191416</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.002630343301020095</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.002634563584156136</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.002638307442281707</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.002658862271630331</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.00269479892118778</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.002888708315460923</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.05654193589857798</v>
+        <v>0.07421075610832119</v>
       </c>
       <c r="CP6">
-        <v>0.1135871714571097</v>
+        <v>0.159065303261979</v>
       </c>
       <c r="CQ6">
-        <v>0.2223586058743082</v>
+        <v>0.406231630403088</v>
       </c>
       <c r="CR6">
-        <v>0.3981154153662135</v>
+        <v>0.863591548053525</v>
       </c>
       <c r="CS6">
-        <v>0.404522244283766</v>
+        <v>0.863591548053525</v>
       </c>
       <c r="CT6">
-        <v>0.4136889770963444</v>
+        <v>0.863591548053525</v>
       </c>
       <c r="CU6">
-        <v>0.4170056709641072</v>
+        <v>0.863591548053525</v>
       </c>
       <c r="CV6">
-        <v>0.4184952566791895</v>
+        <v>0.863591548053525</v>
       </c>
       <c r="CW6">
-        <v>0.4195888792320919</v>
+        <v>0.863591548053525</v>
       </c>
       <c r="CX6">
-        <v>0.4335879165785698</v>
+        <v>0.863591548053525</v>
       </c>
       <c r="CY6">
-        <v>0.4339374957014672</v>
+        <v>0.863591548053525</v>
       </c>
       <c r="CZ6">
-        <v>0.5026581249295388</v>
+        <v>0.9850823447358822</v>
       </c>
       <c r="DA6">
-        <v>0.5197893742557227</v>
+        <v>0.9850823447358822</v>
       </c>
       <c r="DB6">
-        <v>0.5211799335503233</v>
+        <v>0.9850823447358822</v>
       </c>
       <c r="DC6">
-        <v>0.5415736949097739</v>
+        <v>0.9850823447358822</v>
       </c>
       <c r="DD6">
-        <v>0.5449635571152841</v>
+        <v>0.9850823447358822</v>
       </c>
       <c r="DE6">
-        <v>0.579721010618101</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DF6">
-        <v>0.5898665850528538</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DG6">
-        <v>0.5968238822398476</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DH6">
-        <v>0.5969546846804159</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DI6">
-        <v>0.5993238396631159</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DJ6">
-        <v>0.5993539150775772</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DK6">
-        <v>0.6008274065627436</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DL6">
-        <v>0.6049130686739378</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DM6">
-        <v>0.6052281830916211</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DN6">
-        <v>0.6096436866035773</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DO6">
-        <v>0.6223791958835072</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DP6">
-        <v>0.6455055498539028</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DQ6">
-        <v>0.6455055498539028</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DR6">
-        <v>0.6670163839879719</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DS6">
-        <v>0.6704931578354157</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DT6">
-        <v>0.6723340121200745</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DU6">
-        <v>0.6731696466277666</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DV6">
-        <v>0.6737638462837553</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DW6">
-        <v>0.674778098339578</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DX6">
-        <v>0.6760926642050042</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DY6">
-        <v>0.6766376810465298</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DZ6">
-        <v>0.6803382164969821</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EA6">
-        <v>0.6869493992285213</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EB6">
-        <v>0.6898364593689214</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EC6">
-        <v>0.6948068160578642</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ED6">
-        <v>0.704550374291766</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EE6">
-        <v>0.7087777023313054</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EF6">
-        <v>0.7221152940320107</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EG6">
-        <v>0.7229830024836679</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EH6">
-        <v>0.723250741147263</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EI6">
-        <v>0.727481641681785</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EJ6">
-        <v>0.7295507475915616</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EK6">
-        <v>0.7296618087218973</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EL6">
-        <v>0.7314618977583782</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EM6">
-        <v>0.7316930735560512</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EN6">
-        <v>0.7440379727154853</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EO6">
-        <v>0.7606617577305875</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EP6">
-        <v>0.7627786193570977</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EQ6">
-        <v>0.766187699925384</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ER6">
-        <v>0.7755793238974752</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ES6">
-        <v>0.7782648703173942</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ET6">
-        <v>0.7821118318557296</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EU6">
-        <v>0.7821119282482452</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EV6">
-        <v>0.7931137258159212</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EW6">
-        <v>0.8080315109583487</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EX6">
-        <v>0.8082089257672352</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EY6">
-        <v>0.8085283403807267</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EZ6">
-        <v>0.8120213295748676</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FA6">
-        <v>0.827727553458437</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FB6">
-        <v>0.8285318892695774</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FC6">
-        <v>0.8578472717530635</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FD6">
-        <v>0.8747448577043113</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FE6">
-        <v>0.8771317218406809</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FF6">
-        <v>0.8789004791360315</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FG6">
-        <v>0.8922952277560422</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FH6">
-        <v>0.9113308529406369</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FI6">
-        <v>0.9169191943536789</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FJ6">
-        <v>0.9175040521553187</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FK6">
-        <v>0.9179983344973892</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FL6">
-        <v>0.9180159573615031</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FM6">
-        <v>0.9187002751036903</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FN6">
-        <v>0.9187423026141593</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FO6">
-        <v>0.9199184909068544</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FP6">
-        <v>0.9243048390792291</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FQ6">
-        <v>0.9328360658400628</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FR6">
-        <v>0.9398117033681797</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FS6">
-        <v>0.9414982532733884</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FT6">
-        <v>0.941714616368706</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FU6">
-        <v>0.9418876593818639</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FV6">
-        <v>0.942244067260911</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FW6">
-        <v>0.942918357873802</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FX6">
-        <v>0.9439768323568076</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FY6">
-        <v>0.9439932976855406</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FZ6">
-        <v>0.9457747865448972</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GA6">
-        <v>0.9469247399026437</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GB6">
-        <v>0.9471946340048828</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GC6">
-        <v>0.9565564168423729</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GD6">
-        <v>0.9647853757228593</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GE6">
-        <v>0.965304265094326</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GF6">
-        <v>0.9659601299642612</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GG6">
-        <v>0.9665495026914609</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GH6">
-        <v>0.9677245414248802</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GI6">
-        <v>0.9679400959181629</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GJ6">
-        <v>0.9687671900025473</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GK6">
-        <v>0.9688230794516399</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GL6">
-        <v>0.9708093115789435</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GM6">
-        <v>0.9710981501860148</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GN6">
-        <v>0.9775561301907421</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GO6">
-        <v>0.9797100841565347</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GP6">
-        <v>0.9798062844628476</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GQ6">
-        <v>0.9802993454456942</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GR6">
-        <v>0.9889809100363975</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E2">
-        <v>0.002939391887953976</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.510285053972771</v>
+        <v>0.6093018091047215</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>57</v>
@@ -10611,16 +10611,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.002210782247000994</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5356817202484082</v>
+        <v>0.9133166500981603</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>57</v>
@@ -10652,16 +10652,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.003805343110063295</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5259192119025381</v>
+        <v>0.8488641503721462</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>57</v>
@@ -10693,16 +10693,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.004073979030827638</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5027657613217797</v>
+        <v>0.795013071295664</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>57</v>
@@ -10734,16 +10734,16 @@
         <v>91</v>
       </c>
       <c r="D6">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E6">
-        <v>0.002888708315460923</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5026581249295388</v>
+        <v>0.863591548053525</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>57</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="E2">
-        <v>0.002939391887953976</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7053037341072763</v>
+        <v>0.887532020103422</v>
       </c>
       <c r="G2">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>57</v>
@@ -10870,16 +10870,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.002210782247000994</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7038722811591759</v>
+        <v>0.9133166500981603</v>
       </c>
       <c r="G3">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>57</v>
@@ -10911,16 +10911,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.003805343110063295</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7000005160968951</v>
+        <v>0.8488641503721462</v>
       </c>
       <c r="G4">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>57</v>
@@ -10952,16 +10952,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.004073979030827638</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7007524422300561</v>
+        <v>0.795013071295664</v>
       </c>
       <c r="G5">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>57</v>
@@ -10993,16 +10993,16 @@
         <v>91</v>
       </c>
       <c r="D6">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="E6">
-        <v>0.002888708315460923</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.704550374291766</v>
+        <v>0.863591548053525</v>
       </c>
       <c r="G6">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>57</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="E2">
-        <v>0.002939391887953976</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8028431472875893</v>
+        <v>0.887532020103422</v>
       </c>
       <c r="G2">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>57</v>
@@ -11129,16 +11129,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.002210782247000994</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8018162026446701</v>
+        <v>0.9133166500981603</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>57</v>
@@ -11170,16 +11170,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.003805343110063295</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8035395901168237</v>
+        <v>0.8488641503721462</v>
       </c>
       <c r="G4">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>57</v>
@@ -11211,16 +11211,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="E5">
-        <v>0.004073979030827638</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8007253638057704</v>
+        <v>0.9262846923689456</v>
       </c>
       <c r="G5">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>57</v>
@@ -11252,16 +11252,16 @@
         <v>91</v>
       </c>
       <c r="D6">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="E6">
-        <v>0.002888708315460923</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8080315109583487</v>
+        <v>0.863591548053525</v>
       </c>
       <c r="G6">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>57</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="E2">
-        <v>0.002939391887953976</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9068989086192102</v>
+        <v>0.9805097332390693</v>
       </c>
       <c r="G2">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>57</v>
@@ -11388,16 +11388,16 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.002210782247000994</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9000036420010029</v>
+        <v>0.9133166500981603</v>
       </c>
       <c r="G3">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>57</v>
@@ -11429,16 +11429,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="E4">
-        <v>0.003805343110063295</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9046595344540936</v>
+        <v>0.9281494631829693</v>
       </c>
       <c r="G4">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>57</v>
@@ -11470,16 +11470,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="E5">
-        <v>0.004073979030827638</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9003500566455137</v>
+        <v>0.9262846923689456</v>
       </c>
       <c r="G5">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>57</v>
@@ -11511,16 +11511,16 @@
         <v>91</v>
       </c>
       <c r="D6">
-        <v>163</v>
+        <v>103</v>
       </c>
       <c r="E6">
-        <v>0.002888708315460923</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9113308529406369</v>
+        <v>0.9850823447358822</v>
       </c>
       <c r="G6">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>57</v>

--- a/on_trucks/Processed_Stand_Alone/57_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/57_11R22.xlsx
@@ -183,7 +183,7 @@
     <t>11R22.5</t>
   </si>
   <si>
-    <t>710Rバフ50</t>
+    <t>710R</t>
   </si>
   <si>
     <t>50%</t>
@@ -674,25 +674,25 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1040043358632571</v>
+        <v>0.09907522425511477</v>
       </c>
       <c r="E2">
-        <v>0.03794770698806239</v>
+        <v>0.05172620169333811</v>
       </c>
       <c r="F2">
-        <v>0.2983349805667274</v>
+        <v>0.2383703447780526</v>
       </c>
       <c r="G2">
-        <v>0.1591096880534501</v>
+        <v>0.138574432866832</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.006199035702297708</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.005591863574263263</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -701,28 +701,28 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.02281980210887334</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.2521703554196036</v>
+        <v>0.2052797993647073</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.004504079838684101</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.01713045047572648</v>
+        <v>0.03680450851793868</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.101618033822911</v>
+        <v>0.09736473628333166</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -752,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.009506137458258634</v>
+        <v>0.03133944353915809</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.02336132930979603</v>
       </c>
       <c r="AF2">
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.02017831135200314</v>
+        <v>0.03898919816761246</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -784,22 +784,22 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.4461398543608296</v>
+        <v>0.3538781619529383</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.02548419819053828</v>
       </c>
       <c r="F3">
-        <v>0.401525902701329</v>
+        <v>0.3210796571627028</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.007064426638044304</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.002773113479709287</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -808,16 +808,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.01174076751863892</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.004028127848226357</v>
       </c>
       <c r="N3">
-        <v>0.04943552854519939</v>
+        <v>0.06223601310508348</v>
       </c>
       <c r="O3">
-        <v>0.06897693004524208</v>
+        <v>0.07660211892773543</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1.903349094185803E-05</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.02160909241117735</v>
       </c>
       <c r="T3">
-        <v>0.02797589347050073</v>
+        <v>0.04645969386831118</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.005945890876899096</v>
+        <v>0.03026406181334897</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.02026971142940604</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>0.01649182216319732</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3760507012595428</v>
+        <v>0.3083505097414167</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4268462891085026</v>
+        <v>0.346619634268323</v>
       </c>
       <c r="G4">
-        <v>0.02740559646279967</v>
+        <v>0.04568315030783415</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01359901158220007</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.007875671437466434</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.0005821300365309606</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.01151370671981604</v>
       </c>
       <c r="O4">
-        <v>0.08739149044349742</v>
+        <v>0.09087620237824402</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -936,13 +936,13 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.02200314681396942</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.007342509182449214</v>
       </c>
       <c r="T4">
-        <v>0.07946508594914455</v>
+        <v>0.08490449157637305</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -972,16 +972,16 @@
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.002840836776512903</v>
+        <v>0.02717619158922793</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.001109353400884108</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.01042890668280907</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.02193538428245577</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -1004,55 +1004,55 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3408455164692351</v>
+        <v>0.2867534322645797</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4121560538793759</v>
+        <v>0.3415232597435729</v>
       </c>
       <c r="G5">
-        <v>0.1385812079355555</v>
+        <v>0.131404984673549</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001304076220064982</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.0003118817643436744</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.00857766052171237</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.01917473590664319</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.001693983986844822</v>
       </c>
       <c r="O5">
-        <v>0.07045011702998914</v>
+        <v>0.07907712079290419</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.001867881158259138</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.02429763634433493</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0.03796710468584429</v>
+        <v>0.0541286482851956</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1076,22 +1076,22 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.001775684531343482</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.01954153400374887</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.007395282395664078</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>0.02117219740723891</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1117,22 +1117,22 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.08765313031307989</v>
+        <v>0.08802743037407133</v>
       </c>
       <c r="F6">
-        <v>0.09650987318434735</v>
+        <v>0.09438591364409819</v>
       </c>
       <c r="G6">
-        <v>0.2315701815090231</v>
+        <v>0.1913491791932337</v>
       </c>
       <c r="H6">
-        <v>0.4064731438464168</v>
+        <v>0.3169165097644219</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.00463534085340037</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1144,34 +1144,34 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.01369372979504757</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.1269950490452026</v>
+        <v>0.1162720046724285</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.01956521288573922</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0008106044364682049</v>
+        <v>0.0256809497389969</v>
       </c>
       <c r="T6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.03831509408327968</v>
+        <v>0.05260638648660561</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.006470226892499716</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.0004936467408553195</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1195,16 +1195,16 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.01132518522481476</v>
       </c>
       <c r="AF6">
-        <v>0.007945572957321335</v>
+        <v>0.03080332696405915</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.003727350624861294</v>
+        <v>0.02777495676972805</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -1347,103 +1347,103 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1040043358632571</v>
+        <v>0.09907522425511477</v>
       </c>
       <c r="E2">
-        <v>0.1419520428513195</v>
+        <v>0.1508014259484529</v>
       </c>
       <c r="F2">
-        <v>0.4402870234180469</v>
+        <v>0.3891717707265054</v>
       </c>
       <c r="G2">
-        <v>0.599396711471497</v>
+        <v>0.5277462035933375</v>
       </c>
       <c r="H2">
-        <v>0.599396711471497</v>
+        <v>0.5277462035933375</v>
       </c>
       <c r="I2">
-        <v>0.599396711471497</v>
+        <v>0.5339452392956352</v>
       </c>
       <c r="J2">
-        <v>0.599396711471497</v>
+        <v>0.5395371028698984</v>
       </c>
       <c r="K2">
-        <v>0.599396711471497</v>
+        <v>0.5395371028698984</v>
       </c>
       <c r="L2">
-        <v>0.599396711471497</v>
+        <v>0.5395371028698984</v>
       </c>
       <c r="M2">
-        <v>0.599396711471497</v>
+        <v>0.5623569049787718</v>
       </c>
       <c r="N2">
-        <v>0.599396711471497</v>
+        <v>0.5623569049787718</v>
       </c>
       <c r="O2">
-        <v>0.8515670668911006</v>
+        <v>0.7676367043434791</v>
       </c>
       <c r="P2">
-        <v>0.8515670668911006</v>
+        <v>0.7721407841821631</v>
       </c>
       <c r="Q2">
-        <v>0.8515670668911006</v>
+        <v>0.7721407841821631</v>
       </c>
       <c r="R2">
-        <v>0.8686975173668271</v>
+        <v>0.8089452927001018</v>
       </c>
       <c r="S2">
-        <v>0.8686975173668271</v>
+        <v>0.8089452927001018</v>
       </c>
       <c r="T2">
-        <v>0.9703155511897381</v>
+        <v>0.9063100289834335</v>
       </c>
       <c r="U2">
-        <v>0.9703155511897381</v>
+        <v>0.9063100289834335</v>
       </c>
       <c r="V2">
-        <v>0.9703155511897381</v>
+        <v>0.9063100289834335</v>
       </c>
       <c r="W2">
-        <v>0.9703155511897381</v>
+        <v>0.9063100289834335</v>
       </c>
       <c r="X2">
-        <v>0.9703155511897381</v>
+        <v>0.9063100289834335</v>
       </c>
       <c r="Y2">
-        <v>0.9703155511897381</v>
+        <v>0.9063100289834335</v>
       </c>
       <c r="Z2">
-        <v>0.9703155511897381</v>
+        <v>0.9063100289834335</v>
       </c>
       <c r="AA2">
-        <v>0.9703155511897381</v>
+        <v>0.9063100289834335</v>
       </c>
       <c r="AB2">
-        <v>0.9703155511897381</v>
+        <v>0.9063100289834335</v>
       </c>
       <c r="AC2">
-        <v>0.9703155511897381</v>
+        <v>0.9063100289834335</v>
       </c>
       <c r="AD2">
-        <v>0.9798216886479968</v>
+        <v>0.9376494725225916</v>
       </c>
       <c r="AE2">
-        <v>0.9798216886479968</v>
+        <v>0.9610108018323876</v>
       </c>
       <c r="AF2">
-        <v>0.9798216886479968</v>
+        <v>0.9610108018323876</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -1457,91 +1457,91 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.4461398543608296</v>
+        <v>0.3538781619529383</v>
       </c>
       <c r="E3">
-        <v>0.4461398543608296</v>
+        <v>0.3793623601434766</v>
       </c>
       <c r="F3">
-        <v>0.8476657570621586</v>
+        <v>0.7004420173061794</v>
       </c>
       <c r="G3">
-        <v>0.8476657570621586</v>
+        <v>0.7004420173061794</v>
       </c>
       <c r="H3">
-        <v>0.8476657570621586</v>
+        <v>0.7075064439442237</v>
       </c>
       <c r="I3">
-        <v>0.8476657570621586</v>
+        <v>0.710279557423933</v>
       </c>
       <c r="J3">
-        <v>0.8476657570621586</v>
+        <v>0.710279557423933</v>
       </c>
       <c r="K3">
-        <v>0.8476657570621586</v>
+        <v>0.710279557423933</v>
       </c>
       <c r="L3">
-        <v>0.8476657570621586</v>
+        <v>0.722020324942572</v>
       </c>
       <c r="M3">
-        <v>0.8476657570621586</v>
+        <v>0.7260484527907983</v>
       </c>
       <c r="N3">
-        <v>0.897101285607358</v>
+        <v>0.7882844658958819</v>
       </c>
       <c r="O3">
-        <v>0.9660782156526001</v>
+        <v>0.8648865848236172</v>
       </c>
       <c r="P3">
-        <v>0.9660782156526001</v>
+        <v>0.8648865848236172</v>
       </c>
       <c r="Q3">
-        <v>0.9660782156526001</v>
+        <v>0.8648865848236172</v>
       </c>
       <c r="R3">
-        <v>0.9660782156526001</v>
+        <v>0.8649056183145591</v>
       </c>
       <c r="S3">
-        <v>0.9660782156526001</v>
+        <v>0.8865147107257365</v>
       </c>
       <c r="T3">
-        <v>0.9940541091231009</v>
+        <v>0.9329744045940477</v>
       </c>
       <c r="U3">
-        <v>0.9940541091231009</v>
+        <v>0.9329744045940477</v>
       </c>
       <c r="V3">
-        <v>0.9940541091231009</v>
+        <v>0.9329744045940477</v>
       </c>
       <c r="W3">
-        <v>0.9940541091231009</v>
+        <v>0.9329744045940477</v>
       </c>
       <c r="X3">
-        <v>0.9940541091231009</v>
+        <v>0.9329744045940477</v>
       </c>
       <c r="Y3">
-        <v>0.9940541091231009</v>
+        <v>0.9329744045940477</v>
       </c>
       <c r="Z3">
-        <v>0.9940541091231009</v>
+        <v>0.9329744045940477</v>
       </c>
       <c r="AA3">
-        <v>0.9940541091231009</v>
+        <v>0.9329744045940477</v>
       </c>
       <c r="AB3">
-        <v>0.9940541091231009</v>
+        <v>0.9329744045940477</v>
       </c>
       <c r="AC3">
-        <v>0.9940541091231009</v>
+        <v>0.9329744045940477</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0.9632384664073966</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0.9632384664073966</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.9835081778368027</v>
       </c>
       <c r="AG3">
         <v>1</v>
@@ -1567,103 +1567,103 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3760507012595428</v>
+        <v>0.3083505097414167</v>
       </c>
       <c r="E4">
-        <v>0.3760507012595428</v>
+        <v>0.3083505097414167</v>
       </c>
       <c r="F4">
-        <v>0.8028969903680454</v>
+        <v>0.6549701440097397</v>
       </c>
       <c r="G4">
-        <v>0.8303025868308451</v>
+        <v>0.7006532943175738</v>
       </c>
       <c r="H4">
-        <v>0.8303025868308451</v>
+        <v>0.7006532943175738</v>
       </c>
       <c r="I4">
-        <v>0.8303025868308451</v>
+        <v>0.714252305899774</v>
       </c>
       <c r="J4">
-        <v>0.8303025868308451</v>
+        <v>0.714252305899774</v>
       </c>
       <c r="K4">
-        <v>0.8303025868308451</v>
+        <v>0.714252305899774</v>
       </c>
       <c r="L4">
-        <v>0.8303025868308451</v>
+        <v>0.7221279773372404</v>
       </c>
       <c r="M4">
-        <v>0.8303025868308451</v>
+        <v>0.7227101073737714</v>
       </c>
       <c r="N4">
-        <v>0.8303025868308451</v>
+        <v>0.7342238140935874</v>
       </c>
       <c r="O4">
-        <v>0.9176940772743425</v>
+        <v>0.8251000164718314</v>
       </c>
       <c r="P4">
-        <v>0.9176940772743425</v>
+        <v>0.8251000164718314</v>
       </c>
       <c r="Q4">
-        <v>0.9176940772743425</v>
+        <v>0.8251000164718314</v>
       </c>
       <c r="R4">
-        <v>0.9176940772743425</v>
+        <v>0.8471031632858008</v>
       </c>
       <c r="S4">
-        <v>0.9176940772743425</v>
+        <v>0.85444567246825</v>
       </c>
       <c r="T4">
-        <v>0.9971591632234871</v>
+        <v>0.939350164044623</v>
       </c>
       <c r="U4">
-        <v>0.9971591632234871</v>
+        <v>0.939350164044623</v>
       </c>
       <c r="V4">
-        <v>0.9971591632234871</v>
+        <v>0.939350164044623</v>
       </c>
       <c r="W4">
-        <v>0.9971591632234871</v>
+        <v>0.939350164044623</v>
       </c>
       <c r="X4">
-        <v>0.9971591632234871</v>
+        <v>0.939350164044623</v>
       </c>
       <c r="Y4">
-        <v>0.9971591632234871</v>
+        <v>0.939350164044623</v>
       </c>
       <c r="Z4">
-        <v>0.9971591632234871</v>
+        <v>0.939350164044623</v>
       </c>
       <c r="AA4">
-        <v>0.9971591632234871</v>
+        <v>0.939350164044623</v>
       </c>
       <c r="AB4">
-        <v>0.9971591632234871</v>
+        <v>0.939350164044623</v>
       </c>
       <c r="AC4">
-        <v>0.9971591632234871</v>
+        <v>0.939350164044623</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0.9665263556338509</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0.9676357090347351</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.9780646157175441</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -1677,91 +1677,91 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3408455164692351</v>
+        <v>0.2867534322645797</v>
       </c>
       <c r="E5">
-        <v>0.3408455164692351</v>
+        <v>0.2867534322645797</v>
       </c>
       <c r="F5">
-        <v>0.753001570348611</v>
+        <v>0.6282766920081526</v>
       </c>
       <c r="G5">
-        <v>0.8915827782841665</v>
+        <v>0.7596816766817016</v>
       </c>
       <c r="H5">
-        <v>0.8915827782841665</v>
+        <v>0.7596816766817016</v>
       </c>
       <c r="I5">
-        <v>0.8915827782841665</v>
+        <v>0.7609857529017666</v>
       </c>
       <c r="J5">
-        <v>0.8915827782841665</v>
+        <v>0.7609857529017666</v>
       </c>
       <c r="K5">
-        <v>0.8915827782841665</v>
+        <v>0.7612976346661103</v>
       </c>
       <c r="L5">
-        <v>0.8915827782841665</v>
+        <v>0.7698752951878227</v>
       </c>
       <c r="M5">
-        <v>0.8915827782841665</v>
+        <v>0.7890500310944659</v>
       </c>
       <c r="N5">
-        <v>0.8915827782841665</v>
+        <v>0.7907440150813108</v>
       </c>
       <c r="O5">
-        <v>0.9620328953141557</v>
+        <v>0.8698211358742149</v>
       </c>
       <c r="P5">
-        <v>0.9620328953141557</v>
+        <v>0.8698211358742149</v>
       </c>
       <c r="Q5">
-        <v>0.9620328953141557</v>
+        <v>0.871689017032474</v>
       </c>
       <c r="R5">
-        <v>0.9620328953141557</v>
+        <v>0.8959866533768089</v>
       </c>
       <c r="S5">
-        <v>0.9620328953141557</v>
+        <v>0.8959866533768089</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0.9501153016620045</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0.9501153016620045</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0.9501153016620045</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0.9501153016620045</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0.9501153016620045</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0.9501153016620045</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0.9501153016620045</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0.9501153016620045</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0.951890986193348</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.951890986193348</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0.9714325201970969</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.978827802592761</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.978827802592761</v>
       </c>
       <c r="AG5">
         <v>1</v>
@@ -1790,91 +1790,91 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.08765313031307989</v>
+        <v>0.08802743037407133</v>
       </c>
       <c r="F6">
-        <v>0.1841630034974273</v>
+        <v>0.1824133440181695</v>
       </c>
       <c r="G6">
-        <v>0.4157331850064503</v>
+        <v>0.3737625232114032</v>
       </c>
       <c r="H6">
-        <v>0.822206328852867</v>
+        <v>0.6906790329758252</v>
       </c>
       <c r="I6">
-        <v>0.822206328852867</v>
+        <v>0.6906790329758252</v>
       </c>
       <c r="J6">
-        <v>0.822206328852867</v>
+        <v>0.6953143738292256</v>
       </c>
       <c r="K6">
-        <v>0.822206328852867</v>
+        <v>0.6953143738292256</v>
       </c>
       <c r="L6">
-        <v>0.822206328852867</v>
+        <v>0.6953143738292256</v>
       </c>
       <c r="M6">
-        <v>0.822206328852867</v>
+        <v>0.6953143738292256</v>
       </c>
       <c r="N6">
-        <v>0.822206328852867</v>
+        <v>0.7090081036242731</v>
       </c>
       <c r="O6">
-        <v>0.822206328852867</v>
+        <v>0.7090081036242731</v>
       </c>
       <c r="P6">
-        <v>0.9492013778980697</v>
+        <v>0.8252801082967016</v>
       </c>
       <c r="Q6">
-        <v>0.9492013778980697</v>
+        <v>0.8448453211824408</v>
       </c>
       <c r="R6">
-        <v>0.9492013778980697</v>
+        <v>0.8448453211824408</v>
       </c>
       <c r="S6">
-        <v>0.9500119823345379</v>
+        <v>0.8705262709214378</v>
       </c>
       <c r="T6">
-        <v>0.9500119823345379</v>
+        <v>0.8705262709214378</v>
       </c>
       <c r="U6">
-        <v>0.9883270764178176</v>
+        <v>0.9231326574080434</v>
       </c>
       <c r="V6">
-        <v>0.9883270764178176</v>
+        <v>0.9296028843005432</v>
       </c>
       <c r="W6">
-        <v>0.9883270764178176</v>
+        <v>0.9300965310413984</v>
       </c>
       <c r="X6">
-        <v>0.9883270764178176</v>
+        <v>0.9300965310413984</v>
       </c>
       <c r="Y6">
-        <v>0.9883270764178176</v>
+        <v>0.9300965310413984</v>
       </c>
       <c r="Z6">
-        <v>0.9883270764178176</v>
+        <v>0.9300965310413984</v>
       </c>
       <c r="AA6">
-        <v>0.9883270764178176</v>
+        <v>0.9300965310413984</v>
       </c>
       <c r="AB6">
-        <v>0.9883270764178176</v>
+        <v>0.9300965310413984</v>
       </c>
       <c r="AC6">
-        <v>0.9883270764178176</v>
+        <v>0.9300965310413984</v>
       </c>
       <c r="AD6">
-        <v>0.9883270764178176</v>
+        <v>0.9300965310413984</v>
       </c>
       <c r="AE6">
-        <v>0.9883270764178176</v>
+        <v>0.9414217162662132</v>
       </c>
       <c r="AF6">
-        <v>0.9962726493751389</v>
+        <v>0.9722250432302724</v>
       </c>
       <c r="AG6">
-        <v>0.9962726493751389</v>
+        <v>0.9722250432302724</v>
       </c>
       <c r="AH6">
         <v>1</v>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.599396711471497</v>
+        <v>0.5277462035933375</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8476657570621586</v>
+        <v>0.7004420173061794</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8028969903680454</v>
+        <v>0.6549701440097397</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.753001570348611</v>
+        <v>0.6282766920081526</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.822206328852867</v>
+        <v>0.6906790329758252</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8515670668911006</v>
+        <v>0.7676367043434791</v>
       </c>
       <c r="G2">
         <v>13</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8476657570621586</v>
+        <v>0.7004420173061794</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2292,16 +2292,16 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.7006532943175738</v>
+      </c>
+      <c r="G4">
         <v>5</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.8028969903680454</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
       </c>
       <c r="H4">
         <v>57</v>
@@ -2333,16 +2333,16 @@
         <v>1</v>
       </c>
       <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.7596816766817016</v>
+      </c>
+      <c r="G5">
         <v>5</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.753001570348611</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
       </c>
       <c r="H5">
         <v>57</v>
@@ -2374,16 +2374,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.822206328852867</v>
+        <v>0.7090081036242731</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>57</v>
@@ -2469,16 +2469,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8515670668911006</v>
+        <v>0.8089452927001018</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>57</v>
@@ -2510,16 +2510,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8476657570621586</v>
+        <v>0.8648865848236172</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>57</v>
@@ -2551,16 +2551,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8028969903680454</v>
+        <v>0.8251000164718314</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>57</v>
@@ -2592,16 +2592,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8915827782841665</v>
+        <v>0.8698211358742149</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>57</v>
@@ -2633,16 +2633,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.822206328852867</v>
+        <v>0.8252801082967016</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>57</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9703155511897381</v>
+        <v>0.9063100289834335</v>
       </c>
       <c r="G2">
         <v>18</v>
@@ -2769,16 +2769,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9660782156526001</v>
+        <v>0.9329744045940477</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>57</v>
@@ -2810,16 +2810,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9176940772743425</v>
+        <v>0.939350164044623</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>57</v>
@@ -2851,16 +2851,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9620328953141557</v>
+        <v>0.9501153016620045</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>57</v>
@@ -2892,16 +2892,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9492013778980697</v>
+        <v>0.9231326574080434</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>57</v>
